--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.981390256930361</v>
+        <v>0.9813902569303617</v>
       </c>
       <c r="D2">
-        <v>1.00307745640432</v>
+        <v>1.003077456404321</v>
       </c>
       <c r="E2">
-        <v>0.9707148708653889</v>
+        <v>0.9707148708653892</v>
       </c>
       <c r="F2">
-        <v>0.9843527691520777</v>
+        <v>0.9843527691520783</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.004142195865423</v>
       </c>
       <c r="K2">
-        <v>1.01449408322753</v>
+        <v>1.014494083227531</v>
       </c>
       <c r="L2">
-        <v>0.9825978544232026</v>
+        <v>0.9825978544232028</v>
       </c>
       <c r="M2">
-        <v>0.9960344865089364</v>
+        <v>0.9960344865089368</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9895292774060178</v>
+        <v>0.9895292774060173</v>
       </c>
       <c r="D3">
-        <v>1.009424327804525</v>
+        <v>1.009424327804524</v>
       </c>
       <c r="E3">
-        <v>0.9768922908517058</v>
+        <v>0.9768922908517056</v>
       </c>
       <c r="F3">
-        <v>0.9923060902303654</v>
+        <v>0.9923060902303652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040796498931342</v>
+        <v>1.040796498931341</v>
       </c>
       <c r="J3">
-        <v>1.010309512705072</v>
+        <v>1.010309512705071</v>
       </c>
       <c r="K3">
-        <v>1.019938026185755</v>
+        <v>1.019938026185754</v>
       </c>
       <c r="L3">
-        <v>0.9878296339600038</v>
+        <v>0.9878296339600037</v>
       </c>
       <c r="M3">
         <v>1.003038371940084</v>
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9946157916695825</v>
+        <v>0.9946157916695826</v>
       </c>
       <c r="D4">
         <v>1.013392485296727</v>
       </c>
       <c r="E4">
-        <v>0.9807754430781603</v>
+        <v>0.9807754430781598</v>
       </c>
       <c r="F4">
-        <v>0.9972901703371759</v>
+        <v>0.9972901703371755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0424778538771</v>
+        <v>1.042477853877099</v>
       </c>
       <c r="J4">
         <v>1.014158236078992</v>
@@ -521,10 +521,10 @@
         <v>1.023331917890801</v>
       </c>
       <c r="L4">
-        <v>0.9911115661839968</v>
+        <v>0.9911115661839963</v>
       </c>
       <c r="M4">
-        <v>1.007421411019194</v>
+        <v>1.007421411019193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967137427361091</v>
+        <v>0.9967137427361099</v>
       </c>
       <c r="D5">
-        <v>1.01502941765705</v>
+        <v>1.015029417657051</v>
       </c>
       <c r="E5">
-        <v>0.9823822247125259</v>
+        <v>0.982382224712526</v>
       </c>
       <c r="F5">
-        <v>0.9993490243633005</v>
+        <v>0.9993490243633013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043167128341693</v>
+        <v>1.043167128341694</v>
       </c>
       <c r="J5">
         <v>1.015744237606433</v>
       </c>
       <c r="K5">
-        <v>1.024729633897753</v>
+        <v>1.024729633897754</v>
       </c>
       <c r="L5">
         <v>0.9924679654184584</v>
       </c>
       <c r="M5">
-        <v>1.009230514822453</v>
+        <v>1.009230514822454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970637005242987</v>
+        <v>0.9970637005242993</v>
       </c>
       <c r="D6">
         <v>1.01530248400589</v>
       </c>
       <c r="E6">
-        <v>0.9826505477263243</v>
+        <v>0.9826505477263244</v>
       </c>
       <c r="F6">
-        <v>0.9996926427040556</v>
+        <v>0.9996926427040557</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.043281855748497</v>
       </c>
       <c r="J6">
-        <v>1.016008711714411</v>
+        <v>1.016008711714412</v>
       </c>
       <c r="K6">
-        <v>1.024962658953097</v>
+        <v>1.024962658953098</v>
       </c>
       <c r="L6">
-        <v>0.9926943820507189</v>
+        <v>0.992694382050719</v>
       </c>
       <c r="M6">
         <v>1.009532363607073</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9946439800801881</v>
+        <v>0.9946439800801872</v>
       </c>
       <c r="D7">
-        <v>1.013414478572799</v>
+        <v>1.013414478572798</v>
       </c>
       <c r="E7">
-        <v>0.9807970119186937</v>
+        <v>0.9807970119186938</v>
       </c>
       <c r="F7">
-        <v>0.9973178210889786</v>
+        <v>0.9973178210889784</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.014179551576413</v>
       </c>
       <c r="K7">
-        <v>1.023350706316424</v>
+        <v>1.023350706316423</v>
       </c>
       <c r="L7">
-        <v>0.9911297803208293</v>
+        <v>0.9911297803208294</v>
       </c>
       <c r="M7">
-        <v>1.007445713416822</v>
+        <v>1.007445713416821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9841798327195335</v>
+        <v>0.9841798327195324</v>
       </c>
       <c r="D8">
-        <v>1.005252345501871</v>
+        <v>1.00525234550187</v>
       </c>
       <c r="E8">
-        <v>0.9728271898394212</v>
+        <v>0.9728271898394206</v>
       </c>
       <c r="F8">
-        <v>0.9870757391102741</v>
+        <v>0.9870757391102727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039013764868308</v>
+        <v>1.039013764868307</v>
       </c>
       <c r="J8">
-        <v>1.006257113634944</v>
+        <v>1.006257113634943</v>
       </c>
       <c r="K8">
-        <v>1.01636163738093</v>
+        <v>1.016361637380929</v>
       </c>
       <c r="L8">
-        <v>0.9843882637828207</v>
+        <v>0.9843882637828201</v>
       </c>
       <c r="M8">
-        <v>0.9984336712639172</v>
+        <v>0.9984336712639159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642267935531575</v>
+        <v>0.9642267935531555</v>
       </c>
       <c r="D9">
-        <v>0.9897100618047542</v>
+        <v>0.9897100618047521</v>
       </c>
       <c r="E9">
-        <v>0.957828907000438</v>
+        <v>0.9578289070004373</v>
       </c>
       <c r="F9">
-        <v>0.9676642352470275</v>
+        <v>0.9676642352470259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032254564851147</v>
+        <v>1.032254564851146</v>
       </c>
       <c r="J9">
-        <v>0.9911092702860589</v>
+        <v>0.9911092702860569</v>
       </c>
       <c r="K9">
-        <v>1.002972321807763</v>
+        <v>1.002972321807761</v>
       </c>
       <c r="L9">
-        <v>0.9716453606232963</v>
+        <v>0.9716453606232957</v>
       </c>
       <c r="M9">
-        <v>0.9813046692485691</v>
+        <v>0.9813046692485674</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9496879303531442</v>
+        <v>0.9496879303531448</v>
       </c>
       <c r="D10">
-        <v>0.9784121581991032</v>
+        <v>0.9784121581991037</v>
       </c>
       <c r="E10">
-        <v>0.9470589724702194</v>
+        <v>0.9470589724702198</v>
       </c>
       <c r="F10">
-        <v>0.953611534800457</v>
+        <v>0.9536115348004573</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027243261997132</v>
       </c>
       <c r="J10">
-        <v>0.9800503920866104</v>
+        <v>0.9800503920866108</v>
       </c>
       <c r="K10">
-        <v>0.9931824427285907</v>
+        <v>0.9931824427285912</v>
       </c>
       <c r="L10">
-        <v>0.9624547370327425</v>
+        <v>0.9624547370327426</v>
       </c>
       <c r="M10">
-        <v>0.9688720955799113</v>
+        <v>0.9688720955799115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430393999748995</v>
+        <v>0.9430393999749025</v>
       </c>
       <c r="D11">
-        <v>0.9732554487335444</v>
+        <v>0.9732554487335473</v>
       </c>
       <c r="E11">
-        <v>0.9421778557606396</v>
+        <v>0.9421778557606412</v>
       </c>
       <c r="F11">
-        <v>0.9472100475738779</v>
+        <v>0.9472100475738806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02493294753594</v>
+        <v>1.024932947535941</v>
       </c>
       <c r="J11">
-        <v>0.9749900142940299</v>
+        <v>0.9749900142940326</v>
       </c>
       <c r="K11">
-        <v>0.9886999888968256</v>
+        <v>0.9886999888968283</v>
       </c>
       <c r="L11">
-        <v>0.9582793022947652</v>
+        <v>0.9582793022947669</v>
       </c>
       <c r="M11">
-        <v>0.9632012407183642</v>
+        <v>0.9632012407183667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9405106871817097</v>
+        <v>0.9405106871817103</v>
       </c>
       <c r="D12">
-        <v>0.9712959321223961</v>
+        <v>0.971295932122396</v>
       </c>
       <c r="E12">
-        <v>0.9403285841039425</v>
+        <v>0.9403285841039422</v>
       </c>
       <c r="F12">
-        <v>0.9447793094411009</v>
+        <v>0.9447793094411006</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.024051610700152</v>
       </c>
       <c r="J12">
-        <v>0.9730650426994765</v>
+        <v>0.9730650426994766</v>
       </c>
       <c r="K12">
-        <v>0.9869945223107937</v>
+        <v>0.9869945223107939</v>
       </c>
       <c r="L12">
-        <v>0.9566958177060096</v>
+        <v>0.956695817706009</v>
       </c>
       <c r="M12">
-        <v>0.9610468516315956</v>
+        <v>0.9610468516315952</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9410558904956396</v>
+        <v>0.941055890495638</v>
       </c>
       <c r="D13">
-        <v>0.971718327141347</v>
+        <v>0.9717183271413455</v>
       </c>
       <c r="E13">
-        <v>0.9407269598482088</v>
+        <v>0.940726959848208</v>
       </c>
       <c r="F13">
-        <v>0.9453032026056432</v>
+        <v>0.945303202605642</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024241746813377</v>
       </c>
       <c r="J13">
-        <v>0.973480086595676</v>
+        <v>0.9734800865956745</v>
       </c>
       <c r="K13">
-        <v>0.9873622525597224</v>
+        <v>0.9873622525597211</v>
       </c>
       <c r="L13">
-        <v>0.9570370085517184</v>
+        <v>0.9570370085517177</v>
       </c>
       <c r="M13">
-        <v>0.9615112320746868</v>
+        <v>0.9615112320746857</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428316213756942</v>
+        <v>0.9428316213756962</v>
       </c>
       <c r="D14">
-        <v>0.9730944013081959</v>
+        <v>0.9730944013081978</v>
       </c>
       <c r="E14">
-        <v>0.9420257552170685</v>
+        <v>0.9420257552170694</v>
       </c>
       <c r="F14">
-        <v>0.9470102361863189</v>
+        <v>0.9470102361863206</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024860582187185</v>
+        <v>1.024860582187186</v>
       </c>
       <c r="J14">
-        <v>0.9748318486450823</v>
+        <v>0.9748318486450844</v>
       </c>
       <c r="K14">
-        <v>0.9885598652866834</v>
+        <v>0.9885598652866853</v>
       </c>
       <c r="L14">
-        <v>0.95814909459151</v>
+        <v>0.958149094591511</v>
       </c>
       <c r="M14">
-        <v>0.9630241675165329</v>
+        <v>0.9630241675165346</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439176698346384</v>
+        <v>0.9439176698346392</v>
       </c>
       <c r="D15">
-        <v>0.9739362630927452</v>
+        <v>0.9739362630927456</v>
       </c>
       <c r="E15">
         <v>0.9428210740128743</v>
       </c>
       <c r="F15">
-        <v>0.9480548051165772</v>
+        <v>0.9480548051165777</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025238726808055</v>
       </c>
       <c r="J15">
-        <v>0.9756585616919742</v>
+        <v>0.9756585616919748</v>
       </c>
       <c r="K15">
-        <v>0.9892922615175632</v>
+        <v>0.9892922615175638</v>
       </c>
       <c r="L15">
-        <v>0.9588298737860128</v>
+        <v>0.9588298737860126</v>
       </c>
       <c r="M15">
-        <v>0.963949822564229</v>
+        <v>0.9639498225642295</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9501212332506886</v>
+        <v>0.9501212332506878</v>
       </c>
       <c r="D16">
-        <v>0.978748462487862</v>
+        <v>0.9787484624878612</v>
       </c>
       <c r="E16">
         <v>0.9473780428569842</v>
       </c>
       <c r="F16">
-        <v>0.9540292705988614</v>
+        <v>0.9540292705988604</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027393461069465</v>
       </c>
       <c r="J16">
-        <v>0.9803801392107323</v>
+        <v>0.9803801392107316</v>
       </c>
       <c r="K16">
-        <v>0.9934744802935642</v>
+        <v>0.9934744802935637</v>
       </c>
       <c r="L16">
-        <v>0.9627274652474824</v>
+        <v>0.9627274652474822</v>
       </c>
       <c r="M16">
-        <v>0.9692420029123786</v>
+        <v>0.9692420029123779</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9539140201552684</v>
+        <v>0.9539140201552689</v>
       </c>
       <c r="D17">
-        <v>0.9816933297094913</v>
+        <v>0.9816933297094916</v>
       </c>
       <c r="E17">
-        <v>0.9501759202391379</v>
+        <v>0.9501759202391381</v>
       </c>
       <c r="F17">
-        <v>0.957688600162661</v>
+        <v>0.957688600162662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028706107079719</v>
+        <v>1.02870610707972</v>
       </c>
       <c r="J17">
-        <v>0.9832661394878134</v>
+        <v>0.9832661394878137</v>
       </c>
       <c r="K17">
-        <v>0.996030139901971</v>
+        <v>0.9960301399019713</v>
       </c>
       <c r="L17">
-        <v>0.9651178326974085</v>
+        <v>0.9651178326974087</v>
       </c>
       <c r="M17">
-        <v>0.9724815312511381</v>
+        <v>0.9724815312511391</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9560926794403806</v>
+        <v>0.9560926794403807</v>
       </c>
       <c r="D18">
         <v>0.9833858124275745</v>
       </c>
       <c r="E18">
-        <v>0.951787136215649</v>
+        <v>0.9517871362156491</v>
       </c>
       <c r="F18">
         <v>0.9597928853038346</v>
@@ -1050,13 +1050,13 @@
         <v>0.9849236068742802</v>
       </c>
       <c r="K18">
-        <v>0.997497626328845</v>
+        <v>0.9974976263288451</v>
       </c>
       <c r="L18">
-        <v>0.9664934325448363</v>
+        <v>0.9664934325448364</v>
       </c>
       <c r="M18">
-        <v>0.9743437175750691</v>
+        <v>0.9743437175750692</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.956830014878629</v>
+        <v>0.9568300148786283</v>
       </c>
       <c r="D19">
-        <v>0.9839587499920661</v>
+        <v>0.9839587499920655</v>
       </c>
       <c r="E19">
-        <v>0.9523330996475478</v>
+        <v>0.9523330996475471</v>
       </c>
       <c r="F19">
-        <v>0.9605054297286333</v>
+        <v>0.9605054297286328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029712650855789</v>
+        <v>1.029712650855788</v>
       </c>
       <c r="J19">
-        <v>0.9854844942532486</v>
+        <v>0.9854844942532478</v>
       </c>
       <c r="K19">
-        <v>0.9979941775833716</v>
+        <v>0.9979941775833709</v>
       </c>
       <c r="L19">
-        <v>0.9669593985091337</v>
+        <v>0.9669593985091332</v>
       </c>
       <c r="M19">
-        <v>0.9749741650879147</v>
+        <v>0.974974165087914</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.953510607329163</v>
+        <v>0.9535106073291647</v>
       </c>
       <c r="D20">
-        <v>0.981380009850513</v>
+        <v>0.9813800098505149</v>
       </c>
       <c r="E20">
-        <v>0.9498779032161564</v>
+        <v>0.9498779032161568</v>
       </c>
       <c r="F20">
-        <v>0.9572991424104357</v>
+        <v>0.9572991424104371</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028566671421938</v>
       </c>
       <c r="J20">
-        <v>0.9829592068055542</v>
+        <v>0.9829592068055557</v>
       </c>
       <c r="K20">
-        <v>0.9957583664626513</v>
+        <v>0.9957583664626529</v>
       </c>
       <c r="L20">
-        <v>0.9648633201327498</v>
+        <v>0.9648633201327502</v>
       </c>
       <c r="M20">
-        <v>0.9721368243499273</v>
+        <v>0.9721368243499288</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423103998687147</v>
+        <v>0.9423103998687157</v>
       </c>
       <c r="D21">
-        <v>0.9726904369721868</v>
+        <v>0.972690436972188</v>
       </c>
       <c r="E21">
-        <v>0.941644322731628</v>
+        <v>0.9416443227316283</v>
       </c>
       <c r="F21">
-        <v>0.9465090663310139</v>
+        <v>0.9465090663310147</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024679009053676</v>
+        <v>1.024679009053677</v>
       </c>
       <c r="J21">
-        <v>0.9744350792152473</v>
+        <v>0.974435079215248</v>
       </c>
       <c r="K21">
-        <v>0.988208350404954</v>
+        <v>0.9882083504049549</v>
       </c>
       <c r="L21">
-        <v>0.9578225387902908</v>
+        <v>0.9578225387902909</v>
       </c>
       <c r="M21">
-        <v>0.9625800126185798</v>
+        <v>0.9625800126185805</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9349223374687878</v>
+        <v>0.9349223374687871</v>
       </c>
       <c r="D22">
-        <v>0.9669692093470246</v>
+        <v>0.9669692093470239</v>
       </c>
       <c r="E22">
-        <v>0.9362559016332159</v>
+        <v>0.9362559016332151</v>
       </c>
       <c r="F22">
-        <v>0.9394152778693479</v>
+        <v>0.9394152778693466</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022099252494111</v>
       </c>
       <c r="J22">
-        <v>0.9688106123916531</v>
+        <v>0.9688106123916524</v>
       </c>
       <c r="K22">
-        <v>0.9832246940666476</v>
+        <v>0.983224694066647</v>
       </c>
       <c r="L22">
-        <v>0.9532055187427273</v>
+        <v>0.9532055187427265</v>
       </c>
       <c r="M22">
-        <v>0.9562906871198655</v>
+        <v>0.9562906871198644</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.938874005497395</v>
+        <v>0.9388740054973933</v>
       </c>
       <c r="D23">
-        <v>0.9700282079030612</v>
+        <v>0.9700282079030592</v>
       </c>
       <c r="E23">
-        <v>0.9391337858225713</v>
+        <v>0.9391337858225716</v>
       </c>
       <c r="F23">
-        <v>0.943207214373059</v>
+        <v>0.943207214373058</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.023480458324209</v>
       </c>
       <c r="J23">
-        <v>0.9718190670296925</v>
+        <v>0.9718190670296908</v>
       </c>
       <c r="K23">
-        <v>0.9858905406523512</v>
+        <v>0.9858905406523497</v>
       </c>
       <c r="L23">
-        <v>0.9556722922403553</v>
+        <v>0.9556722922403554</v>
       </c>
       <c r="M23">
-        <v>0.9596531855640178</v>
+        <v>0.9596531855640168</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9536929956333383</v>
+        <v>0.9536929956333403</v>
       </c>
       <c r="D24">
-        <v>0.9815216631911384</v>
+        <v>0.9815216631911402</v>
       </c>
       <c r="E24">
-        <v>0.950012628110779</v>
+        <v>0.9500126281107799</v>
       </c>
       <c r="F24">
-        <v>0.9574752143495592</v>
+        <v>0.957475214349561</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02862971761191</v>
+        <v>1.028629717611911</v>
       </c>
       <c r="J24">
-        <v>0.9830979761431817</v>
+        <v>0.9830979761431835</v>
       </c>
       <c r="K24">
-        <v>0.995881240546034</v>
+        <v>0.9958812405460357</v>
       </c>
       <c r="L24">
-        <v>0.9649783808434987</v>
+        <v>0.9649783808434995</v>
       </c>
       <c r="M24">
-        <v>0.9722926668069061</v>
+        <v>0.9722926668069078</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695852498129534</v>
+        <v>0.9695852498129536</v>
       </c>
       <c r="D25">
-        <v>0.9938803883876388</v>
+        <v>0.9938803883876394</v>
       </c>
       <c r="E25">
-        <v>0.9618317411884544</v>
+        <v>0.9618317411884548</v>
       </c>
       <c r="F25">
-        <v>0.9728626440625944</v>
+        <v>0.9728626440625945</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03408484669758</v>
       </c>
       <c r="J25">
-        <v>0.9951814099869656</v>
+        <v>0.9951814099869658</v>
       </c>
       <c r="K25">
-        <v>1.006574452127436</v>
+        <v>1.006574452127437</v>
       </c>
       <c r="L25">
-        <v>0.9750529527300159</v>
+        <v>0.9750529527300161</v>
       </c>
       <c r="M25">
-        <v>0.9858973662636211</v>
+        <v>0.985897366263621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9813902569303617</v>
+        <v>0.981390256930361</v>
       </c>
       <c r="D2">
-        <v>1.003077456404321</v>
+        <v>1.00307745640432</v>
       </c>
       <c r="E2">
-        <v>0.9707148708653892</v>
+        <v>0.9707148708653889</v>
       </c>
       <c r="F2">
-        <v>0.9843527691520783</v>
+        <v>0.9843527691520777</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.004142195865423</v>
       </c>
       <c r="K2">
-        <v>1.014494083227531</v>
+        <v>1.01449408322753</v>
       </c>
       <c r="L2">
-        <v>0.9825978544232028</v>
+        <v>0.9825978544232026</v>
       </c>
       <c r="M2">
-        <v>0.9960344865089368</v>
+        <v>0.9960344865089364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9895292774060173</v>
+        <v>0.9895292774060178</v>
       </c>
       <c r="D3">
-        <v>1.009424327804524</v>
+        <v>1.009424327804525</v>
       </c>
       <c r="E3">
-        <v>0.9768922908517056</v>
+        <v>0.9768922908517058</v>
       </c>
       <c r="F3">
-        <v>0.9923060902303652</v>
+        <v>0.9923060902303654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040796498931341</v>
+        <v>1.040796498931342</v>
       </c>
       <c r="J3">
-        <v>1.010309512705071</v>
+        <v>1.010309512705072</v>
       </c>
       <c r="K3">
-        <v>1.019938026185754</v>
+        <v>1.019938026185755</v>
       </c>
       <c r="L3">
-        <v>0.9878296339600037</v>
+        <v>0.9878296339600038</v>
       </c>
       <c r="M3">
         <v>1.003038371940084</v>
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9946157916695826</v>
+        <v>0.9946157916695825</v>
       </c>
       <c r="D4">
         <v>1.013392485296727</v>
       </c>
       <c r="E4">
-        <v>0.9807754430781598</v>
+        <v>0.9807754430781603</v>
       </c>
       <c r="F4">
-        <v>0.9972901703371755</v>
+        <v>0.9972901703371759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042477853877099</v>
+        <v>1.0424778538771</v>
       </c>
       <c r="J4">
         <v>1.014158236078992</v>
@@ -521,10 +521,10 @@
         <v>1.023331917890801</v>
       </c>
       <c r="L4">
-        <v>0.9911115661839963</v>
+        <v>0.9911115661839968</v>
       </c>
       <c r="M4">
-        <v>1.007421411019193</v>
+        <v>1.007421411019194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967137427361099</v>
+        <v>0.9967137427361091</v>
       </c>
       <c r="D5">
-        <v>1.015029417657051</v>
+        <v>1.01502941765705</v>
       </c>
       <c r="E5">
-        <v>0.982382224712526</v>
+        <v>0.9823822247125259</v>
       </c>
       <c r="F5">
-        <v>0.9993490243633013</v>
+        <v>0.9993490243633005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043167128341694</v>
+        <v>1.043167128341693</v>
       </c>
       <c r="J5">
         <v>1.015744237606433</v>
       </c>
       <c r="K5">
-        <v>1.024729633897754</v>
+        <v>1.024729633897753</v>
       </c>
       <c r="L5">
         <v>0.9924679654184584</v>
       </c>
       <c r="M5">
-        <v>1.009230514822454</v>
+        <v>1.009230514822453</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970637005242993</v>
+        <v>0.9970637005242987</v>
       </c>
       <c r="D6">
         <v>1.01530248400589</v>
       </c>
       <c r="E6">
-        <v>0.9826505477263244</v>
+        <v>0.9826505477263243</v>
       </c>
       <c r="F6">
-        <v>0.9996926427040557</v>
+        <v>0.9996926427040556</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.043281855748497</v>
       </c>
       <c r="J6">
-        <v>1.016008711714412</v>
+        <v>1.016008711714411</v>
       </c>
       <c r="K6">
-        <v>1.024962658953098</v>
+        <v>1.024962658953097</v>
       </c>
       <c r="L6">
-        <v>0.992694382050719</v>
+        <v>0.9926943820507189</v>
       </c>
       <c r="M6">
         <v>1.009532363607073</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9946439800801872</v>
+        <v>0.9946439800801881</v>
       </c>
       <c r="D7">
-        <v>1.013414478572798</v>
+        <v>1.013414478572799</v>
       </c>
       <c r="E7">
-        <v>0.9807970119186938</v>
+        <v>0.9807970119186937</v>
       </c>
       <c r="F7">
-        <v>0.9973178210889784</v>
+        <v>0.9973178210889786</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.014179551576413</v>
       </c>
       <c r="K7">
-        <v>1.023350706316423</v>
+        <v>1.023350706316424</v>
       </c>
       <c r="L7">
-        <v>0.9911297803208294</v>
+        <v>0.9911297803208293</v>
       </c>
       <c r="M7">
-        <v>1.007445713416821</v>
+        <v>1.007445713416822</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9841798327195324</v>
+        <v>0.9841798327195335</v>
       </c>
       <c r="D8">
-        <v>1.00525234550187</v>
+        <v>1.005252345501871</v>
       </c>
       <c r="E8">
-        <v>0.9728271898394206</v>
+        <v>0.9728271898394212</v>
       </c>
       <c r="F8">
-        <v>0.9870757391102727</v>
+        <v>0.9870757391102741</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039013764868307</v>
+        <v>1.039013764868308</v>
       </c>
       <c r="J8">
-        <v>1.006257113634943</v>
+        <v>1.006257113634944</v>
       </c>
       <c r="K8">
-        <v>1.016361637380929</v>
+        <v>1.01636163738093</v>
       </c>
       <c r="L8">
-        <v>0.9843882637828201</v>
+        <v>0.9843882637828207</v>
       </c>
       <c r="M8">
-        <v>0.9984336712639159</v>
+        <v>0.9984336712639172</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642267935531555</v>
+        <v>0.9642267935531575</v>
       </c>
       <c r="D9">
-        <v>0.9897100618047521</v>
+        <v>0.9897100618047542</v>
       </c>
       <c r="E9">
-        <v>0.9578289070004373</v>
+        <v>0.957828907000438</v>
       </c>
       <c r="F9">
-        <v>0.9676642352470259</v>
+        <v>0.9676642352470275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032254564851146</v>
+        <v>1.032254564851147</v>
       </c>
       <c r="J9">
-        <v>0.9911092702860569</v>
+        <v>0.9911092702860589</v>
       </c>
       <c r="K9">
-        <v>1.002972321807761</v>
+        <v>1.002972321807763</v>
       </c>
       <c r="L9">
-        <v>0.9716453606232957</v>
+        <v>0.9716453606232963</v>
       </c>
       <c r="M9">
-        <v>0.9813046692485674</v>
+        <v>0.9813046692485691</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9496879303531448</v>
+        <v>0.9496879303531442</v>
       </c>
       <c r="D10">
-        <v>0.9784121581991037</v>
+        <v>0.9784121581991032</v>
       </c>
       <c r="E10">
-        <v>0.9470589724702198</v>
+        <v>0.9470589724702194</v>
       </c>
       <c r="F10">
-        <v>0.9536115348004573</v>
+        <v>0.953611534800457</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027243261997132</v>
       </c>
       <c r="J10">
-        <v>0.9800503920866108</v>
+        <v>0.9800503920866104</v>
       </c>
       <c r="K10">
-        <v>0.9931824427285912</v>
+        <v>0.9931824427285907</v>
       </c>
       <c r="L10">
-        <v>0.9624547370327426</v>
+        <v>0.9624547370327425</v>
       </c>
       <c r="M10">
-        <v>0.9688720955799115</v>
+        <v>0.9688720955799113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430393999749025</v>
+        <v>0.9430393999748995</v>
       </c>
       <c r="D11">
-        <v>0.9732554487335473</v>
+        <v>0.9732554487335444</v>
       </c>
       <c r="E11">
-        <v>0.9421778557606412</v>
+        <v>0.9421778557606396</v>
       </c>
       <c r="F11">
-        <v>0.9472100475738806</v>
+        <v>0.9472100475738779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024932947535941</v>
+        <v>1.02493294753594</v>
       </c>
       <c r="J11">
-        <v>0.9749900142940326</v>
+        <v>0.9749900142940299</v>
       </c>
       <c r="K11">
-        <v>0.9886999888968283</v>
+        <v>0.9886999888968256</v>
       </c>
       <c r="L11">
-        <v>0.9582793022947669</v>
+        <v>0.9582793022947652</v>
       </c>
       <c r="M11">
-        <v>0.9632012407183667</v>
+        <v>0.9632012407183642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9405106871817103</v>
+        <v>0.9405106871817097</v>
       </c>
       <c r="D12">
-        <v>0.971295932122396</v>
+        <v>0.9712959321223961</v>
       </c>
       <c r="E12">
-        <v>0.9403285841039422</v>
+        <v>0.9403285841039425</v>
       </c>
       <c r="F12">
-        <v>0.9447793094411006</v>
+        <v>0.9447793094411009</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.024051610700152</v>
       </c>
       <c r="J12">
-        <v>0.9730650426994766</v>
+        <v>0.9730650426994765</v>
       </c>
       <c r="K12">
-        <v>0.9869945223107939</v>
+        <v>0.9869945223107937</v>
       </c>
       <c r="L12">
-        <v>0.956695817706009</v>
+        <v>0.9566958177060096</v>
       </c>
       <c r="M12">
-        <v>0.9610468516315952</v>
+        <v>0.9610468516315956</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.941055890495638</v>
+        <v>0.9410558904956396</v>
       </c>
       <c r="D13">
-        <v>0.9717183271413455</v>
+        <v>0.971718327141347</v>
       </c>
       <c r="E13">
-        <v>0.940726959848208</v>
+        <v>0.9407269598482088</v>
       </c>
       <c r="F13">
-        <v>0.945303202605642</v>
+        <v>0.9453032026056432</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024241746813377</v>
       </c>
       <c r="J13">
-        <v>0.9734800865956745</v>
+        <v>0.973480086595676</v>
       </c>
       <c r="K13">
-        <v>0.9873622525597211</v>
+        <v>0.9873622525597224</v>
       </c>
       <c r="L13">
-        <v>0.9570370085517177</v>
+        <v>0.9570370085517184</v>
       </c>
       <c r="M13">
-        <v>0.9615112320746857</v>
+        <v>0.9615112320746868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428316213756962</v>
+        <v>0.9428316213756942</v>
       </c>
       <c r="D14">
-        <v>0.9730944013081978</v>
+        <v>0.9730944013081959</v>
       </c>
       <c r="E14">
-        <v>0.9420257552170694</v>
+        <v>0.9420257552170685</v>
       </c>
       <c r="F14">
-        <v>0.9470102361863206</v>
+        <v>0.9470102361863189</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024860582187186</v>
+        <v>1.024860582187185</v>
       </c>
       <c r="J14">
-        <v>0.9748318486450844</v>
+        <v>0.9748318486450823</v>
       </c>
       <c r="K14">
-        <v>0.9885598652866853</v>
+        <v>0.9885598652866834</v>
       </c>
       <c r="L14">
-        <v>0.958149094591511</v>
+        <v>0.95814909459151</v>
       </c>
       <c r="M14">
-        <v>0.9630241675165346</v>
+        <v>0.9630241675165329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439176698346392</v>
+        <v>0.9439176698346384</v>
       </c>
       <c r="D15">
-        <v>0.9739362630927456</v>
+        <v>0.9739362630927452</v>
       </c>
       <c r="E15">
         <v>0.9428210740128743</v>
       </c>
       <c r="F15">
-        <v>0.9480548051165777</v>
+        <v>0.9480548051165772</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025238726808055</v>
       </c>
       <c r="J15">
-        <v>0.9756585616919748</v>
+        <v>0.9756585616919742</v>
       </c>
       <c r="K15">
-        <v>0.9892922615175638</v>
+        <v>0.9892922615175632</v>
       </c>
       <c r="L15">
-        <v>0.9588298737860126</v>
+        <v>0.9588298737860128</v>
       </c>
       <c r="M15">
-        <v>0.9639498225642295</v>
+        <v>0.963949822564229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9501212332506878</v>
+        <v>0.9501212332506886</v>
       </c>
       <c r="D16">
-        <v>0.9787484624878612</v>
+        <v>0.978748462487862</v>
       </c>
       <c r="E16">
         <v>0.9473780428569842</v>
       </c>
       <c r="F16">
-        <v>0.9540292705988604</v>
+        <v>0.9540292705988614</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027393461069465</v>
       </c>
       <c r="J16">
-        <v>0.9803801392107316</v>
+        <v>0.9803801392107323</v>
       </c>
       <c r="K16">
-        <v>0.9934744802935637</v>
+        <v>0.9934744802935642</v>
       </c>
       <c r="L16">
-        <v>0.9627274652474822</v>
+        <v>0.9627274652474824</v>
       </c>
       <c r="M16">
-        <v>0.9692420029123779</v>
+        <v>0.9692420029123786</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9539140201552689</v>
+        <v>0.9539140201552684</v>
       </c>
       <c r="D17">
-        <v>0.9816933297094916</v>
+        <v>0.9816933297094913</v>
       </c>
       <c r="E17">
-        <v>0.9501759202391381</v>
+        <v>0.9501759202391379</v>
       </c>
       <c r="F17">
-        <v>0.957688600162662</v>
+        <v>0.957688600162661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02870610707972</v>
+        <v>1.028706107079719</v>
       </c>
       <c r="J17">
-        <v>0.9832661394878137</v>
+        <v>0.9832661394878134</v>
       </c>
       <c r="K17">
-        <v>0.9960301399019713</v>
+        <v>0.996030139901971</v>
       </c>
       <c r="L17">
-        <v>0.9651178326974087</v>
+        <v>0.9651178326974085</v>
       </c>
       <c r="M17">
-        <v>0.9724815312511391</v>
+        <v>0.9724815312511381</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9560926794403807</v>
+        <v>0.9560926794403806</v>
       </c>
       <c r="D18">
         <v>0.9833858124275745</v>
       </c>
       <c r="E18">
-        <v>0.9517871362156491</v>
+        <v>0.951787136215649</v>
       </c>
       <c r="F18">
         <v>0.9597928853038346</v>
@@ -1050,13 +1050,13 @@
         <v>0.9849236068742802</v>
       </c>
       <c r="K18">
-        <v>0.9974976263288451</v>
+        <v>0.997497626328845</v>
       </c>
       <c r="L18">
-        <v>0.9664934325448364</v>
+        <v>0.9664934325448363</v>
       </c>
       <c r="M18">
-        <v>0.9743437175750692</v>
+        <v>0.9743437175750691</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9568300148786283</v>
+        <v>0.956830014878629</v>
       </c>
       <c r="D19">
-        <v>0.9839587499920655</v>
+        <v>0.9839587499920661</v>
       </c>
       <c r="E19">
-        <v>0.9523330996475471</v>
+        <v>0.9523330996475478</v>
       </c>
       <c r="F19">
-        <v>0.9605054297286328</v>
+        <v>0.9605054297286333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029712650855788</v>
+        <v>1.029712650855789</v>
       </c>
       <c r="J19">
-        <v>0.9854844942532478</v>
+        <v>0.9854844942532486</v>
       </c>
       <c r="K19">
-        <v>0.9979941775833709</v>
+        <v>0.9979941775833716</v>
       </c>
       <c r="L19">
-        <v>0.9669593985091332</v>
+        <v>0.9669593985091337</v>
       </c>
       <c r="M19">
-        <v>0.974974165087914</v>
+        <v>0.9749741650879147</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535106073291647</v>
+        <v>0.953510607329163</v>
       </c>
       <c r="D20">
-        <v>0.9813800098505149</v>
+        <v>0.981380009850513</v>
       </c>
       <c r="E20">
-        <v>0.9498779032161568</v>
+        <v>0.9498779032161564</v>
       </c>
       <c r="F20">
-        <v>0.9572991424104371</v>
+        <v>0.9572991424104357</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028566671421938</v>
       </c>
       <c r="J20">
-        <v>0.9829592068055557</v>
+        <v>0.9829592068055542</v>
       </c>
       <c r="K20">
-        <v>0.9957583664626529</v>
+        <v>0.9957583664626513</v>
       </c>
       <c r="L20">
-        <v>0.9648633201327502</v>
+        <v>0.9648633201327498</v>
       </c>
       <c r="M20">
-        <v>0.9721368243499288</v>
+        <v>0.9721368243499273</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423103998687157</v>
+        <v>0.9423103998687147</v>
       </c>
       <c r="D21">
-        <v>0.972690436972188</v>
+        <v>0.9726904369721868</v>
       </c>
       <c r="E21">
-        <v>0.9416443227316283</v>
+        <v>0.941644322731628</v>
       </c>
       <c r="F21">
-        <v>0.9465090663310147</v>
+        <v>0.9465090663310139</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024679009053677</v>
+        <v>1.024679009053676</v>
       </c>
       <c r="J21">
-        <v>0.974435079215248</v>
+        <v>0.9744350792152473</v>
       </c>
       <c r="K21">
-        <v>0.9882083504049549</v>
+        <v>0.988208350404954</v>
       </c>
       <c r="L21">
-        <v>0.9578225387902909</v>
+        <v>0.9578225387902908</v>
       </c>
       <c r="M21">
-        <v>0.9625800126185805</v>
+        <v>0.9625800126185798</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9349223374687871</v>
+        <v>0.9349223374687878</v>
       </c>
       <c r="D22">
-        <v>0.9669692093470239</v>
+        <v>0.9669692093470246</v>
       </c>
       <c r="E22">
-        <v>0.9362559016332151</v>
+        <v>0.9362559016332159</v>
       </c>
       <c r="F22">
-        <v>0.9394152778693466</v>
+        <v>0.9394152778693479</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022099252494111</v>
       </c>
       <c r="J22">
-        <v>0.9688106123916524</v>
+        <v>0.9688106123916531</v>
       </c>
       <c r="K22">
-        <v>0.983224694066647</v>
+        <v>0.9832246940666476</v>
       </c>
       <c r="L22">
-        <v>0.9532055187427265</v>
+        <v>0.9532055187427273</v>
       </c>
       <c r="M22">
-        <v>0.9562906871198644</v>
+        <v>0.9562906871198655</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9388740054973933</v>
+        <v>0.938874005497395</v>
       </c>
       <c r="D23">
-        <v>0.9700282079030592</v>
+        <v>0.9700282079030612</v>
       </c>
       <c r="E23">
-        <v>0.9391337858225716</v>
+        <v>0.9391337858225713</v>
       </c>
       <c r="F23">
-        <v>0.943207214373058</v>
+        <v>0.943207214373059</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.023480458324209</v>
       </c>
       <c r="J23">
-        <v>0.9718190670296908</v>
+        <v>0.9718190670296925</v>
       </c>
       <c r="K23">
-        <v>0.9858905406523497</v>
+        <v>0.9858905406523512</v>
       </c>
       <c r="L23">
-        <v>0.9556722922403554</v>
+        <v>0.9556722922403553</v>
       </c>
       <c r="M23">
-        <v>0.9596531855640168</v>
+        <v>0.9596531855640178</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9536929956333403</v>
+        <v>0.9536929956333383</v>
       </c>
       <c r="D24">
-        <v>0.9815216631911402</v>
+        <v>0.9815216631911384</v>
       </c>
       <c r="E24">
-        <v>0.9500126281107799</v>
+        <v>0.950012628110779</v>
       </c>
       <c r="F24">
-        <v>0.957475214349561</v>
+        <v>0.9574752143495592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028629717611911</v>
+        <v>1.02862971761191</v>
       </c>
       <c r="J24">
-        <v>0.9830979761431835</v>
+        <v>0.9830979761431817</v>
       </c>
       <c r="K24">
-        <v>0.9958812405460357</v>
+        <v>0.995881240546034</v>
       </c>
       <c r="L24">
-        <v>0.9649783808434995</v>
+        <v>0.9649783808434987</v>
       </c>
       <c r="M24">
-        <v>0.9722926668069078</v>
+        <v>0.9722926668069061</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695852498129536</v>
+        <v>0.9695852498129534</v>
       </c>
       <c r="D25">
-        <v>0.9938803883876394</v>
+        <v>0.9938803883876388</v>
       </c>
       <c r="E25">
-        <v>0.9618317411884548</v>
+        <v>0.9618317411884544</v>
       </c>
       <c r="F25">
-        <v>0.9728626440625945</v>
+        <v>0.9728626440625944</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03408484669758</v>
       </c>
       <c r="J25">
-        <v>0.9951814099869658</v>
+        <v>0.9951814099869656</v>
       </c>
       <c r="K25">
-        <v>1.006574452127437</v>
+        <v>1.006574452127436</v>
       </c>
       <c r="L25">
-        <v>0.9750529527300161</v>
+        <v>0.9750529527300159</v>
       </c>
       <c r="M25">
-        <v>0.985897366263621</v>
+        <v>0.9858973662636211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.981390256930361</v>
+        <v>0.9814104760531499</v>
       </c>
       <c r="D2">
-        <v>1.00307745640432</v>
+        <v>1.003093556084647</v>
       </c>
       <c r="E2">
-        <v>0.9707148708653889</v>
+        <v>0.9707284226788657</v>
       </c>
       <c r="F2">
-        <v>0.9843527691520777</v>
+        <v>0.9843699737234877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038078682817018</v>
+        <v>1.038086850733837</v>
       </c>
       <c r="J2">
-        <v>1.004142195865423</v>
+        <v>1.004161778093069</v>
       </c>
       <c r="K2">
-        <v>1.01449408322753</v>
+        <v>1.01450996035021</v>
       </c>
       <c r="L2">
-        <v>0.9825978544232026</v>
+        <v>0.9826112026682724</v>
       </c>
       <c r="M2">
-        <v>0.9960344865089364</v>
+        <v>0.9960514416432059</v>
+      </c>
+      <c r="N2">
+        <v>1.00418376345407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9895292774060178</v>
+        <v>0.9895433420624454</v>
       </c>
       <c r="D3">
-        <v>1.009424327804525</v>
+        <v>1.009435549723644</v>
       </c>
       <c r="E3">
-        <v>0.9768922908517058</v>
+        <v>0.9769028701198404</v>
       </c>
       <c r="F3">
-        <v>0.9923060902303654</v>
+        <v>0.9923183760758826</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040796498931342</v>
+        <v>1.040802199198427</v>
       </c>
       <c r="J3">
-        <v>1.010309512705072</v>
+        <v>1.010323182784305</v>
       </c>
       <c r="K3">
-        <v>1.019938026185755</v>
+        <v>1.019949107843249</v>
       </c>
       <c r="L3">
-        <v>0.9878296339600038</v>
+        <v>0.987840069692592</v>
       </c>
       <c r="M3">
-        <v>1.003038371940084</v>
+        <v>1.00305049752072</v>
+      </c>
+      <c r="N3">
+        <v>1.008481182014846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9946157916695825</v>
+        <v>0.9946260895121374</v>
       </c>
       <c r="D4">
-        <v>1.013392485296727</v>
+        <v>1.013400714885412</v>
       </c>
       <c r="E4">
-        <v>0.9807754430781603</v>
+        <v>0.9807842217166767</v>
       </c>
       <c r="F4">
-        <v>0.9972901703371759</v>
+        <v>0.9972994548993231</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0424778538771</v>
+        <v>1.042482037467239</v>
       </c>
       <c r="J4">
-        <v>1.014158236078992</v>
+        <v>1.014168266627877</v>
       </c>
       <c r="K4">
-        <v>1.023331917890801</v>
+        <v>1.02334005137802</v>
       </c>
       <c r="L4">
-        <v>0.9911115661839968</v>
+        <v>0.9911202336268189</v>
       </c>
       <c r="M4">
-        <v>1.007421411019194</v>
+        <v>1.007430582768327</v>
+      </c>
+      <c r="N4">
+        <v>1.01116041146732</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967137427361091</v>
+        <v>0.9967225035814916</v>
       </c>
       <c r="D5">
-        <v>1.01502941765705</v>
+        <v>1.015036424784205</v>
       </c>
       <c r="E5">
-        <v>0.9823822247125259</v>
+        <v>0.9823902731371431</v>
       </c>
       <c r="F5">
-        <v>0.9993490243633005</v>
+        <v>0.9993570864175809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043167128341693</v>
+        <v>1.043170691660978</v>
       </c>
       <c r="J5">
-        <v>1.015744237606433</v>
+        <v>1.015752778527426</v>
       </c>
       <c r="K5">
-        <v>1.024729633897753</v>
+        <v>1.024736561562334</v>
       </c>
       <c r="L5">
-        <v>0.9924679654184584</v>
+        <v>0.9924759148738544</v>
       </c>
       <c r="M5">
-        <v>1.009230514822453</v>
+        <v>1.009238481865474</v>
+      </c>
+      <c r="N5">
+        <v>1.012263844393587</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970637005242987</v>
+        <v>0.9970722058981145</v>
       </c>
       <c r="D6">
-        <v>1.01530248400589</v>
+        <v>1.015309287859466</v>
       </c>
       <c r="E6">
-        <v>0.9826505477263243</v>
+        <v>0.9826584750444691</v>
       </c>
       <c r="F6">
-        <v>0.9996926427040556</v>
+        <v>0.9997005016822609</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043281855748497</v>
+        <v>1.043285315889628</v>
       </c>
       <c r="J6">
-        <v>1.016008711714411</v>
+        <v>1.016017004781514</v>
       </c>
       <c r="K6">
-        <v>1.024962658953097</v>
+        <v>1.024969386031534</v>
       </c>
       <c r="L6">
-        <v>0.9926943820507189</v>
+        <v>0.9927022123772166</v>
       </c>
       <c r="M6">
-        <v>1.009532363607073</v>
+        <v>1.009540130445167</v>
+      </c>
+      <c r="N6">
+        <v>1.01244780962422</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9946439800801881</v>
+        <v>0.9946542572084688</v>
       </c>
       <c r="D7">
-        <v>1.013414478572799</v>
+        <v>1.013422691691914</v>
       </c>
       <c r="E7">
-        <v>0.9807970119186937</v>
+        <v>0.9808057806980882</v>
       </c>
       <c r="F7">
-        <v>0.9973178210889786</v>
+        <v>0.9973270891669144</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042487131861673</v>
+        <v>1.042491307097828</v>
       </c>
       <c r="J7">
-        <v>1.014179551576413</v>
+        <v>1.014189562066987</v>
       </c>
       <c r="K7">
-        <v>1.023350706316424</v>
+        <v>1.023358823563665</v>
       </c>
       <c r="L7">
-        <v>0.9911297803208293</v>
+        <v>0.9911384380730514</v>
       </c>
       <c r="M7">
-        <v>1.007445713416822</v>
+        <v>1.007454868927677</v>
+      </c>
+      <c r="N7">
+        <v>1.01117524390349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9841798327195335</v>
+        <v>0.9841979240339944</v>
       </c>
       <c r="D8">
-        <v>1.005252345501871</v>
+        <v>1.005266760379328</v>
       </c>
       <c r="E8">
-        <v>0.9728271898394212</v>
+        <v>0.9728397099438856</v>
       </c>
       <c r="F8">
-        <v>0.9870757391102741</v>
+        <v>0.9870912410827197</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039013764868308</v>
+        <v>1.039021081078057</v>
       </c>
       <c r="J8">
-        <v>1.006257113634944</v>
+        <v>1.006274656661833</v>
       </c>
       <c r="K8">
-        <v>1.01636163738093</v>
+        <v>1.016375859557762</v>
       </c>
       <c r="L8">
-        <v>0.9843882637828207</v>
+        <v>0.9844006020763585</v>
       </c>
       <c r="M8">
-        <v>0.9984336712639172</v>
+        <v>0.9984489562574942</v>
+      </c>
+      <c r="N8">
+        <v>1.005657984487413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642267935531575</v>
+        <v>0.9642605740455664</v>
       </c>
       <c r="D9">
-        <v>0.9897100618047542</v>
+        <v>0.9897368584612413</v>
       </c>
       <c r="E9">
-        <v>0.957828907000438</v>
+        <v>0.9578491178036957</v>
       </c>
       <c r="F9">
-        <v>0.9676642352470275</v>
+        <v>0.9676923368271406</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032254564851147</v>
+        <v>1.032268125993666</v>
       </c>
       <c r="J9">
-        <v>0.9911092702860589</v>
+        <v>0.9911417292243552</v>
       </c>
       <c r="K9">
-        <v>1.002972321807763</v>
+        <v>1.002998672000196</v>
       </c>
       <c r="L9">
-        <v>0.9716453606232963</v>
+        <v>0.9716652048994112</v>
       </c>
       <c r="M9">
-        <v>0.9813046692485691</v>
+        <v>0.9813322745514739</v>
+      </c>
+      <c r="N9">
+        <v>0.9950886120786782</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9496879303531442</v>
+        <v>0.949733924022897</v>
       </c>
       <c r="D10">
-        <v>0.9784121581991032</v>
+        <v>0.9784485258964251</v>
       </c>
       <c r="E10">
-        <v>0.9470589724702194</v>
+        <v>0.9470852761331677</v>
       </c>
       <c r="F10">
-        <v>0.953611534800457</v>
+        <v>0.9536495087829753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027243261997132</v>
+        <v>1.027261629720815</v>
       </c>
       <c r="J10">
-        <v>0.9800503920866104</v>
+        <v>0.9800942716576758</v>
       </c>
       <c r="K10">
-        <v>0.9931824427285907</v>
+        <v>0.9932181153620534</v>
       </c>
       <c r="L10">
-        <v>0.9624547370327425</v>
+        <v>0.9624804930108287</v>
       </c>
       <c r="M10">
-        <v>0.9688720955799113</v>
+        <v>0.9689092931578669</v>
+      </c>
+      <c r="N10">
+        <v>0.9873599448858466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430393999748995</v>
+        <v>0.943091235566214</v>
       </c>
       <c r="D11">
-        <v>0.9732554487335444</v>
+        <v>0.9732963730130689</v>
       </c>
       <c r="E11">
-        <v>0.9421778557606396</v>
+        <v>0.942207097208121</v>
       </c>
       <c r="F11">
-        <v>0.9472100475738779</v>
+        <v>0.9472527604604941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02493294753594</v>
+        <v>1.024953597917415</v>
       </c>
       <c r="J11">
-        <v>0.9749900142940299</v>
+        <v>0.9750392987742509</v>
       </c>
       <c r="K11">
-        <v>0.9886999888968256</v>
+        <v>0.9887400845569185</v>
       </c>
       <c r="L11">
-        <v>0.9582793022947652</v>
+        <v>0.958307898548332</v>
       </c>
       <c r="M11">
-        <v>0.9632012407183642</v>
+        <v>0.9632430244397239</v>
+      </c>
+      <c r="N11">
+        <v>0.9838208869297911</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9405106871817097</v>
+        <v>0.9405647910140617</v>
       </c>
       <c r="D12">
-        <v>0.9712959321223961</v>
+        <v>0.9713386217815949</v>
       </c>
       <c r="E12">
-        <v>0.9403285841039425</v>
+        <v>0.9403589694700296</v>
       </c>
       <c r="F12">
-        <v>0.9447793094411009</v>
+        <v>0.9448238648966117</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024051610700152</v>
+        <v>1.024073144541067</v>
       </c>
       <c r="J12">
-        <v>0.9730650426994765</v>
+        <v>0.9731164158020772</v>
       </c>
       <c r="K12">
-        <v>0.9869945223107937</v>
+        <v>0.9870363290649532</v>
       </c>
       <c r="L12">
-        <v>0.9566958177060096</v>
+        <v>0.9567255182070817</v>
       </c>
       <c r="M12">
-        <v>0.9610468516315956</v>
+        <v>0.9610904154148467</v>
+      </c>
+      <c r="N12">
+        <v>0.9824742861073489</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9410558904956396</v>
+        <v>0.9411095030531725</v>
       </c>
       <c r="D13">
-        <v>0.971718327141347</v>
+        <v>0.9717606346208526</v>
       </c>
       <c r="E13">
-        <v>0.9407269598482088</v>
+        <v>0.9407570973127681</v>
       </c>
       <c r="F13">
-        <v>0.9453032026056432</v>
+        <v>0.9453473588639589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024241746813377</v>
+        <v>1.024263089440566</v>
       </c>
       <c r="J13">
-        <v>0.973480086595676</v>
+        <v>0.9735310077952543</v>
       </c>
       <c r="K13">
-        <v>0.9873622525597224</v>
+        <v>0.98740368900494</v>
       </c>
       <c r="L13">
-        <v>0.9570370085517184</v>
+        <v>0.9570664698280126</v>
       </c>
       <c r="M13">
-        <v>0.9615112320746868</v>
+        <v>0.9615544103491575</v>
+      </c>
+      <c r="N13">
+        <v>0.9827646418921245</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428316213756942</v>
+        <v>0.9428836423553242</v>
       </c>
       <c r="D14">
-        <v>0.9730944013081959</v>
+        <v>0.973135469956146</v>
       </c>
       <c r="E14">
-        <v>0.9420257552170685</v>
+        <v>0.9420550900955665</v>
       </c>
       <c r="F14">
-        <v>0.9470102361863189</v>
+        <v>0.9470530996174497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024860582187185</v>
+        <v>1.024881304834811</v>
       </c>
       <c r="J14">
-        <v>0.9748318486450823</v>
+        <v>0.9748813040405139</v>
       </c>
       <c r="K14">
-        <v>0.9885598652866834</v>
+        <v>0.9886001009285568</v>
       </c>
       <c r="L14">
-        <v>0.95814909459151</v>
+        <v>0.9581777810711803</v>
       </c>
       <c r="M14">
-        <v>0.9630241675165329</v>
+        <v>0.9630660967401129</v>
+      </c>
+      <c r="N14">
+        <v>0.9837102498622831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439176698346384</v>
+        <v>0.9439687237272726</v>
       </c>
       <c r="D15">
-        <v>0.9739362630927452</v>
+        <v>0.9739765784793747</v>
       </c>
       <c r="E15">
-        <v>0.9428210740128743</v>
+        <v>0.9428499216336661</v>
       </c>
       <c r="F15">
-        <v>0.9480548051165772</v>
+        <v>0.94809688332997</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025238726808055</v>
+        <v>1.025259072359937</v>
       </c>
       <c r="J15">
-        <v>0.9756585616919742</v>
+        <v>0.9757071250926287</v>
       </c>
       <c r="K15">
-        <v>0.9892922615175632</v>
+        <v>0.9893317666821451</v>
       </c>
       <c r="L15">
-        <v>0.9588298737860128</v>
+        <v>0.9588580896526298</v>
       </c>
       <c r="M15">
-        <v>0.963949822564229</v>
+        <v>0.9639909927426512</v>
+      </c>
+      <c r="N15">
+        <v>0.9842885231102839</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9501212332506886</v>
+        <v>0.9501668520882857</v>
       </c>
       <c r="D16">
-        <v>0.978748462487862</v>
+        <v>0.9787845373440884</v>
       </c>
       <c r="E16">
-        <v>0.9473780428569842</v>
+        <v>0.9474041584784516</v>
       </c>
       <c r="F16">
-        <v>0.9540292705988614</v>
+        <v>0.9540669408660765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027393461069465</v>
+        <v>1.027411681971667</v>
       </c>
       <c r="J16">
-        <v>0.9803801392107323</v>
+        <v>0.9804236707211129</v>
       </c>
       <c r="K16">
-        <v>0.9934744802935642</v>
+        <v>0.9935098683408167</v>
       </c>
       <c r="L16">
-        <v>0.9627274652474824</v>
+        <v>0.9627530392066341</v>
       </c>
       <c r="M16">
-        <v>0.9692420029123786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.969278906167544</v>
+      </c>
+      <c r="N16">
+        <v>0.9875905099559334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9539140201552684</v>
+        <v>0.9539563875758389</v>
       </c>
       <c r="D17">
-        <v>0.9816933297094913</v>
+        <v>0.9817268619543569</v>
       </c>
       <c r="E17">
-        <v>0.9501759202391379</v>
+        <v>0.9502004072667094</v>
       </c>
       <c r="F17">
-        <v>0.957688600162661</v>
+        <v>0.9577236377384147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028706107079719</v>
+        <v>1.028723052566704</v>
       </c>
       <c r="J17">
-        <v>0.9832661394878134</v>
+        <v>0.9833066453400342</v>
       </c>
       <c r="K17">
-        <v>0.996030139901971</v>
+        <v>0.9960630553157929</v>
       </c>
       <c r="L17">
-        <v>0.9651178326974085</v>
+        <v>0.9651418290962883</v>
       </c>
       <c r="M17">
-        <v>0.9724815312511381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.972515881195678</v>
+      </c>
+      <c r="N17">
+        <v>0.9896081726930521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9560926794403806</v>
+        <v>0.9561332025892794</v>
       </c>
       <c r="D18">
-        <v>0.9833858124275745</v>
+        <v>0.9834179005353101</v>
       </c>
       <c r="E18">
-        <v>0.951787136215649</v>
+        <v>0.9518107016132752</v>
       </c>
       <c r="F18">
-        <v>0.9597928853038346</v>
+        <v>0.9598264310678688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029458363427104</v>
+        <v>1.029474584000965</v>
       </c>
       <c r="J18">
-        <v>0.9849236068742802</v>
+        <v>0.9849623913359492</v>
       </c>
       <c r="K18">
-        <v>0.997497626328845</v>
+        <v>0.9975291359841063</v>
       </c>
       <c r="L18">
-        <v>0.9664934325448363</v>
+        <v>0.9665165352872453</v>
       </c>
       <c r="M18">
-        <v>0.9743437175750691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9743766190557581</v>
+      </c>
+      <c r="N18">
+        <v>0.9907667031220911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.956830014878629</v>
+        <v>0.9568699176311577</v>
       </c>
       <c r="D19">
-        <v>0.9839587499920661</v>
+        <v>0.9839903519948699</v>
       </c>
       <c r="E19">
-        <v>0.9523330996475478</v>
+        <v>0.9523563553865459</v>
       </c>
       <c r="F19">
-        <v>0.9605054297286333</v>
+        <v>0.9605384739131965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029712650855789</v>
+        <v>1.029728627334986</v>
       </c>
       <c r="J19">
-        <v>0.9854844942532486</v>
+        <v>0.9855226988095166</v>
       </c>
       <c r="K19">
-        <v>0.9979941775833716</v>
+        <v>0.9980252138271631</v>
       </c>
       <c r="L19">
-        <v>0.9669593985091337</v>
+        <v>0.9669822008426325</v>
       </c>
       <c r="M19">
-        <v>0.9749741650879147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9750065792961217</v>
+      </c>
+      <c r="N19">
+        <v>0.9911587083973862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.953510607329163</v>
+        <v>0.9535533180956295</v>
       </c>
       <c r="D20">
-        <v>0.981380009850513</v>
+        <v>0.981413810795981</v>
       </c>
       <c r="E20">
-        <v>0.9498779032161564</v>
+        <v>0.9499025619988495</v>
       </c>
       <c r="F20">
-        <v>0.9572991424104357</v>
+        <v>0.9573344578372521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028566671421938</v>
+        <v>1.028583751747314</v>
       </c>
       <c r="J20">
-        <v>0.9829592068055542</v>
+        <v>0.9830000327126652</v>
       </c>
       <c r="K20">
-        <v>0.9957583664626513</v>
+        <v>0.9957915433264098</v>
       </c>
       <c r="L20">
-        <v>0.9648633201327498</v>
+        <v>0.9648874830006607</v>
       </c>
       <c r="M20">
-        <v>0.9721368243499273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9721714439409113</v>
+      </c>
+      <c r="N20">
+        <v>0.9893936143290275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423103998687147</v>
+        <v>0.9423628866758913</v>
       </c>
       <c r="D21">
-        <v>0.9726904369721868</v>
+        <v>0.9727318683136333</v>
       </c>
       <c r="E21">
-        <v>0.941644322731628</v>
+        <v>0.941673892426598</v>
       </c>
       <c r="F21">
-        <v>0.9465090663310139</v>
+        <v>0.946552308078999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024679009053676</v>
+        <v>1.024699913238898</v>
       </c>
       <c r="J21">
-        <v>0.9744350792152473</v>
+        <v>0.9744849639081954</v>
       </c>
       <c r="K21">
-        <v>0.988208350404954</v>
+        <v>0.9882489376783163</v>
       </c>
       <c r="L21">
-        <v>0.9578225387902908</v>
+        <v>0.9578514520038413</v>
       </c>
       <c r="M21">
-        <v>0.9625800126185798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9626223074367919</v>
+      </c>
+      <c r="N21">
+        <v>0.9834327038346444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9349223374687878</v>
+        <v>0.9349815498328713</v>
       </c>
       <c r="D22">
-        <v>0.9669692093470246</v>
+        <v>0.9670158671554695</v>
       </c>
       <c r="E22">
-        <v>0.9362559016332159</v>
+        <v>0.9362888690749687</v>
       </c>
       <c r="F22">
-        <v>0.9394152778693479</v>
+        <v>0.9394639880963277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022099252494111</v>
+        <v>1.022122770329021</v>
       </c>
       <c r="J22">
-        <v>0.9688106123916531</v>
+        <v>0.9688666693757449</v>
       </c>
       <c r="K22">
-        <v>0.9832246940666476</v>
+        <v>0.9832703418947061</v>
       </c>
       <c r="L22">
-        <v>0.9532055187427273</v>
+        <v>0.9532377083754008</v>
       </c>
       <c r="M22">
-        <v>0.9562906871198655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9563382584647302</v>
+      </c>
+      <c r="N22">
+        <v>0.9794975490429386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.938874005497395</v>
+        <v>0.9389295916045496</v>
       </c>
       <c r="D23">
-        <v>0.9700282079030612</v>
+        <v>0.970072050067105</v>
       </c>
       <c r="E23">
-        <v>0.9391337858225713</v>
+        <v>0.9391649196126588</v>
       </c>
       <c r="F23">
-        <v>0.943207214373059</v>
+        <v>0.9432529746739962</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023480458324209</v>
+        <v>1.023502568649665</v>
       </c>
       <c r="J23">
-        <v>0.9718190670296925</v>
+        <v>0.9718718020502533</v>
       </c>
       <c r="K23">
-        <v>0.9858905406523512</v>
+        <v>0.9859334637194893</v>
       </c>
       <c r="L23">
-        <v>0.9556722922403553</v>
+        <v>0.9557027147054679</v>
       </c>
       <c r="M23">
-        <v>0.9596531855640178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9596979123914648</v>
+      </c>
+      <c r="N23">
+        <v>0.9816025818605152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9536929956333383</v>
+        <v>0.9537355510962989</v>
       </c>
       <c r="D24">
-        <v>0.9815216631911384</v>
+        <v>0.981555342602889</v>
       </c>
       <c r="E24">
-        <v>0.950012628110779</v>
+        <v>0.9500372091978369</v>
       </c>
       <c r="F24">
-        <v>0.9574752143495592</v>
+        <v>0.9575104040930387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02862971761191</v>
+        <v>1.028646736951254</v>
       </c>
       <c r="J24">
-        <v>0.9830979761431817</v>
+        <v>0.9831386572979536</v>
       </c>
       <c r="K24">
-        <v>0.995881240546034</v>
+        <v>0.9959142991598166</v>
       </c>
       <c r="L24">
-        <v>0.9649783808434987</v>
+        <v>0.9650024684098307</v>
       </c>
       <c r="M24">
-        <v>0.9722926668069061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.972327164430919</v>
+      </c>
+      <c r="N24">
+        <v>0.9894906204586178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695852498129534</v>
+        <v>0.9696147045025668</v>
       </c>
       <c r="D25">
-        <v>0.9938803883876388</v>
+        <v>0.993903780722123</v>
       </c>
       <c r="E25">
-        <v>0.9618317411884544</v>
+        <v>0.9618498137930577</v>
       </c>
       <c r="F25">
-        <v>0.9728626440625944</v>
+        <v>0.9728872616241786</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03408484669758</v>
+        <v>1.034096694012841</v>
       </c>
       <c r="J25">
-        <v>0.9951814099869656</v>
+        <v>0.9952097839927799</v>
       </c>
       <c r="K25">
-        <v>1.006574452127436</v>
+        <v>1.006597475590814</v>
       </c>
       <c r="L25">
-        <v>0.9750529527300159</v>
+        <v>0.9750707152763501</v>
       </c>
       <c r="M25">
-        <v>0.9858973662636211</v>
+        <v>0.9859215737308293</v>
+      </c>
+      <c r="N25">
+        <v>0.9979321386178521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9814104760531499</v>
+        <v>1.010256244531549</v>
       </c>
       <c r="D2">
-        <v>1.003093556084647</v>
+        <v>1.028390004054445</v>
       </c>
       <c r="E2">
-        <v>0.9707284226788657</v>
+        <v>1.022947911106442</v>
       </c>
       <c r="F2">
-        <v>0.9843699737234877</v>
+        <v>1.032220448466662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038086850733837</v>
+        <v>1.045574346765036</v>
       </c>
       <c r="J2">
-        <v>1.004161778093069</v>
+        <v>1.032134461461041</v>
       </c>
       <c r="K2">
-        <v>1.01450996035021</v>
+        <v>1.039467497511823</v>
       </c>
       <c r="L2">
-        <v>0.9826112026682724</v>
+        <v>1.034096540890517</v>
       </c>
       <c r="M2">
-        <v>0.9960514416432059</v>
+        <v>1.043248434805119</v>
       </c>
       <c r="N2">
-        <v>1.00418376345407</v>
+        <v>1.033600210783794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9895433420624454</v>
+        <v>1.019264726254631</v>
       </c>
       <c r="D3">
-        <v>1.009435549723644</v>
+        <v>1.035388140650785</v>
       </c>
       <c r="E3">
-        <v>0.9769028701198404</v>
+        <v>1.029864620732847</v>
       </c>
       <c r="F3">
-        <v>0.9923183760758826</v>
+        <v>1.039786979035137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040802199198427</v>
+        <v>1.048124987371322</v>
       </c>
       <c r="J3">
-        <v>1.010323182784305</v>
+        <v>1.039243645558483</v>
       </c>
       <c r="K3">
-        <v>1.019949107843249</v>
+        <v>1.045587393404688</v>
       </c>
       <c r="L3">
-        <v>0.987840069692592</v>
+        <v>1.040129122485314</v>
       </c>
       <c r="M3">
-        <v>1.00305049752072</v>
+        <v>1.049934881650408</v>
       </c>
       <c r="N3">
-        <v>1.008481182014846</v>
+        <v>1.040719490738089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9946260895121374</v>
+        <v>1.02489566974147</v>
       </c>
       <c r="D4">
-        <v>1.013400714885412</v>
+        <v>1.039765677522613</v>
       </c>
       <c r="E4">
-        <v>0.9807842217166767</v>
+        <v>1.034203038498571</v>
       </c>
       <c r="F4">
-        <v>0.9972994548993231</v>
+        <v>1.044527719889802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042482037467239</v>
+        <v>1.049705770477352</v>
       </c>
       <c r="J4">
-        <v>1.014168266627877</v>
+        <v>1.043683291081819</v>
       </c>
       <c r="K4">
-        <v>1.02334005137802</v>
+        <v>1.049406733767557</v>
       </c>
       <c r="L4">
-        <v>0.9911202336268189</v>
+        <v>1.043905470426843</v>
       </c>
       <c r="M4">
-        <v>1.007430582768327</v>
+        <v>1.054116871064961</v>
       </c>
       <c r="N4">
-        <v>1.01116041146732</v>
+        <v>1.045165441067302</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967225035814916</v>
+        <v>1.027218553478026</v>
       </c>
       <c r="D5">
-        <v>1.015036424784205</v>
+        <v>1.041572109250714</v>
       </c>
       <c r="E5">
-        <v>0.9823902731371431</v>
+        <v>1.035996091570432</v>
       </c>
       <c r="F5">
-        <v>0.9993570864175809</v>
+        <v>1.046485853184366</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043170691660978</v>
+        <v>1.050354536593377</v>
       </c>
       <c r="J5">
-        <v>1.015752778527426</v>
+        <v>1.04551366008226</v>
       </c>
       <c r="K5">
-        <v>1.024736561562334</v>
+        <v>1.05098071932661</v>
       </c>
       <c r="L5">
-        <v>0.9924759148738544</v>
+        <v>1.045464441260186</v>
       </c>
       <c r="M5">
-        <v>1.009238481865474</v>
+        <v>1.055842464319847</v>
       </c>
       <c r="N5">
-        <v>1.012263844393587</v>
+        <v>1.04699840940167</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9970722058981145</v>
+        <v>1.027606057978379</v>
       </c>
       <c r="D6">
-        <v>1.015309287859466</v>
+        <v>1.041873490076696</v>
       </c>
       <c r="E6">
-        <v>0.9826584750444691</v>
+        <v>1.036295401022539</v>
       </c>
       <c r="F6">
-        <v>0.9997005016822609</v>
+        <v>1.046812650331459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043285315889628</v>
+        <v>1.050462565047624</v>
       </c>
       <c r="J6">
-        <v>1.016017004781514</v>
+        <v>1.045818936964626</v>
       </c>
       <c r="K6">
-        <v>1.024969386031534</v>
+        <v>1.051243196254958</v>
       </c>
       <c r="L6">
-        <v>0.9927022123772166</v>
+        <v>1.045724571855329</v>
       </c>
       <c r="M6">
-        <v>1.009540130445167</v>
+        <v>1.056130349624594</v>
       </c>
       <c r="N6">
-        <v>1.01244780962422</v>
+        <v>1.047304119812225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9946542572084688</v>
+        <v>1.024926878716777</v>
       </c>
       <c r="D7">
-        <v>1.013422691691914</v>
+        <v>1.039789945545875</v>
       </c>
       <c r="E7">
-        <v>0.9808057806980882</v>
+        <v>1.034227115928686</v>
       </c>
       <c r="F7">
-        <v>0.9973270891669144</v>
+        <v>1.044554018708161</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042491307097828</v>
+        <v>1.049714500285694</v>
       </c>
       <c r="J7">
-        <v>1.014189562066987</v>
+        <v>1.043707887297175</v>
       </c>
       <c r="K7">
-        <v>1.023358823563665</v>
+        <v>1.049427887355845</v>
       </c>
       <c r="L7">
-        <v>0.9911384380730514</v>
+        <v>1.043926411582046</v>
       </c>
       <c r="M7">
-        <v>1.007454868927677</v>
+        <v>1.05414005366265</v>
       </c>
       <c r="N7">
-        <v>1.01117524390349</v>
+        <v>1.045190072212105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9841979240339944</v>
+        <v>1.013343680582752</v>
       </c>
       <c r="D8">
-        <v>1.005266760379328</v>
+        <v>1.030787659945837</v>
       </c>
       <c r="E8">
-        <v>0.9728397099438856</v>
+        <v>1.025315122417571</v>
       </c>
       <c r="F8">
-        <v>0.9870912410827197</v>
+        <v>1.0348112132774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039021081078057</v>
+        <v>1.046451327320142</v>
       </c>
       <c r="J8">
-        <v>1.006274656661833</v>
+        <v>1.034571766856678</v>
       </c>
       <c r="K8">
-        <v>1.016375859557762</v>
+        <v>1.041566136920564</v>
       </c>
       <c r="L8">
-        <v>0.9844006020763585</v>
+        <v>1.036162764234572</v>
       </c>
       <c r="M8">
-        <v>0.9984489562574942</v>
+        <v>1.045539419835665</v>
       </c>
       <c r="N8">
-        <v>1.005657984487413</v>
+        <v>1.036040977432655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642605740455664</v>
+        <v>0.9912583504034578</v>
       </c>
       <c r="D9">
-        <v>0.9897368584612413</v>
+        <v>1.013658319666433</v>
       </c>
       <c r="E9">
-        <v>0.9578491178036957</v>
+        <v>1.008458287631381</v>
       </c>
       <c r="F9">
-        <v>0.9676923368271406</v>
+        <v>1.016336456238313</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032268125993666</v>
+        <v>1.040123028904473</v>
       </c>
       <c r="J9">
-        <v>0.9911417292243552</v>
+        <v>1.017123620776505</v>
       </c>
       <c r="K9">
-        <v>1.002998672000196</v>
+        <v>1.026533619790357</v>
       </c>
       <c r="L9">
-        <v>0.9716652048994112</v>
+        <v>1.021415609571511</v>
       </c>
       <c r="M9">
-        <v>0.9813322745514739</v>
+        <v>1.029169931765493</v>
       </c>
       <c r="N9">
-        <v>0.9950886120786782</v>
+        <v>1.018568052983718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.949733924022897</v>
+        <v>0.9751543586104389</v>
       </c>
       <c r="D10">
-        <v>0.9784485258964251</v>
+        <v>1.001206499833687</v>
       </c>
       <c r="E10">
-        <v>0.9470852761331677</v>
+        <v>0.9962801835841861</v>
       </c>
       <c r="F10">
-        <v>0.9536495087829753</v>
+        <v>1.002951855060474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027261629720815</v>
+        <v>1.035443051273577</v>
       </c>
       <c r="J10">
-        <v>0.9800942716576758</v>
+        <v>1.004389637659421</v>
       </c>
       <c r="K10">
-        <v>0.9932181153620534</v>
+        <v>1.015554004668559</v>
       </c>
       <c r="L10">
-        <v>0.9624804930108287</v>
+        <v>1.010716926842859</v>
       </c>
       <c r="M10">
-        <v>0.9689092931578669</v>
+        <v>1.017268016604028</v>
       </c>
       <c r="N10">
-        <v>0.9873599448858466</v>
+        <v>1.005815986149999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.943091235566214</v>
+        <v>0.9677837007784332</v>
       </c>
       <c r="D11">
-        <v>0.9732963730130689</v>
+        <v>0.9955204379667506</v>
       </c>
       <c r="E11">
-        <v>0.942207097208121</v>
+        <v>0.9907389627233923</v>
       </c>
       <c r="F11">
-        <v>0.9472527604604941</v>
+        <v>0.996851101910924</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024953597917415</v>
+        <v>1.033287431355975</v>
       </c>
       <c r="J11">
-        <v>0.9750392987742509</v>
+        <v>0.9985609664158299</v>
       </c>
       <c r="K11">
-        <v>0.9887400845569185</v>
+        <v>1.01052732960986</v>
       </c>
       <c r="L11">
-        <v>0.958307898548332</v>
+        <v>1.005837667769489</v>
       </c>
       <c r="M11">
-        <v>0.9632430244397239</v>
+        <v>1.011832647164389</v>
       </c>
       <c r="N11">
-        <v>0.9838208869297911</v>
+        <v>0.9999790375246841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9405647910140617</v>
+        <v>0.9649789681300189</v>
       </c>
       <c r="D12">
-        <v>0.9713386217815949</v>
+        <v>0.9933590884126544</v>
       </c>
       <c r="E12">
-        <v>0.9403589694700296</v>
+        <v>0.9886358425188239</v>
       </c>
       <c r="F12">
-        <v>0.9448238648966117</v>
+        <v>0.9945338669466613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024073144541067</v>
+        <v>1.032465307207597</v>
       </c>
       <c r="J12">
-        <v>0.9731164158020772</v>
+        <v>0.9963431628839384</v>
       </c>
       <c r="K12">
-        <v>0.9870363290649532</v>
+        <v>1.008614633420875</v>
       </c>
       <c r="L12">
-        <v>0.9567255182070817</v>
+        <v>1.003984049171719</v>
       </c>
       <c r="M12">
-        <v>0.9610904154148467</v>
+        <v>1.009766544091844</v>
       </c>
       <c r="N12">
-        <v>0.9824742861073489</v>
+        <v>0.9977580844573917</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9411095030531725</v>
+        <v>0.9655837517092761</v>
       </c>
       <c r="D13">
-        <v>0.9717606346208526</v>
+        <v>0.9938250266589561</v>
       </c>
       <c r="E13">
-        <v>0.9407570973127681</v>
+        <v>0.9890890813140168</v>
       </c>
       <c r="F13">
-        <v>0.9453473588639589</v>
+        <v>0.9950333309458382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024263089440566</v>
+        <v>1.032642661693007</v>
       </c>
       <c r="J13">
-        <v>0.9735310077952543</v>
+        <v>0.9968213757985859</v>
       </c>
       <c r="K13">
-        <v>0.98740368900494</v>
+        <v>1.009027058214625</v>
       </c>
       <c r="L13">
-        <v>0.9570664698280126</v>
+        <v>1.004383597940717</v>
       </c>
       <c r="M13">
-        <v>0.9615544103491575</v>
+        <v>1.010211951053221</v>
       </c>
       <c r="N13">
-        <v>0.9827646418921245</v>
+        <v>0.9982369764892298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428836423553242</v>
+        <v>0.9675532725163731</v>
       </c>
       <c r="D14">
-        <v>0.973135469956146</v>
+        <v>0.995342818084497</v>
       </c>
       <c r="E14">
-        <v>0.9420550900955665</v>
+        <v>0.9905660626716245</v>
       </c>
       <c r="F14">
-        <v>0.9470530996174497</v>
+        <v>0.9966606356927091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024881304834811</v>
+        <v>1.033219924435483</v>
       </c>
       <c r="J14">
-        <v>0.9748813040405139</v>
+        <v>0.9983787537462095</v>
       </c>
       <c r="K14">
-        <v>0.9886001009285568</v>
+        <v>1.010370184674859</v>
       </c>
       <c r="L14">
-        <v>0.9581777810711803</v>
+        <v>1.005685315159077</v>
       </c>
       <c r="M14">
-        <v>0.9630660967401129</v>
+        <v>1.011662855444023</v>
       </c>
       <c r="N14">
-        <v>0.9837102498622831</v>
+        <v>0.9997965660921726</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439687237272726</v>
+        <v>0.9687576516693168</v>
       </c>
       <c r="D15">
-        <v>0.9739765784793747</v>
+        <v>0.996271281470049</v>
       </c>
       <c r="E15">
-        <v>0.9428499216336661</v>
+        <v>0.9914699842763132</v>
       </c>
       <c r="F15">
-        <v>0.94809688332997</v>
+        <v>0.9976563211839102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025259072359937</v>
+        <v>1.033572688875289</v>
       </c>
       <c r="J15">
-        <v>0.9757071250926287</v>
+        <v>0.9993311325206322</v>
       </c>
       <c r="K15">
-        <v>0.9893317666821451</v>
+        <v>1.011191539406758</v>
       </c>
       <c r="L15">
-        <v>0.9588580896526298</v>
+        <v>1.006481743726852</v>
       </c>
       <c r="M15">
-        <v>0.9639909927426512</v>
+        <v>1.012550397361301</v>
       </c>
       <c r="N15">
-        <v>0.9842885231102839</v>
+        <v>1.000750297353694</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9501668520882857</v>
+        <v>0.9756345608936666</v>
       </c>
       <c r="D16">
-        <v>0.9787845373440884</v>
+        <v>1.001577249546447</v>
       </c>
       <c r="E16">
-        <v>0.9474041584784516</v>
+        <v>0.9966419136902114</v>
       </c>
       <c r="F16">
-        <v>0.9540669408660765</v>
+        <v>1.003349880293508</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027411681971667</v>
+        <v>1.035583225981418</v>
       </c>
       <c r="J16">
-        <v>0.9804236707211129</v>
+        <v>1.004769387933986</v>
       </c>
       <c r="K16">
-        <v>0.9935098683408167</v>
+        <v>1.015881490342933</v>
       </c>
       <c r="L16">
-        <v>0.9627530392066341</v>
+        <v>1.01103520838357</v>
       </c>
       <c r="M16">
-        <v>0.969278906167544</v>
+        <v>1.017622413129754</v>
       </c>
       <c r="N16">
-        <v>0.9875905099559334</v>
+        <v>1.006196275713512</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9539563875758389</v>
+        <v>0.9798371107234477</v>
       </c>
       <c r="D17">
-        <v>0.9817268619543569</v>
+        <v>1.004823413123239</v>
       </c>
       <c r="E17">
-        <v>0.9502004072667094</v>
+        <v>0.9998113527161216</v>
       </c>
       <c r="F17">
-        <v>0.9577236377384147</v>
+        <v>1.006836128747321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028723052566704</v>
+        <v>1.03680847388621</v>
       </c>
       <c r="J17">
-        <v>0.9833066453400342</v>
+        <v>1.008092793975777</v>
       </c>
       <c r="K17">
-        <v>0.9960630553157929</v>
+        <v>1.018747395704446</v>
       </c>
       <c r="L17">
-        <v>0.9651418290962883</v>
+        <v>1.013822690411298</v>
       </c>
       <c r="M17">
-        <v>0.972515881195678</v>
+        <v>1.02072534823316</v>
       </c>
       <c r="N17">
-        <v>0.9896081726930521</v>
+        <v>1.009524401373083</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9561332025892794</v>
+        <v>0.9822505787780218</v>
       </c>
       <c r="D18">
-        <v>0.9834179005353101</v>
+        <v>1.006688829040294</v>
       </c>
       <c r="E18">
-        <v>0.9518107016132752</v>
+        <v>1.001634519594085</v>
       </c>
       <c r="F18">
-        <v>0.9598264310678688</v>
+        <v>1.00884055810095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029474584000965</v>
+        <v>1.037510831417287</v>
       </c>
       <c r="J18">
-        <v>0.9849623913359492</v>
+        <v>1.010001324500301</v>
       </c>
       <c r="K18">
-        <v>0.9975291359841063</v>
+        <v>1.020393094858187</v>
       </c>
       <c r="L18">
-        <v>0.9665165352872453</v>
+        <v>1.015425098621031</v>
       </c>
       <c r="M18">
-        <v>0.9743766190557581</v>
+        <v>1.022508417107897</v>
       </c>
       <c r="N18">
-        <v>0.9907667031220911</v>
+        <v>1.011435642229862</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9568699176311577</v>
+        <v>0.9830672959162197</v>
       </c>
       <c r="D19">
-        <v>0.9839903519948699</v>
+        <v>1.007320276324552</v>
       </c>
       <c r="E19">
-        <v>0.9523563553865459</v>
+        <v>1.002251972635448</v>
       </c>
       <c r="F19">
-        <v>0.9605384739131965</v>
+        <v>1.009519238116731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029728627334986</v>
+        <v>1.0377482856394</v>
       </c>
       <c r="J19">
-        <v>0.9855226988095166</v>
+        <v>1.010647155067162</v>
       </c>
       <c r="K19">
-        <v>0.9980252138271631</v>
+        <v>1.020949965322015</v>
       </c>
       <c r="L19">
-        <v>0.9669822008426325</v>
+        <v>1.015967611604843</v>
       </c>
       <c r="M19">
-        <v>0.9750065792961217</v>
+        <v>1.023111982414618</v>
       </c>
       <c r="N19">
-        <v>0.9911587083973862</v>
+        <v>1.012082389950207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535533180956295</v>
+        <v>0.9793901758631409</v>
       </c>
       <c r="D20">
-        <v>0.981413810795981</v>
+        <v>1.004478062352983</v>
       </c>
       <c r="E20">
-        <v>0.9499025619988495</v>
+        <v>0.9994739717144053</v>
       </c>
       <c r="F20">
-        <v>0.9573344578372521</v>
+        <v>1.006465126611225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028583751747314</v>
+        <v>1.036678303129974</v>
       </c>
       <c r="J20">
-        <v>0.9830000327126652</v>
+        <v>1.007739359181028</v>
       </c>
       <c r="K20">
-        <v>0.9957915433264098</v>
+        <v>1.018442624822951</v>
       </c>
       <c r="L20">
-        <v>0.9648874830006607</v>
+        <v>1.0135260770061</v>
       </c>
       <c r="M20">
-        <v>0.9721714439409113</v>
+        <v>1.020395239255643</v>
       </c>
       <c r="N20">
-        <v>0.9893936143290275</v>
+        <v>1.009170464660385</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9423628866758913</v>
+        <v>0.966975209913579</v>
       </c>
       <c r="D21">
-        <v>0.9727318683136333</v>
+        <v>0.9948972720933567</v>
       </c>
       <c r="E21">
-        <v>0.941673892426598</v>
+        <v>0.990132407690104</v>
       </c>
       <c r="F21">
-        <v>0.946552308078999</v>
+        <v>0.9961828938582005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024699913238898</v>
+        <v>1.033050544526846</v>
       </c>
       <c r="J21">
-        <v>0.9744849639081954</v>
+        <v>0.9979216503630775</v>
       </c>
       <c r="K21">
-        <v>0.9882489376783163</v>
+        <v>1.009975966403651</v>
       </c>
       <c r="L21">
-        <v>0.9578514520038413</v>
+        <v>1.005303167563788</v>
       </c>
       <c r="M21">
-        <v>0.9626223074367919</v>
+        <v>1.011236945145119</v>
       </c>
       <c r="N21">
-        <v>0.9834327038346444</v>
+        <v>0.9993388135698065</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9349815498328713</v>
+        <v>0.9587775683754778</v>
       </c>
       <c r="D22">
-        <v>0.9670158671554695</v>
+        <v>0.9885850751319228</v>
       </c>
       <c r="E22">
-        <v>0.9362888690749687</v>
+        <v>0.9839965542494479</v>
       </c>
       <c r="F22">
-        <v>0.9394639880963277</v>
+        <v>0.9894188249241765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022122770329021</v>
+        <v>1.030644366704249</v>
       </c>
       <c r="J22">
-        <v>0.9688666693757449</v>
+        <v>0.9914400773141914</v>
       </c>
       <c r="K22">
-        <v>0.9832703418947061</v>
+        <v>1.004386107005072</v>
       </c>
       <c r="L22">
-        <v>0.9532377083754008</v>
+        <v>0.9998918515396904</v>
       </c>
       <c r="M22">
-        <v>0.9563382584647302</v>
+        <v>1.005202852177658</v>
       </c>
       <c r="N22">
-        <v>0.9794975490429386</v>
+        <v>0.9928480359437437</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9389295916045496</v>
+        <v>0.9631631920148896</v>
       </c>
       <c r="D23">
-        <v>0.970072050067105</v>
+        <v>0.9919605535784738</v>
       </c>
       <c r="E23">
-        <v>0.9391649196126588</v>
+        <v>0.9872759074322287</v>
       </c>
       <c r="F23">
-        <v>0.9432529746739962</v>
+        <v>0.9930349634398807</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023502568649665</v>
+        <v>1.031932570748983</v>
       </c>
       <c r="J23">
-        <v>0.9718718020502533</v>
+        <v>0.9949074404111964</v>
       </c>
       <c r="K23">
-        <v>0.9859334637194893</v>
+        <v>1.007376425618584</v>
       </c>
       <c r="L23">
-        <v>0.9557027147054679</v>
+        <v>1.002784950020064</v>
       </c>
       <c r="M23">
-        <v>0.9596979123914648</v>
+        <v>1.008429629817921</v>
       </c>
       <c r="N23">
-        <v>0.9816025818605152</v>
+        <v>0.9963203230940586</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537355510962989</v>
+        <v>0.9795922427964505</v>
       </c>
       <c r="D24">
-        <v>0.981555342602889</v>
+        <v>1.004634197706626</v>
       </c>
       <c r="E24">
-        <v>0.9500372091978369</v>
+        <v>0.9996264981722471</v>
       </c>
       <c r="F24">
-        <v>0.9575104040930387</v>
+        <v>1.006632855860571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028646736951254</v>
+        <v>1.036737159580404</v>
       </c>
       <c r="J24">
-        <v>0.9831386572979536</v>
+        <v>1.007899153321043</v>
       </c>
       <c r="K24">
-        <v>0.9959142991598166</v>
+        <v>1.018580417471365</v>
       </c>
       <c r="L24">
-        <v>0.9650024684098307</v>
+        <v>1.013660176097506</v>
       </c>
       <c r="M24">
-        <v>0.972327164430919</v>
+        <v>1.02054448382161</v>
       </c>
       <c r="N24">
-        <v>0.9894906204586178</v>
+        <v>1.009330485726407</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9696147045025668</v>
+        <v>0.9971903655296922</v>
       </c>
       <c r="D25">
-        <v>0.993903780722123</v>
+        <v>1.018253814470565</v>
       </c>
       <c r="E25">
-        <v>0.9618498137930577</v>
+        <v>1.01296842522864</v>
       </c>
       <c r="F25">
-        <v>0.9728872616241786</v>
+        <v>1.021285396427753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034096694012841</v>
+        <v>1.041834404038698</v>
       </c>
       <c r="J25">
-        <v>0.9952097839927799</v>
+        <v>1.021812656461597</v>
       </c>
       <c r="K25">
-        <v>1.006597475590814</v>
+        <v>1.03057522118653</v>
       </c>
       <c r="L25">
-        <v>0.9750707152763501</v>
+        <v>1.025368704309086</v>
       </c>
       <c r="M25">
-        <v>0.9859215737308293</v>
+        <v>1.033562031576127</v>
       </c>
       <c r="N25">
-        <v>0.9979321386178521</v>
+        <v>1.023263747637322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010256244531549</v>
+        <v>1.062810092260532</v>
       </c>
       <c r="D2">
-        <v>1.028390004054445</v>
+        <v>1.075822242068256</v>
       </c>
       <c r="E2">
-        <v>1.022947911106442</v>
+        <v>1.053269925762006</v>
       </c>
       <c r="F2">
-        <v>1.032220448466662</v>
+        <v>1.075485314586254</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045574346765036</v>
+        <v>1.082420047729462</v>
       </c>
       <c r="J2">
-        <v>1.032134461461041</v>
+        <v>1.083261761212206</v>
       </c>
       <c r="K2">
-        <v>1.039467497511823</v>
+        <v>1.086317435864585</v>
       </c>
       <c r="L2">
-        <v>1.034096540890517</v>
+        <v>1.064033850022729</v>
       </c>
       <c r="M2">
-        <v>1.043248434805119</v>
+        <v>1.085984420623354</v>
       </c>
       <c r="N2">
-        <v>1.033600210783794</v>
+        <v>1.084800117164989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019264726254631</v>
+        <v>1.069804560120192</v>
       </c>
       <c r="D3">
-        <v>1.035388140650785</v>
+        <v>1.081624422004181</v>
       </c>
       <c r="E3">
-        <v>1.029864620732847</v>
+        <v>1.059648793214202</v>
       </c>
       <c r="F3">
-        <v>1.039786979035137</v>
+        <v>1.081868465583309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048124987371322</v>
+        <v>1.085689581653199</v>
       </c>
       <c r="J3">
-        <v>1.039243645558483</v>
+        <v>1.088557657376622</v>
       </c>
       <c r="K3">
-        <v>1.045587393404688</v>
+        <v>1.091309493123863</v>
       </c>
       <c r="L3">
-        <v>1.040129122485314</v>
+        <v>1.069571369117165</v>
       </c>
       <c r="M3">
-        <v>1.049934881650408</v>
+        <v>1.091550965423453</v>
       </c>
       <c r="N3">
-        <v>1.040719490738089</v>
+        <v>1.090103534109405</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02489566974147</v>
+        <v>1.07420056742342</v>
       </c>
       <c r="D4">
-        <v>1.039765677522613</v>
+        <v>1.085272068900197</v>
       </c>
       <c r="E4">
-        <v>1.034203038498571</v>
+        <v>1.063652098721585</v>
       </c>
       <c r="F4">
-        <v>1.044527719889802</v>
+        <v>1.085880146551743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049705770477352</v>
+        <v>1.087732197175885</v>
       </c>
       <c r="J4">
-        <v>1.043683291081819</v>
+        <v>1.091879467174178</v>
       </c>
       <c r="K4">
-        <v>1.049406733767557</v>
+        <v>1.094439753877861</v>
       </c>
       <c r="L4">
-        <v>1.043905470426843</v>
+        <v>1.073038516405308</v>
       </c>
       <c r="M4">
-        <v>1.054116871064961</v>
+        <v>1.095041832425082</v>
       </c>
       <c r="N4">
-        <v>1.045165441067302</v>
+        <v>1.093430061257892</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027218553478026</v>
+        <v>1.076019200404881</v>
       </c>
       <c r="D5">
-        <v>1.041572109250714</v>
+        <v>1.086781285503975</v>
       </c>
       <c r="E5">
-        <v>1.035996091570432</v>
+        <v>1.065306859305941</v>
       </c>
       <c r="F5">
-        <v>1.046485853184366</v>
+        <v>1.087539718060748</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050354536593377</v>
+        <v>1.088574252619184</v>
       </c>
       <c r="J5">
-        <v>1.04551366008226</v>
+        <v>1.09325207815906</v>
       </c>
       <c r="K5">
-        <v>1.05098071932661</v>
+        <v>1.095732974273001</v>
       </c>
       <c r="L5">
-        <v>1.045464441260186</v>
+        <v>1.074469702708419</v>
       </c>
       <c r="M5">
-        <v>1.055842464319847</v>
+        <v>1.096484133829857</v>
       </c>
       <c r="N5">
-        <v>1.04699840940167</v>
+        <v>1.094804621507812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027606057978379</v>
+        <v>1.076322875442678</v>
       </c>
       <c r="D6">
-        <v>1.041873490076696</v>
+        <v>1.087033303322126</v>
       </c>
       <c r="E6">
-        <v>1.036295401022539</v>
+        <v>1.065583087405095</v>
       </c>
       <c r="F6">
-        <v>1.046812650331459</v>
+        <v>1.087816828154118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050462565047624</v>
+        <v>1.088714682961681</v>
       </c>
       <c r="J6">
-        <v>1.045818936964626</v>
+        <v>1.093481180084659</v>
       </c>
       <c r="K6">
-        <v>1.051243196254958</v>
+        <v>1.095948810792471</v>
       </c>
       <c r="L6">
-        <v>1.045724571855329</v>
+        <v>1.074708494710451</v>
       </c>
       <c r="M6">
-        <v>1.056130349624594</v>
+        <v>1.096724858081434</v>
       </c>
       <c r="N6">
-        <v>1.047304119812225</v>
+        <v>1.095034048784424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024926878716777</v>
+        <v>1.074224981719112</v>
       </c>
       <c r="D7">
-        <v>1.039789945545875</v>
+        <v>1.085292328781206</v>
       </c>
       <c r="E7">
-        <v>1.034227115928686</v>
+        <v>1.063674318717161</v>
       </c>
       <c r="F7">
-        <v>1.044554018708161</v>
+        <v>1.085902425827826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049714500285694</v>
+        <v>1.087743513195202</v>
       </c>
       <c r="J7">
-        <v>1.043707887297175</v>
+        <v>1.091897900303896</v>
       </c>
       <c r="K7">
-        <v>1.049427887355845</v>
+        <v>1.094457121813322</v>
       </c>
       <c r="L7">
-        <v>1.043926411582046</v>
+        <v>1.07305774200082</v>
       </c>
       <c r="M7">
-        <v>1.05414005366265</v>
+        <v>1.095061202097642</v>
       </c>
       <c r="N7">
-        <v>1.045190072212105</v>
+        <v>1.093448520564767</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013343680582752</v>
+        <v>1.065201831233283</v>
       </c>
       <c r="D8">
-        <v>1.030787659945837</v>
+        <v>1.077806036881158</v>
       </c>
       <c r="E8">
-        <v>1.025315122417571</v>
+        <v>1.055452372081993</v>
       </c>
       <c r="F8">
-        <v>1.0348112132774</v>
+        <v>1.077668015722222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046451327320142</v>
+        <v>1.083540626560178</v>
       </c>
       <c r="J8">
-        <v>1.034571766856678</v>
+        <v>1.085074061766371</v>
       </c>
       <c r="K8">
-        <v>1.041566136920564</v>
+        <v>1.088025959733878</v>
       </c>
       <c r="L8">
-        <v>1.036162764234572</v>
+        <v>1.065930157237444</v>
       </c>
       <c r="M8">
-        <v>1.045539419835665</v>
+        <v>1.087889490291182</v>
       </c>
       <c r="N8">
-        <v>1.036040977432655</v>
+        <v>1.086614991393814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912583504034578</v>
+        <v>1.048225638885859</v>
       </c>
       <c r="D9">
-        <v>1.013658319666433</v>
+        <v>1.063732205604883</v>
       </c>
       <c r="E9">
-        <v>1.008458287631381</v>
+        <v>1.039937593413631</v>
       </c>
       <c r="F9">
-        <v>1.016336456238313</v>
+        <v>1.062176771260214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040123028904473</v>
+        <v>1.075535256719328</v>
       </c>
       <c r="J9">
-        <v>1.017123620776505</v>
+        <v>1.072183264256245</v>
       </c>
       <c r="K9">
-        <v>1.026533619790357</v>
+        <v>1.075869476004642</v>
       </c>
       <c r="L9">
-        <v>1.021415609571511</v>
+        <v>1.052414316989307</v>
       </c>
       <c r="M9">
-        <v>1.029169931765493</v>
+        <v>1.074335645123934</v>
       </c>
       <c r="N9">
-        <v>1.018568052983718</v>
+        <v>1.073705887472629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9751543586104389</v>
+        <v>1.036056942360258</v>
       </c>
       <c r="D10">
-        <v>1.001206499833687</v>
+        <v>1.053655895722127</v>
       </c>
       <c r="E10">
-        <v>0.9962801835841861</v>
+        <v>1.028786726408489</v>
       </c>
       <c r="F10">
-        <v>1.002951855060474</v>
+        <v>1.051076249285115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035443051273577</v>
+        <v>1.069732302656287</v>
       </c>
       <c r="J10">
-        <v>1.004389637659421</v>
+        <v>1.062909572460037</v>
       </c>
       <c r="K10">
-        <v>1.015554004668559</v>
+        <v>1.067119545868858</v>
       </c>
       <c r="L10">
-        <v>1.010716926842859</v>
+        <v>1.042654977553507</v>
       </c>
       <c r="M10">
-        <v>1.017268016604028</v>
+        <v>1.064580727967569</v>
       </c>
       <c r="N10">
-        <v>1.005815986149999</v>
+        <v>1.064419025970362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677837007784332</v>
+        <v>1.030552638062685</v>
       </c>
       <c r="D11">
-        <v>0.9955204379667506</v>
+        <v>1.049102030297667</v>
       </c>
       <c r="E11">
-        <v>0.9907389627233923</v>
+        <v>1.023736186036831</v>
       </c>
       <c r="F11">
-        <v>0.996851101910924</v>
+        <v>1.046056795494523</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033287431355975</v>
+        <v>1.067092624713187</v>
       </c>
       <c r="J11">
-        <v>0.9985609664158299</v>
+        <v>1.05870740053458</v>
       </c>
       <c r="K11">
-        <v>1.01052732960986</v>
+        <v>1.063153783108028</v>
       </c>
       <c r="L11">
-        <v>1.005837667769489</v>
+        <v>1.038223938019848</v>
       </c>
       <c r="M11">
-        <v>1.011832647164389</v>
+        <v>1.060159451221994</v>
       </c>
       <c r="N11">
-        <v>0.9999790375246841</v>
+        <v>1.060210886478775</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9649789681300189</v>
+        <v>1.028469502667939</v>
       </c>
       <c r="D12">
-        <v>0.9933590884126544</v>
+        <v>1.047379301498802</v>
       </c>
       <c r="E12">
-        <v>0.9886358425188239</v>
+        <v>1.021823826322669</v>
       </c>
       <c r="F12">
-        <v>0.9945338669466613</v>
+        <v>1.044157483139031</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032465307207597</v>
+        <v>1.066091450224383</v>
       </c>
       <c r="J12">
-        <v>0.9963431628839384</v>
+        <v>1.057116011321057</v>
       </c>
       <c r="K12">
-        <v>1.008614633420875</v>
+        <v>1.061651799066933</v>
       </c>
       <c r="L12">
-        <v>1.003984049171719</v>
+        <v>1.036544528901955</v>
       </c>
       <c r="M12">
-        <v>1.009766544091844</v>
+        <v>1.058484924835714</v>
       </c>
       <c r="N12">
-        <v>0.9977580844573917</v>
+        <v>1.058617237310034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9655837517092761</v>
+        <v>1.028918145499349</v>
       </c>
       <c r="D13">
-        <v>0.9938250266589561</v>
+        <v>1.047750290109117</v>
       </c>
       <c r="E13">
-        <v>0.9890890813140168</v>
+        <v>1.022235731658647</v>
       </c>
       <c r="F13">
-        <v>0.9950333309458382</v>
+        <v>1.044566520036238</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032642661693007</v>
+        <v>1.066307169392377</v>
       </c>
       <c r="J13">
-        <v>0.9968213757985859</v>
+        <v>1.057458793854724</v>
       </c>
       <c r="K13">
-        <v>1.009027058214625</v>
+        <v>1.061975329255735</v>
       </c>
       <c r="L13">
-        <v>1.004383597940717</v>
+        <v>1.036906331910822</v>
       </c>
       <c r="M13">
-        <v>1.010211951053221</v>
+        <v>1.058845622280185</v>
       </c>
       <c r="N13">
-        <v>0.9982369764892298</v>
+        <v>1.058960506634216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675532725163731</v>
+        <v>1.030381253018574</v>
       </c>
       <c r="D14">
-        <v>0.995342818084497</v>
+        <v>1.048960281839152</v>
       </c>
       <c r="E14">
-        <v>0.9905660626716245</v>
+        <v>1.023578870232974</v>
       </c>
       <c r="F14">
-        <v>0.9966606356927091</v>
+        <v>1.0459005269243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033219924435483</v>
+        <v>1.067010299201603</v>
       </c>
       <c r="J14">
-        <v>0.9983787537462095</v>
+        <v>1.058576493769361</v>
       </c>
       <c r="K14">
-        <v>1.010370184674859</v>
+        <v>1.063030233199201</v>
       </c>
       <c r="L14">
-        <v>1.005685315159077</v>
+        <v>1.038085818219453</v>
       </c>
       <c r="M14">
-        <v>1.011662855444023</v>
+        <v>1.060021708918103</v>
       </c>
       <c r="N14">
-        <v>0.9997965660921726</v>
+        <v>1.060079793810935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9687576516693168</v>
+        <v>1.031277503582514</v>
       </c>
       <c r="D15">
-        <v>0.996271281470049</v>
+        <v>1.049701578614798</v>
       </c>
       <c r="E15">
-        <v>0.9914699842763132</v>
+        <v>1.024401507825428</v>
       </c>
       <c r="F15">
-        <v>0.9976563211839102</v>
+        <v>1.046717740381891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033572688875289</v>
+        <v>1.067440728842282</v>
       </c>
       <c r="J15">
-        <v>0.9993311325206322</v>
+        <v>1.059261022483469</v>
       </c>
       <c r="K15">
-        <v>1.011191539406758</v>
+        <v>1.063676286971454</v>
       </c>
       <c r="L15">
-        <v>1.006481743726852</v>
+        <v>1.038808010001627</v>
       </c>
       <c r="M15">
-        <v>1.012550397361301</v>
+        <v>1.060741975012317</v>
       </c>
       <c r="N15">
-        <v>1.000750297353694</v>
+        <v>1.060765294634333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9756345608936666</v>
+        <v>1.036417021002005</v>
       </c>
       <c r="D16">
-        <v>1.001577249546447</v>
+        <v>1.053953890246883</v>
       </c>
       <c r="E16">
-        <v>0.9966419136902114</v>
+        <v>1.029116987023855</v>
       </c>
       <c r="F16">
-        <v>1.003349880293508</v>
+        <v>1.051404651122342</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035583225981418</v>
+        <v>1.069904681860651</v>
       </c>
       <c r="J16">
-        <v>1.004769387933986</v>
+        <v>1.063184320486953</v>
       </c>
       <c r="K16">
-        <v>1.015881490342933</v>
+        <v>1.067378818975503</v>
       </c>
       <c r="L16">
-        <v>1.01103520838357</v>
+        <v>1.042944505400704</v>
       </c>
       <c r="M16">
-        <v>1.017622413129754</v>
+        <v>1.064869779624253</v>
       </c>
       <c r="N16">
-        <v>1.006196275713512</v>
+        <v>1.064694164170991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9798371107234477</v>
+        <v>1.039575764604717</v>
       </c>
       <c r="D17">
-        <v>1.004823413123239</v>
+        <v>1.056568470447115</v>
       </c>
       <c r="E17">
-        <v>0.9998113527161216</v>
+        <v>1.032013411548286</v>
       </c>
       <c r="F17">
-        <v>1.006836128747321</v>
+        <v>1.054285711877687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03680847388621</v>
+        <v>1.071415190452937</v>
       </c>
       <c r="J17">
-        <v>1.008092793975777</v>
+        <v>1.065593685930037</v>
       </c>
       <c r="K17">
-        <v>1.018747395704446</v>
+        <v>1.069652376783707</v>
       </c>
       <c r="L17">
-        <v>1.013822690411298</v>
+        <v>1.045482484644845</v>
       </c>
       <c r="M17">
-        <v>1.02072534823316</v>
+        <v>1.067404460166543</v>
       </c>
       <c r="N17">
-        <v>1.009524401373083</v>
+        <v>1.067106951189362</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9822505787780218</v>
+        <v>1.041395755558543</v>
       </c>
       <c r="D18">
-        <v>1.006688829040294</v>
+        <v>1.058075294454905</v>
       </c>
       <c r="E18">
-        <v>1.001634519594085</v>
+        <v>1.033681634096908</v>
       </c>
       <c r="F18">
-        <v>1.00884055810095</v>
+        <v>1.055945861262482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037510831417287</v>
+        <v>1.072284113177687</v>
       </c>
       <c r="J18">
-        <v>1.010001324500301</v>
+        <v>1.066981206626524</v>
       </c>
       <c r="K18">
-        <v>1.020393094858187</v>
+        <v>1.070961600171703</v>
       </c>
       <c r="L18">
-        <v>1.015425098621031</v>
+        <v>1.046943246971092</v>
       </c>
       <c r="M18">
-        <v>1.022508417107897</v>
+        <v>1.06886404992266</v>
       </c>
       <c r="N18">
-        <v>1.011435642229862</v>
+        <v>1.068496442324388</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9830672959162197</v>
+        <v>1.042012609850791</v>
       </c>
       <c r="D19">
-        <v>1.007320276324552</v>
+        <v>1.058586065413937</v>
       </c>
       <c r="E19">
-        <v>1.002251972635448</v>
+        <v>1.034246941675851</v>
       </c>
       <c r="F19">
-        <v>1.009519238116731</v>
+        <v>1.056508563788081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0377482856394</v>
+        <v>1.072578381275875</v>
       </c>
       <c r="J19">
-        <v>1.010647155067162</v>
+        <v>1.067451362914742</v>
       </c>
       <c r="K19">
-        <v>1.020949965322015</v>
+        <v>1.071405210461959</v>
       </c>
       <c r="L19">
-        <v>1.015967611604843</v>
+        <v>1.047438081586447</v>
       </c>
       <c r="M19">
-        <v>1.023111982414618</v>
+        <v>1.069358609993901</v>
       </c>
       <c r="N19">
-        <v>1.012082389950207</v>
+        <v>1.068967266288464</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9793901758631409</v>
+        <v>1.03923920575093</v>
       </c>
       <c r="D20">
-        <v>1.004478062352983</v>
+        <v>1.056289852447536</v>
       </c>
       <c r="E20">
-        <v>0.9994739717144053</v>
+        <v>1.031704867184507</v>
       </c>
       <c r="F20">
-        <v>1.006465126611225</v>
+        <v>1.053978723306653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036678303129974</v>
+        <v>1.071254392957459</v>
       </c>
       <c r="J20">
-        <v>1.007739359181028</v>
+        <v>1.065337044119063</v>
       </c>
       <c r="K20">
-        <v>1.018442624822951</v>
+        <v>1.069410209992842</v>
       </c>
       <c r="L20">
-        <v>1.0135260770061</v>
+        <v>1.045212229039677</v>
       </c>
       <c r="M20">
-        <v>1.020395239255643</v>
+        <v>1.067134480220283</v>
       </c>
       <c r="N20">
-        <v>1.009170464660385</v>
+        <v>1.066849944917579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.966975209913579</v>
+        <v>1.029951497890362</v>
       </c>
       <c r="D21">
-        <v>0.9948972720933567</v>
+        <v>1.048604853451072</v>
       </c>
       <c r="E21">
-        <v>0.990132407690104</v>
+        <v>1.02318437912874</v>
       </c>
       <c r="F21">
-        <v>0.9961828938582005</v>
+        <v>1.045508682541697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033050544526846</v>
+        <v>1.066803829795327</v>
       </c>
       <c r="J21">
-        <v>0.9979216503630775</v>
+        <v>1.058248222869507</v>
       </c>
       <c r="K21">
-        <v>1.009975966403651</v>
+        <v>1.062720408912464</v>
       </c>
       <c r="L21">
-        <v>1.005303167563788</v>
+        <v>1.037739437686156</v>
       </c>
       <c r="M21">
-        <v>1.011236945145119</v>
+        <v>1.05967629415095</v>
       </c>
       <c r="N21">
-        <v>0.9993388135698065</v>
+        <v>1.05975105672875</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9587775683754778</v>
+        <v>1.023886736747857</v>
       </c>
       <c r="D22">
-        <v>0.9885850751319228</v>
+        <v>1.043590843659809</v>
       </c>
       <c r="E22">
-        <v>0.9839965542494479</v>
+        <v>1.01761504966242</v>
       </c>
       <c r="F22">
-        <v>0.9894188249241765</v>
+        <v>1.039979814826586</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030644366704249</v>
+        <v>1.063884982757903</v>
       </c>
       <c r="J22">
-        <v>0.9914400773141914</v>
+        <v>1.053613178737462</v>
       </c>
       <c r="K22">
-        <v>1.004386107005072</v>
+        <v>1.058345544781855</v>
       </c>
       <c r="L22">
-        <v>0.9998918515396904</v>
+        <v>1.032845443526961</v>
       </c>
       <c r="M22">
-        <v>1.005202852177658</v>
+        <v>1.054798797692491</v>
       </c>
       <c r="N22">
-        <v>0.9928480359437437</v>
+        <v>1.055109430302389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631631920148896</v>
+        <v>1.027124329250951</v>
       </c>
       <c r="D23">
-        <v>0.9919605535784738</v>
+        <v>1.046267072811177</v>
       </c>
       <c r="E23">
-        <v>0.9872759074322287</v>
+        <v>1.020588667400949</v>
       </c>
       <c r="F23">
-        <v>0.9930349634398807</v>
+        <v>1.042931115399957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031932570748983</v>
+        <v>1.065444341501213</v>
       </c>
       <c r="J23">
-        <v>0.9949074404111964</v>
+        <v>1.056088090784505</v>
       </c>
       <c r="K23">
-        <v>1.007376425618584</v>
+        <v>1.060681594491887</v>
       </c>
       <c r="L23">
-        <v>1.002784950020064</v>
+        <v>1.035459371451885</v>
       </c>
       <c r="M23">
-        <v>1.008429629817921</v>
+        <v>1.057403258086</v>
       </c>
       <c r="N23">
-        <v>0.9963203230940586</v>
+        <v>1.057587857008416</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9795922427964505</v>
+        <v>1.039391351347981</v>
       </c>
       <c r="D24">
-        <v>1.004634197706626</v>
+        <v>1.056415804032939</v>
       </c>
       <c r="E24">
-        <v>0.9996264981722471</v>
+        <v>1.031844350433806</v>
       </c>
       <c r="F24">
-        <v>1.006632855860571</v>
+        <v>1.054117500823111</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036737159580404</v>
+        <v>1.071327087794651</v>
       </c>
       <c r="J24">
-        <v>1.007899153321043</v>
+        <v>1.065453064396006</v>
       </c>
       <c r="K24">
-        <v>1.018580417471365</v>
+        <v>1.069519686808427</v>
       </c>
       <c r="L24">
-        <v>1.013660176097506</v>
+        <v>1.045334406278271</v>
       </c>
       <c r="M24">
-        <v>1.02054448382161</v>
+        <v>1.067256530583959</v>
       </c>
       <c r="N24">
-        <v>1.009330485726407</v>
+        <v>1.066966129956623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9971903655296922</v>
+        <v>1.052754220595616</v>
       </c>
       <c r="D25">
-        <v>1.018253814470565</v>
+        <v>1.067484860312946</v>
       </c>
       <c r="E25">
-        <v>1.01296842522864</v>
+        <v>1.044081510946055</v>
       </c>
       <c r="F25">
-        <v>1.021285396427753</v>
+        <v>1.066308822934057</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041834404038698</v>
+        <v>1.077681938419411</v>
       </c>
       <c r="J25">
-        <v>1.021812656461597</v>
+        <v>1.075627886237292</v>
       </c>
       <c r="K25">
-        <v>1.03057522118653</v>
+        <v>1.07911868828707</v>
       </c>
       <c r="L25">
-        <v>1.025368704309086</v>
+        <v>1.056031996388162</v>
       </c>
       <c r="M25">
-        <v>1.033562031576127</v>
+        <v>1.077958147129381</v>
       </c>
       <c r="N25">
-        <v>1.023263747637322</v>
+        <v>1.077155401211993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.062810092260532</v>
+        <v>1.084807892817217</v>
       </c>
       <c r="D2">
-        <v>1.075822242068256</v>
+        <v>1.087789444820161</v>
       </c>
       <c r="E2">
-        <v>1.053269925762006</v>
+        <v>1.081352253818684</v>
       </c>
       <c r="F2">
-        <v>1.075485314586254</v>
+        <v>1.096279409776523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.082420047729462</v>
+        <v>1.070256735622021</v>
       </c>
       <c r="J2">
-        <v>1.083261761212206</v>
+        <v>1.089665855874333</v>
       </c>
       <c r="K2">
-        <v>1.086317435864585</v>
+        <v>1.090443803604722</v>
       </c>
       <c r="L2">
-        <v>1.064033850022729</v>
+        <v>1.084023300985792</v>
       </c>
       <c r="M2">
-        <v>1.085984420623354</v>
+        <v>1.098912081482161</v>
       </c>
       <c r="N2">
-        <v>1.084800117164989</v>
+        <v>1.091213306376095</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.069804560120192</v>
+        <v>1.086164336051116</v>
       </c>
       <c r="D3">
-        <v>1.081624422004181</v>
+        <v>1.088918187269163</v>
       </c>
       <c r="E3">
-        <v>1.059648793214202</v>
+        <v>1.082603774796071</v>
       </c>
       <c r="F3">
-        <v>1.081868465583309</v>
+        <v>1.097542191412052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.085689581653199</v>
+        <v>1.070793534386877</v>
       </c>
       <c r="J3">
-        <v>1.088557657376622</v>
+        <v>1.090683394859031</v>
       </c>
       <c r="K3">
-        <v>1.091309493123863</v>
+        <v>1.091391432141117</v>
       </c>
       <c r="L3">
-        <v>1.069571369117165</v>
+        <v>1.085092202047608</v>
       </c>
       <c r="M3">
-        <v>1.091550965423453</v>
+        <v>1.09999500362776</v>
       </c>
       <c r="N3">
-        <v>1.090103534109405</v>
+        <v>1.092232290382864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.07420056742342</v>
+        <v>1.087040873154767</v>
       </c>
       <c r="D4">
-        <v>1.085272068900197</v>
+        <v>1.089647392037441</v>
       </c>
       <c r="E4">
-        <v>1.063652098721585</v>
+        <v>1.083411358554033</v>
       </c>
       <c r="F4">
-        <v>1.085880146551743</v>
+        <v>1.098357844892488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.087732197175885</v>
+        <v>1.071138959036448</v>
       </c>
       <c r="J4">
-        <v>1.091879467174178</v>
+        <v>1.091340106921377</v>
       </c>
       <c r="K4">
-        <v>1.094439753877861</v>
+        <v>1.092002852288965</v>
       </c>
       <c r="L4">
-        <v>1.073038516405308</v>
+        <v>1.085781055423364</v>
       </c>
       <c r="M4">
-        <v>1.095041832425082</v>
+        <v>1.100693709094737</v>
       </c>
       <c r="N4">
-        <v>1.093430061257892</v>
+        <v>1.092889935051665</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.076019200404881</v>
+        <v>1.087409094172977</v>
       </c>
       <c r="D5">
-        <v>1.086781285503975</v>
+        <v>1.089953674466145</v>
       </c>
       <c r="E5">
-        <v>1.065306859305941</v>
+        <v>1.083750337998497</v>
       </c>
       <c r="F5">
-        <v>1.087539718060748</v>
+        <v>1.098700403559619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.088574252619184</v>
+        <v>1.071283718466109</v>
       </c>
       <c r="J5">
-        <v>1.09325207815906</v>
+        <v>1.091615785058391</v>
       </c>
       <c r="K5">
-        <v>1.095732974273001</v>
+        <v>1.092259476222516</v>
       </c>
       <c r="L5">
-        <v>1.074469702708419</v>
+        <v>1.086069985409672</v>
       </c>
       <c r="M5">
-        <v>1.096484133829857</v>
+        <v>1.100986966789208</v>
       </c>
       <c r="N5">
-        <v>1.094804621507812</v>
+        <v>1.093166004683255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.076322875442678</v>
+        <v>1.087470904124491</v>
       </c>
       <c r="D6">
-        <v>1.087033303322126</v>
+        <v>1.090005084612483</v>
       </c>
       <c r="E6">
-        <v>1.065583087405095</v>
+        <v>1.083807223307106</v>
       </c>
       <c r="F6">
-        <v>1.087816828154118</v>
+        <v>1.098757900760593</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.088714682961681</v>
+        <v>1.071307997481592</v>
       </c>
       <c r="J6">
-        <v>1.093481180084659</v>
+        <v>1.091662049085772</v>
       </c>
       <c r="K6">
-        <v>1.095948810792471</v>
+        <v>1.092302540166764</v>
       </c>
       <c r="L6">
-        <v>1.074708494710451</v>
+        <v>1.08611845925388</v>
       </c>
       <c r="M6">
-        <v>1.096724858081434</v>
+        <v>1.101036178154176</v>
       </c>
       <c r="N6">
-        <v>1.095034048784424</v>
+        <v>1.093212334410861</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.074224981719112</v>
+        <v>1.087045794416488</v>
       </c>
       <c r="D7">
-        <v>1.085292328781206</v>
+        <v>1.089651485674671</v>
       </c>
       <c r="E7">
-        <v>1.063674318717161</v>
+        <v>1.083415890084128</v>
       </c>
       <c r="F7">
-        <v>1.085902425827826</v>
+        <v>1.098362423515703</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.087743513195202</v>
+        <v>1.071140895111913</v>
       </c>
       <c r="J7">
-        <v>1.091897900303896</v>
+        <v>1.091343792126788</v>
       </c>
       <c r="K7">
-        <v>1.094457121813322</v>
+        <v>1.092006282944492</v>
       </c>
       <c r="L7">
-        <v>1.07305774200082</v>
+        <v>1.08578491872192</v>
       </c>
       <c r="M7">
-        <v>1.095061202097642</v>
+        <v>1.100697629490831</v>
       </c>
       <c r="N7">
-        <v>1.093448520564767</v>
+        <v>1.09289362549049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.065201831233283</v>
+        <v>1.085266555217197</v>
       </c>
       <c r="D8">
-        <v>1.077806036881158</v>
+        <v>1.08817115276699</v>
       </c>
       <c r="E8">
-        <v>1.055452372081993</v>
+        <v>1.081775677411837</v>
       </c>
       <c r="F8">
-        <v>1.077668015722222</v>
+        <v>1.096706476276319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.083540626560178</v>
+        <v>1.070438548387036</v>
       </c>
       <c r="J8">
-        <v>1.085074061766371</v>
+        <v>1.090010093269207</v>
       </c>
       <c r="K8">
-        <v>1.088025959733878</v>
+        <v>1.090764425697315</v>
       </c>
       <c r="L8">
-        <v>1.065930157237444</v>
+        <v>1.084385123671483</v>
       </c>
       <c r="M8">
-        <v>1.087889490291182</v>
+        <v>1.099278480816785</v>
       </c>
       <c r="N8">
-        <v>1.086614991393814</v>
+        <v>1.091558032627554</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.048225638885859</v>
+        <v>1.082122082839736</v>
       </c>
       <c r="D9">
-        <v>1.063732205604883</v>
+        <v>1.085553492157601</v>
       </c>
       <c r="E9">
-        <v>1.039937593413631</v>
+        <v>1.078868031175178</v>
       </c>
       <c r="F9">
-        <v>1.062176771260214</v>
+        <v>1.09377713967603</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.075535256719328</v>
+        <v>1.069186102843675</v>
       </c>
       <c r="J9">
-        <v>1.072183264256245</v>
+        <v>1.087646705756896</v>
       </c>
       <c r="K9">
-        <v>1.075869476004642</v>
+        <v>1.088562464442718</v>
       </c>
       <c r="L9">
-        <v>1.052414316989307</v>
+        <v>1.081896829518227</v>
       </c>
       <c r="M9">
-        <v>1.074335645123934</v>
+        <v>1.096762085828633</v>
       </c>
       <c r="N9">
-        <v>1.073705887472629</v>
+        <v>1.089191288833892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.036056942360258</v>
+        <v>1.080019218234254</v>
       </c>
       <c r="D10">
-        <v>1.053655895722127</v>
+        <v>1.083801986910249</v>
       </c>
       <c r="E10">
-        <v>1.028786726408489</v>
+        <v>1.076917531200989</v>
       </c>
       <c r="F10">
-        <v>1.051076249285115</v>
+        <v>1.091816288708044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069732302656287</v>
+        <v>1.068341011424757</v>
       </c>
       <c r="J10">
-        <v>1.062909572460037</v>
+        <v>1.086061942797654</v>
       </c>
       <c r="K10">
-        <v>1.067119545868858</v>
+        <v>1.087085060179769</v>
       </c>
       <c r="L10">
-        <v>1.042654977553507</v>
+        <v>1.080223035714655</v>
       </c>
       <c r="M10">
-        <v>1.064580727967569</v>
+        <v>1.095073639414363</v>
       </c>
       <c r="N10">
-        <v>1.064419025970362</v>
+        <v>1.087604275329473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.030552638062685</v>
+        <v>1.079107023316265</v>
       </c>
       <c r="D11">
-        <v>1.049102030297667</v>
+        <v>1.083041988983911</v>
       </c>
       <c r="E11">
-        <v>1.023736186036831</v>
+        <v>1.076069994829036</v>
       </c>
       <c r="F11">
-        <v>1.046056795494523</v>
+        <v>1.090965256190445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067092624713187</v>
+        <v>1.067972638660366</v>
       </c>
       <c r="J11">
-        <v>1.05870740053458</v>
+        <v>1.085373487019988</v>
       </c>
       <c r="K11">
-        <v>1.063153783108028</v>
+        <v>1.086443034335227</v>
       </c>
       <c r="L11">
-        <v>1.038223938019848</v>
+        <v>1.079494643094662</v>
       </c>
       <c r="M11">
-        <v>1.060159451221994</v>
+        <v>1.094339880123851</v>
       </c>
       <c r="N11">
-        <v>1.060210886478775</v>
+        <v>1.086914841865636</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.028469502667939</v>
+        <v>1.078767940225135</v>
       </c>
       <c r="D12">
-        <v>1.047379301498802</v>
+        <v>1.082759448652222</v>
       </c>
       <c r="E12">
-        <v>1.021823826322669</v>
+        <v>1.075754730350092</v>
       </c>
       <c r="F12">
-        <v>1.044157483139031</v>
+        <v>1.090648842183334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066091450224383</v>
+        <v>1.06783543841205</v>
       </c>
       <c r="J12">
-        <v>1.057116011321057</v>
+        <v>1.085117421602423</v>
       </c>
       <c r="K12">
-        <v>1.061651799066933</v>
+        <v>1.086204206814835</v>
       </c>
       <c r="L12">
-        <v>1.036544528901955</v>
+        <v>1.079223533465914</v>
       </c>
       <c r="M12">
-        <v>1.058484924835714</v>
+        <v>1.094066924878339</v>
       </c>
       <c r="N12">
-        <v>1.058617237310034</v>
+        <v>1.086658412805807</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.028918145499349</v>
+        <v>1.078840686270367</v>
       </c>
       <c r="D13">
-        <v>1.047750290109117</v>
+        <v>1.082820065604477</v>
       </c>
       <c r="E13">
-        <v>1.022235731658647</v>
+        <v>1.075822376213516</v>
       </c>
       <c r="F13">
-        <v>1.044566520036238</v>
+        <v>1.090716727861831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066307169392377</v>
+        <v>1.06786488513554</v>
       </c>
       <c r="J13">
-        <v>1.057458793854724</v>
+        <v>1.085172364078642</v>
       </c>
       <c r="K13">
-        <v>1.061975329255735</v>
+        <v>1.086255452071483</v>
       </c>
       <c r="L13">
-        <v>1.036906331910822</v>
+        <v>1.079281712501425</v>
       </c>
       <c r="M13">
-        <v>1.058845622280185</v>
+        <v>1.094125493102484</v>
       </c>
       <c r="N13">
-        <v>1.058960506634216</v>
+        <v>1.086713433306644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.030381253018574</v>
+        <v>1.079078999808524</v>
       </c>
       <c r="D14">
-        <v>1.048960281839152</v>
+        <v>1.083018639104638</v>
       </c>
       <c r="E14">
-        <v>1.023578870232974</v>
+        <v>1.076043944227519</v>
       </c>
       <c r="F14">
-        <v>1.0459005269243</v>
+        <v>1.0909391075214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067010299201603</v>
+        <v>1.0679613052158</v>
       </c>
       <c r="J14">
-        <v>1.058576493769361</v>
+        <v>1.085352327586115</v>
       </c>
       <c r="K14">
-        <v>1.063030233199201</v>
+        <v>1.086423299957638</v>
       </c>
       <c r="L14">
-        <v>1.038085818219453</v>
+        <v>1.079472244392998</v>
       </c>
       <c r="M14">
-        <v>1.060021708918103</v>
+        <v>1.094317325842739</v>
       </c>
       <c r="N14">
-        <v>1.060079793810935</v>
+        <v>1.086893652382939</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.031277503582514</v>
+        <v>1.079225798878294</v>
       </c>
       <c r="D15">
-        <v>1.049701578614798</v>
+        <v>1.083140954401048</v>
       </c>
       <c r="E15">
-        <v>1.024401507825428</v>
+        <v>1.076180399509975</v>
       </c>
       <c r="F15">
-        <v>1.046717740381891</v>
+        <v>1.091076082671401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067440728842282</v>
+        <v>1.068020663657216</v>
       </c>
       <c r="J15">
-        <v>1.059261022483469</v>
+        <v>1.085463163526628</v>
       </c>
       <c r="K15">
-        <v>1.063676286971454</v>
+        <v>1.08652666998105</v>
       </c>
       <c r="L15">
-        <v>1.038808010001627</v>
+        <v>1.079589564001108</v>
       </c>
       <c r="M15">
-        <v>1.060741975012317</v>
+        <v>1.094435466558138</v>
       </c>
       <c r="N15">
-        <v>1.060765294634333</v>
+        <v>1.087004645723201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.036417021002005</v>
+        <v>1.080079722461124</v>
       </c>
       <c r="D16">
-        <v>1.053953890246883</v>
+        <v>1.083852391641464</v>
       </c>
       <c r="E16">
-        <v>1.029116987023855</v>
+        <v>1.076973716460887</v>
       </c>
       <c r="F16">
-        <v>1.051404651122342</v>
+        <v>1.091872726850583</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069904681860651</v>
+        <v>1.068365407374044</v>
       </c>
       <c r="J16">
-        <v>1.063184320486953</v>
+        <v>1.086107585631395</v>
       </c>
       <c r="K16">
-        <v>1.067378818975503</v>
+        <v>1.087127620437044</v>
       </c>
       <c r="L16">
-        <v>1.042944505400704</v>
+        <v>1.080271299683087</v>
       </c>
       <c r="M16">
-        <v>1.064869779624253</v>
+        <v>1.095122280230615</v>
       </c>
       <c r="N16">
-        <v>1.064694164170991</v>
+        <v>1.087649982981272</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.039575764604717</v>
+        <v>1.080614922130593</v>
       </c>
       <c r="D17">
-        <v>1.056568470447115</v>
+        <v>1.08429822952927</v>
       </c>
       <c r="E17">
-        <v>1.032013411548286</v>
+        <v>1.077470546286531</v>
       </c>
       <c r="F17">
-        <v>1.054285711877687</v>
+        <v>1.092371908399711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.071415190452937</v>
+        <v>1.068580999773102</v>
       </c>
       <c r="J17">
-        <v>1.065593685930037</v>
+        <v>1.086511210352064</v>
       </c>
       <c r="K17">
-        <v>1.069652376783707</v>
+        <v>1.087503961488479</v>
       </c>
       <c r="L17">
-        <v>1.045482484644845</v>
+        <v>1.080697958001149</v>
       </c>
       <c r="M17">
-        <v>1.067404460166543</v>
+        <v>1.0955523862904</v>
       </c>
       <c r="N17">
-        <v>1.067106951189362</v>
+        <v>1.088054180895341</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.041395755558543</v>
+        <v>1.080926937204209</v>
       </c>
       <c r="D18">
-        <v>1.058075294454905</v>
+        <v>1.084558126689424</v>
       </c>
       <c r="E18">
-        <v>1.033681634096908</v>
+        <v>1.077760053917595</v>
       </c>
       <c r="F18">
-        <v>1.055945861262482</v>
+        <v>1.092662882810613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.072284113177687</v>
+        <v>1.068706515715782</v>
       </c>
       <c r="J18">
-        <v>1.066981206626524</v>
+        <v>1.086746421771088</v>
       </c>
       <c r="K18">
-        <v>1.070961600171703</v>
+        <v>1.087723253273999</v>
       </c>
       <c r="L18">
-        <v>1.046943246971092</v>
+        <v>1.080946470922037</v>
       </c>
       <c r="M18">
-        <v>1.06886404992266</v>
+        <v>1.095803004525329</v>
       </c>
       <c r="N18">
-        <v>1.068496442324388</v>
+        <v>1.08828972634156</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.042012609850791</v>
+        <v>1.081033299713377</v>
       </c>
       <c r="D19">
-        <v>1.058586065413937</v>
+        <v>1.084646719188062</v>
       </c>
       <c r="E19">
-        <v>1.034246941675851</v>
+        <v>1.077858720456267</v>
       </c>
       <c r="F19">
-        <v>1.056508563788081</v>
+        <v>1.092762065577552</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072578381275875</v>
+        <v>1.068749273568311</v>
       </c>
       <c r="J19">
-        <v>1.067451362914742</v>
+        <v>1.086826586300207</v>
       </c>
       <c r="K19">
-        <v>1.071405210461959</v>
+        <v>1.087797988671422</v>
       </c>
       <c r="L19">
-        <v>1.047438081586447</v>
+        <v>1.081031148308245</v>
       </c>
       <c r="M19">
-        <v>1.069358609993901</v>
+        <v>1.095888415738657</v>
       </c>
       <c r="N19">
-        <v>1.068967266288464</v>
+        <v>1.088370004713505</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.03923920575093</v>
+        <v>1.080557516647904</v>
       </c>
       <c r="D20">
-        <v>1.056289852447536</v>
+        <v>1.0842504111598</v>
       </c>
       <c r="E20">
-        <v>1.031704867184507</v>
+        <v>1.077417270662202</v>
       </c>
       <c r="F20">
-        <v>1.053978723306653</v>
+        <v>1.092318370618105</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.071254392957459</v>
+        <v>1.068557893127534</v>
       </c>
       <c r="J20">
-        <v>1.065337044119063</v>
+        <v>1.086467927626372</v>
       </c>
       <c r="K20">
-        <v>1.069410209992842</v>
+        <v>1.087463606611906</v>
       </c>
       <c r="L20">
-        <v>1.045212229039677</v>
+        <v>1.080652217820266</v>
       </c>
       <c r="M20">
-        <v>1.067134480220283</v>
+        <v>1.095506266438691</v>
       </c>
       <c r="N20">
-        <v>1.066849944917579</v>
+        <v>1.088010836703214</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.029951497890362</v>
+        <v>1.079008829457972</v>
       </c>
       <c r="D21">
-        <v>1.048604853451072</v>
+        <v>1.082960170915322</v>
       </c>
       <c r="E21">
-        <v>1.02318437912874</v>
+        <v>1.075978710500194</v>
       </c>
       <c r="F21">
-        <v>1.045508682541697</v>
+        <v>1.090873630661049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066803829795327</v>
+        <v>1.067932922150792</v>
       </c>
       <c r="J21">
-        <v>1.058248222869507</v>
+        <v>1.085299342310294</v>
       </c>
       <c r="K21">
-        <v>1.062720408912464</v>
+        <v>1.086373882655327</v>
       </c>
       <c r="L21">
-        <v>1.037739437686156</v>
+        <v>1.079416152798941</v>
       </c>
       <c r="M21">
-        <v>1.05967629415095</v>
+        <v>1.094260847094063</v>
       </c>
       <c r="N21">
-        <v>1.05975105672875</v>
+        <v>1.086840591861949</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.023886736747857</v>
+        <v>1.078033639539889</v>
       </c>
       <c r="D22">
-        <v>1.043590843659809</v>
+        <v>1.08214753561862</v>
       </c>
       <c r="E22">
-        <v>1.01761504966242</v>
+        <v>1.075071613298359</v>
       </c>
       <c r="F22">
-        <v>1.039979814826586</v>
+        <v>1.089963511086738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063884982757903</v>
+        <v>1.067537834604158</v>
       </c>
       <c r="J22">
-        <v>1.053613178737462</v>
+        <v>1.084562623310369</v>
       </c>
       <c r="K22">
-        <v>1.058345544781855</v>
+        <v>1.085686699370663</v>
       </c>
       <c r="L22">
-        <v>1.032845443526961</v>
+        <v>1.078635791437681</v>
       </c>
       <c r="M22">
-        <v>1.054798797692491</v>
+        <v>1.093475459877992</v>
       </c>
       <c r="N22">
-        <v>1.055109430302389</v>
+        <v>1.086102826636541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.027124329250951</v>
+        <v>1.078550747672071</v>
       </c>
       <c r="D23">
-        <v>1.046267072811177</v>
+        <v>1.082578464365138</v>
       </c>
       <c r="E23">
-        <v>1.020588667400949</v>
+        <v>1.075552733289303</v>
       </c>
       <c r="F23">
-        <v>1.042931115399957</v>
+        <v>1.090446151154787</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065444341501213</v>
+        <v>1.067747482249199</v>
       </c>
       <c r="J23">
-        <v>1.056088090784505</v>
+        <v>1.084953361741608</v>
       </c>
       <c r="K23">
-        <v>1.060681594491887</v>
+        <v>1.086051182378694</v>
       </c>
       <c r="L23">
-        <v>1.035459371451885</v>
+        <v>1.079049781257632</v>
       </c>
       <c r="M23">
-        <v>1.057403258086</v>
+        <v>1.093892032608375</v>
       </c>
       <c r="N23">
-        <v>1.057587857008416</v>
+        <v>1.086494119961171</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.039391351347981</v>
+        <v>1.080583456201761</v>
       </c>
       <c r="D24">
-        <v>1.056415804032939</v>
+        <v>1.084272018693624</v>
       </c>
       <c r="E24">
-        <v>1.031844350433806</v>
+        <v>1.07744134450304</v>
       </c>
       <c r="F24">
-        <v>1.054117500823111</v>
+        <v>1.09234256262292</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.071327087794651</v>
+        <v>1.068568334753343</v>
       </c>
       <c r="J24">
-        <v>1.065453064396006</v>
+        <v>1.086487485894222</v>
       </c>
       <c r="K24">
-        <v>1.069519686808427</v>
+        <v>1.087481841927882</v>
       </c>
       <c r="L24">
-        <v>1.045334406278271</v>
+        <v>1.080672886918989</v>
       </c>
       <c r="M24">
-        <v>1.067256530583959</v>
+        <v>1.095527106803026</v>
       </c>
       <c r="N24">
-        <v>1.066966129956623</v>
+        <v>1.088030422746048</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.052754220595616</v>
+        <v>1.082936133181687</v>
       </c>
       <c r="D25">
-        <v>1.067484860312946</v>
+        <v>1.086231328485736</v>
       </c>
       <c r="E25">
-        <v>1.044081510946055</v>
+        <v>1.079621826502635</v>
       </c>
       <c r="F25">
-        <v>1.066308822934057</v>
+        <v>1.094535821953365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.077681938419411</v>
+        <v>1.069511663100859</v>
       </c>
       <c r="J25">
-        <v>1.075627886237292</v>
+        <v>1.08825929470065</v>
       </c>
       <c r="K25">
-        <v>1.07911868828707</v>
+        <v>1.089133367706296</v>
       </c>
       <c r="L25">
-        <v>1.056031996388162</v>
+        <v>1.082542718588488</v>
       </c>
       <c r="M25">
-        <v>1.077958147129381</v>
+        <v>1.097414523623965</v>
       </c>
       <c r="N25">
-        <v>1.077155401211993</v>
+        <v>1.089804747724211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.084807892817217</v>
+        <v>1.062810092260534</v>
       </c>
       <c r="D2">
-        <v>1.087789444820161</v>
+        <v>1.075822242068258</v>
       </c>
       <c r="E2">
-        <v>1.081352253818684</v>
+        <v>1.053269925762007</v>
       </c>
       <c r="F2">
-        <v>1.096279409776523</v>
+        <v>1.075485314586256</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070256735622021</v>
+        <v>1.082420047729463</v>
       </c>
       <c r="J2">
-        <v>1.089665855874333</v>
+        <v>1.083261761212208</v>
       </c>
       <c r="K2">
-        <v>1.090443803604722</v>
+        <v>1.086317435864587</v>
       </c>
       <c r="L2">
-        <v>1.084023300985792</v>
+        <v>1.06403385002273</v>
       </c>
       <c r="M2">
-        <v>1.098912081482161</v>
+        <v>1.085984420623355</v>
       </c>
       <c r="N2">
-        <v>1.091213306376095</v>
+        <v>1.08480011716499</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.086164336051116</v>
+        <v>1.069804560120191</v>
       </c>
       <c r="D3">
-        <v>1.088918187269163</v>
+        <v>1.081624422004181</v>
       </c>
       <c r="E3">
-        <v>1.082603774796071</v>
+        <v>1.059648793214202</v>
       </c>
       <c r="F3">
-        <v>1.097542191412052</v>
+        <v>1.081868465583309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070793534386877</v>
+        <v>1.085689581653198</v>
       </c>
       <c r="J3">
-        <v>1.090683394859031</v>
+        <v>1.088557657376621</v>
       </c>
       <c r="K3">
-        <v>1.091391432141117</v>
+        <v>1.091309493123862</v>
       </c>
       <c r="L3">
-        <v>1.085092202047608</v>
+        <v>1.069571369117165</v>
       </c>
       <c r="M3">
-        <v>1.09999500362776</v>
+        <v>1.091550965423452</v>
       </c>
       <c r="N3">
-        <v>1.092232290382864</v>
+        <v>1.090103534109404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.087040873154767</v>
+        <v>1.074200567423419</v>
       </c>
       <c r="D4">
-        <v>1.089647392037441</v>
+        <v>1.085272068900196</v>
       </c>
       <c r="E4">
-        <v>1.083411358554033</v>
+        <v>1.063652098721584</v>
       </c>
       <c r="F4">
-        <v>1.098357844892488</v>
+        <v>1.085880146551742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071138959036448</v>
+        <v>1.087732197175884</v>
       </c>
       <c r="J4">
-        <v>1.091340106921377</v>
+        <v>1.091879467174178</v>
       </c>
       <c r="K4">
-        <v>1.092002852288965</v>
+        <v>1.09443975387786</v>
       </c>
       <c r="L4">
-        <v>1.085781055423364</v>
+        <v>1.073038516405307</v>
       </c>
       <c r="M4">
-        <v>1.100693709094737</v>
+        <v>1.095041832425081</v>
       </c>
       <c r="N4">
-        <v>1.092889935051665</v>
+        <v>1.093430061257891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.087409094172977</v>
+        <v>1.076019200404882</v>
       </c>
       <c r="D5">
-        <v>1.089953674466145</v>
+        <v>1.086781285503977</v>
       </c>
       <c r="E5">
-        <v>1.083750337998497</v>
+        <v>1.065306859305941</v>
       </c>
       <c r="F5">
-        <v>1.098700403559619</v>
+        <v>1.087539718060749</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071283718466109</v>
+        <v>1.088574252619185</v>
       </c>
       <c r="J5">
-        <v>1.091615785058391</v>
+        <v>1.093252078159061</v>
       </c>
       <c r="K5">
-        <v>1.092259476222516</v>
+        <v>1.095732974273002</v>
       </c>
       <c r="L5">
-        <v>1.086069985409672</v>
+        <v>1.07446970270842</v>
       </c>
       <c r="M5">
-        <v>1.100986966789208</v>
+        <v>1.096484133829858</v>
       </c>
       <c r="N5">
-        <v>1.093166004683255</v>
+        <v>1.094804621507813</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.087470904124491</v>
+        <v>1.076322875442677</v>
       </c>
       <c r="D6">
-        <v>1.090005084612483</v>
+        <v>1.087033303322126</v>
       </c>
       <c r="E6">
-        <v>1.083807223307106</v>
+        <v>1.065583087405095</v>
       </c>
       <c r="F6">
-        <v>1.098757900760593</v>
+        <v>1.087816828154118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071307997481592</v>
+        <v>1.088714682961681</v>
       </c>
       <c r="J6">
-        <v>1.091662049085772</v>
+        <v>1.093481180084659</v>
       </c>
       <c r="K6">
-        <v>1.092302540166764</v>
+        <v>1.09594881079247</v>
       </c>
       <c r="L6">
-        <v>1.08611845925388</v>
+        <v>1.07470849471045</v>
       </c>
       <c r="M6">
-        <v>1.101036178154176</v>
+        <v>1.096724858081434</v>
       </c>
       <c r="N6">
-        <v>1.093212334410861</v>
+        <v>1.095034048784423</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.087045794416488</v>
+        <v>1.074224981719114</v>
       </c>
       <c r="D7">
-        <v>1.089651485674671</v>
+        <v>1.085292328781207</v>
       </c>
       <c r="E7">
-        <v>1.083415890084128</v>
+        <v>1.063674318717162</v>
       </c>
       <c r="F7">
-        <v>1.098362423515703</v>
+        <v>1.085902425827828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071140895111913</v>
+        <v>1.087743513195203</v>
       </c>
       <c r="J7">
-        <v>1.091343792126788</v>
+        <v>1.091897900303897</v>
       </c>
       <c r="K7">
-        <v>1.092006282944492</v>
+        <v>1.094457121813324</v>
       </c>
       <c r="L7">
-        <v>1.08578491872192</v>
+        <v>1.073057742000822</v>
       </c>
       <c r="M7">
-        <v>1.100697629490831</v>
+        <v>1.095061202097644</v>
       </c>
       <c r="N7">
-        <v>1.09289362549049</v>
+        <v>1.093448520564768</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085266555217197</v>
+        <v>1.065201831233283</v>
       </c>
       <c r="D8">
-        <v>1.08817115276699</v>
+        <v>1.077806036881159</v>
       </c>
       <c r="E8">
-        <v>1.081775677411837</v>
+        <v>1.055452372081993</v>
       </c>
       <c r="F8">
-        <v>1.096706476276319</v>
+        <v>1.077668015722222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070438548387036</v>
+        <v>1.083540626560179</v>
       </c>
       <c r="J8">
-        <v>1.090010093269207</v>
+        <v>1.085074061766371</v>
       </c>
       <c r="K8">
-        <v>1.090764425697315</v>
+        <v>1.088025959733878</v>
       </c>
       <c r="L8">
-        <v>1.084385123671483</v>
+        <v>1.065930157237444</v>
       </c>
       <c r="M8">
-        <v>1.099278480816785</v>
+        <v>1.087889490291182</v>
       </c>
       <c r="N8">
-        <v>1.091558032627554</v>
+        <v>1.086614991393814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.082122082839736</v>
+        <v>1.048225638885858</v>
       </c>
       <c r="D9">
-        <v>1.085553492157601</v>
+        <v>1.063732205604882</v>
       </c>
       <c r="E9">
-        <v>1.078868031175178</v>
+        <v>1.03993759341363</v>
       </c>
       <c r="F9">
-        <v>1.09377713967603</v>
+        <v>1.062176771260213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069186102843675</v>
+        <v>1.075535256719328</v>
       </c>
       <c r="J9">
-        <v>1.087646705756896</v>
+        <v>1.072183264256245</v>
       </c>
       <c r="K9">
-        <v>1.088562464442718</v>
+        <v>1.075869476004641</v>
       </c>
       <c r="L9">
-        <v>1.081896829518227</v>
+        <v>1.052414316989306</v>
       </c>
       <c r="M9">
-        <v>1.096762085828633</v>
+        <v>1.074335645123933</v>
       </c>
       <c r="N9">
-        <v>1.089191288833892</v>
+        <v>1.073705887472628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.080019218234254</v>
+        <v>1.036056942360256</v>
       </c>
       <c r="D10">
-        <v>1.083801986910249</v>
+        <v>1.053655895722126</v>
       </c>
       <c r="E10">
-        <v>1.076917531200989</v>
+        <v>1.028786726408488</v>
       </c>
       <c r="F10">
-        <v>1.091816288708044</v>
+        <v>1.051076249285114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.068341011424757</v>
+        <v>1.069732302656286</v>
       </c>
       <c r="J10">
-        <v>1.086061942797654</v>
+        <v>1.062909572460035</v>
       </c>
       <c r="K10">
-        <v>1.087085060179769</v>
+        <v>1.067119545868856</v>
       </c>
       <c r="L10">
-        <v>1.080223035714655</v>
+        <v>1.042654977553506</v>
       </c>
       <c r="M10">
-        <v>1.095073639414363</v>
+        <v>1.064580727967567</v>
       </c>
       <c r="N10">
-        <v>1.087604275329473</v>
+        <v>1.06441902597036</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.079107023316265</v>
+        <v>1.030552638062685</v>
       </c>
       <c r="D11">
-        <v>1.083041988983911</v>
+        <v>1.049102030297667</v>
       </c>
       <c r="E11">
-        <v>1.076069994829036</v>
+        <v>1.023736186036832</v>
       </c>
       <c r="F11">
-        <v>1.090965256190445</v>
+        <v>1.046056795494524</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067972638660366</v>
+        <v>1.067092624713188</v>
       </c>
       <c r="J11">
-        <v>1.085373487019988</v>
+        <v>1.05870740053458</v>
       </c>
       <c r="K11">
-        <v>1.086443034335227</v>
+        <v>1.063153783108029</v>
       </c>
       <c r="L11">
-        <v>1.079494643094662</v>
+        <v>1.038223938019849</v>
       </c>
       <c r="M11">
-        <v>1.094339880123851</v>
+        <v>1.060159451221994</v>
       </c>
       <c r="N11">
-        <v>1.086914841865636</v>
+        <v>1.060210886478775</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.078767940225135</v>
+        <v>1.028469502667939</v>
       </c>
       <c r="D12">
-        <v>1.082759448652222</v>
+        <v>1.047379301498802</v>
       </c>
       <c r="E12">
-        <v>1.075754730350092</v>
+        <v>1.021823826322669</v>
       </c>
       <c r="F12">
-        <v>1.090648842183334</v>
+        <v>1.044157483139031</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06783543841205</v>
+        <v>1.066091450224383</v>
       </c>
       <c r="J12">
-        <v>1.085117421602423</v>
+        <v>1.057116011321057</v>
       </c>
       <c r="K12">
-        <v>1.086204206814835</v>
+        <v>1.061651799066933</v>
       </c>
       <c r="L12">
-        <v>1.079223533465914</v>
+        <v>1.036544528901955</v>
       </c>
       <c r="M12">
-        <v>1.094066924878339</v>
+        <v>1.058484924835714</v>
       </c>
       <c r="N12">
-        <v>1.086658412805807</v>
+        <v>1.058617237310034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.078840686270367</v>
+        <v>1.028918145499347</v>
       </c>
       <c r="D13">
-        <v>1.082820065604477</v>
+        <v>1.047750290109115</v>
       </c>
       <c r="E13">
-        <v>1.075822376213516</v>
+        <v>1.022235731658645</v>
       </c>
       <c r="F13">
-        <v>1.090716727861831</v>
+        <v>1.044566520036236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06786488513554</v>
+        <v>1.066307169392375</v>
       </c>
       <c r="J13">
-        <v>1.085172364078642</v>
+        <v>1.057458793854722</v>
       </c>
       <c r="K13">
-        <v>1.086255452071483</v>
+        <v>1.061975329255732</v>
       </c>
       <c r="L13">
-        <v>1.079281712501425</v>
+        <v>1.03690633191082</v>
       </c>
       <c r="M13">
-        <v>1.094125493102484</v>
+        <v>1.058845622280183</v>
       </c>
       <c r="N13">
-        <v>1.086713433306644</v>
+        <v>1.058960506634214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.079078999808524</v>
+        <v>1.030381253018575</v>
       </c>
       <c r="D14">
-        <v>1.083018639104638</v>
+        <v>1.048960281839153</v>
       </c>
       <c r="E14">
-        <v>1.076043944227519</v>
+        <v>1.023578870232975</v>
       </c>
       <c r="F14">
-        <v>1.0909391075214</v>
+        <v>1.045900526924301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0679613052158</v>
+        <v>1.067010299201604</v>
       </c>
       <c r="J14">
-        <v>1.085352327586115</v>
+        <v>1.058576493769363</v>
       </c>
       <c r="K14">
-        <v>1.086423299957638</v>
+        <v>1.063030233199201</v>
       </c>
       <c r="L14">
-        <v>1.079472244392998</v>
+        <v>1.038085818219455</v>
       </c>
       <c r="M14">
-        <v>1.094317325842739</v>
+        <v>1.060021708918104</v>
       </c>
       <c r="N14">
-        <v>1.086893652382939</v>
+        <v>1.060079793810936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.079225798878294</v>
+        <v>1.031277503582514</v>
       </c>
       <c r="D15">
-        <v>1.083140954401048</v>
+        <v>1.049701578614797</v>
       </c>
       <c r="E15">
-        <v>1.076180399509975</v>
+        <v>1.024401507825428</v>
       </c>
       <c r="F15">
-        <v>1.091076082671401</v>
+        <v>1.046717740381891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.068020663657216</v>
+        <v>1.067440728842282</v>
       </c>
       <c r="J15">
-        <v>1.085463163526628</v>
+        <v>1.059261022483469</v>
       </c>
       <c r="K15">
-        <v>1.08652666998105</v>
+        <v>1.063676286971454</v>
       </c>
       <c r="L15">
-        <v>1.079589564001108</v>
+        <v>1.038808010001627</v>
       </c>
       <c r="M15">
-        <v>1.094435466558138</v>
+        <v>1.060741975012317</v>
       </c>
       <c r="N15">
-        <v>1.087004645723201</v>
+        <v>1.060765294634333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.080079722461124</v>
+        <v>1.036417021002002</v>
       </c>
       <c r="D16">
-        <v>1.083852391641464</v>
+        <v>1.05395389024688</v>
       </c>
       <c r="E16">
-        <v>1.076973716460887</v>
+        <v>1.029116987023852</v>
       </c>
       <c r="F16">
-        <v>1.091872726850583</v>
+        <v>1.051404651122339</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.068365407374044</v>
+        <v>1.069904681860649</v>
       </c>
       <c r="J16">
-        <v>1.086107585631395</v>
+        <v>1.06318432048695</v>
       </c>
       <c r="K16">
-        <v>1.087127620437044</v>
+        <v>1.067378818975501</v>
       </c>
       <c r="L16">
-        <v>1.080271299683087</v>
+        <v>1.042944505400702</v>
       </c>
       <c r="M16">
-        <v>1.095122280230615</v>
+        <v>1.06486977962425</v>
       </c>
       <c r="N16">
-        <v>1.087649982981272</v>
+        <v>1.064694164170988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.080614922130593</v>
+        <v>1.039575764604718</v>
       </c>
       <c r="D17">
-        <v>1.08429822952927</v>
+        <v>1.056568470447116</v>
       </c>
       <c r="E17">
-        <v>1.077470546286531</v>
+        <v>1.032013411548287</v>
       </c>
       <c r="F17">
-        <v>1.092371908399711</v>
+        <v>1.054285711877688</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.068580999773102</v>
+        <v>1.071415190452937</v>
       </c>
       <c r="J17">
-        <v>1.086511210352064</v>
+        <v>1.065593685930038</v>
       </c>
       <c r="K17">
-        <v>1.087503961488479</v>
+        <v>1.069652376783708</v>
       </c>
       <c r="L17">
-        <v>1.080697958001149</v>
+        <v>1.045482484644846</v>
       </c>
       <c r="M17">
-        <v>1.0955523862904</v>
+        <v>1.067404460166544</v>
       </c>
       <c r="N17">
-        <v>1.088054180895341</v>
+        <v>1.067106951189363</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.080926937204209</v>
+        <v>1.041395755558543</v>
       </c>
       <c r="D18">
-        <v>1.084558126689424</v>
+        <v>1.058075294454906</v>
       </c>
       <c r="E18">
-        <v>1.077760053917595</v>
+        <v>1.033681634096908</v>
       </c>
       <c r="F18">
-        <v>1.092662882810613</v>
+        <v>1.055945861262482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.068706515715782</v>
+        <v>1.072284113177687</v>
       </c>
       <c r="J18">
-        <v>1.086746421771088</v>
+        <v>1.066981206626524</v>
       </c>
       <c r="K18">
-        <v>1.087723253273999</v>
+        <v>1.070961600171704</v>
       </c>
       <c r="L18">
-        <v>1.080946470922037</v>
+        <v>1.046943246971092</v>
       </c>
       <c r="M18">
-        <v>1.095803004525329</v>
+        <v>1.06886404992266</v>
       </c>
       <c r="N18">
-        <v>1.08828972634156</v>
+        <v>1.068496442324389</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.081033299713377</v>
+        <v>1.042012609850795</v>
       </c>
       <c r="D19">
-        <v>1.084646719188062</v>
+        <v>1.05858606541394</v>
       </c>
       <c r="E19">
-        <v>1.077858720456267</v>
+        <v>1.034246941675854</v>
       </c>
       <c r="F19">
-        <v>1.092762065577552</v>
+        <v>1.056508563788085</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.068749273568311</v>
+        <v>1.072578381275877</v>
       </c>
       <c r="J19">
-        <v>1.086826586300207</v>
+        <v>1.067451362914746</v>
       </c>
       <c r="K19">
-        <v>1.087797988671422</v>
+        <v>1.071405210461962</v>
       </c>
       <c r="L19">
-        <v>1.081031148308245</v>
+        <v>1.04743808158645</v>
       </c>
       <c r="M19">
-        <v>1.095888415738657</v>
+        <v>1.069358609993905</v>
       </c>
       <c r="N19">
-        <v>1.088370004713505</v>
+        <v>1.068967266288467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.080557516647904</v>
+        <v>1.039239205750929</v>
       </c>
       <c r="D20">
-        <v>1.0842504111598</v>
+        <v>1.056289852447535</v>
       </c>
       <c r="E20">
-        <v>1.077417270662202</v>
+        <v>1.031704867184508</v>
       </c>
       <c r="F20">
-        <v>1.092318370618105</v>
+        <v>1.053978723306653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.068557893127534</v>
+        <v>1.071254392957459</v>
       </c>
       <c r="J20">
-        <v>1.086467927626372</v>
+        <v>1.065337044119063</v>
       </c>
       <c r="K20">
-        <v>1.087463606611906</v>
+        <v>1.069410209992841</v>
       </c>
       <c r="L20">
-        <v>1.080652217820266</v>
+        <v>1.045212229039677</v>
       </c>
       <c r="M20">
-        <v>1.095506266438691</v>
+        <v>1.067134480220284</v>
       </c>
       <c r="N20">
-        <v>1.088010836703214</v>
+        <v>1.066849944917579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.079008829457972</v>
+        <v>1.029951497890363</v>
       </c>
       <c r="D21">
-        <v>1.082960170915322</v>
+        <v>1.048604853451073</v>
       </c>
       <c r="E21">
-        <v>1.075978710500194</v>
+        <v>1.023184379128741</v>
       </c>
       <c r="F21">
-        <v>1.090873630661049</v>
+        <v>1.045508682541698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.067932922150792</v>
+        <v>1.066803829795328</v>
       </c>
       <c r="J21">
-        <v>1.085299342310294</v>
+        <v>1.058248222869508</v>
       </c>
       <c r="K21">
-        <v>1.086373882655327</v>
+        <v>1.062720408912465</v>
       </c>
       <c r="L21">
-        <v>1.079416152798941</v>
+        <v>1.037739437686157</v>
       </c>
       <c r="M21">
-        <v>1.094260847094063</v>
+        <v>1.059676294150951</v>
       </c>
       <c r="N21">
-        <v>1.086840591861949</v>
+        <v>1.05975105672875</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.078033639539889</v>
+        <v>1.023886736747856</v>
       </c>
       <c r="D22">
-        <v>1.08214753561862</v>
+        <v>1.043590843659809</v>
       </c>
       <c r="E22">
-        <v>1.075071613298359</v>
+        <v>1.017615049662421</v>
       </c>
       <c r="F22">
-        <v>1.089963511086738</v>
+        <v>1.039979814826586</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.067537834604158</v>
+        <v>1.063884982757903</v>
       </c>
       <c r="J22">
-        <v>1.084562623310369</v>
+        <v>1.053613178737462</v>
       </c>
       <c r="K22">
-        <v>1.085686699370663</v>
+        <v>1.058345544781855</v>
       </c>
       <c r="L22">
-        <v>1.078635791437681</v>
+        <v>1.032845443526961</v>
       </c>
       <c r="M22">
-        <v>1.093475459877992</v>
+        <v>1.054798797692491</v>
       </c>
       <c r="N22">
-        <v>1.086102826636541</v>
+        <v>1.05510943030239</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.078550747672071</v>
+        <v>1.027124329250951</v>
       </c>
       <c r="D23">
-        <v>1.082578464365138</v>
+        <v>1.046267072811176</v>
       </c>
       <c r="E23">
-        <v>1.075552733289303</v>
+        <v>1.020588667400948</v>
       </c>
       <c r="F23">
-        <v>1.090446151154787</v>
+        <v>1.042931115399957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.067747482249199</v>
+        <v>1.065444341501212</v>
       </c>
       <c r="J23">
-        <v>1.084953361741608</v>
+        <v>1.056088090784504</v>
       </c>
       <c r="K23">
-        <v>1.086051182378694</v>
+        <v>1.060681594491886</v>
       </c>
       <c r="L23">
-        <v>1.079049781257632</v>
+        <v>1.035459371451884</v>
       </c>
       <c r="M23">
-        <v>1.093892032608375</v>
+        <v>1.057403258085999</v>
       </c>
       <c r="N23">
-        <v>1.086494119961171</v>
+        <v>1.057587857008416</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.080583456201761</v>
+        <v>1.03939135134798</v>
       </c>
       <c r="D24">
-        <v>1.084272018693624</v>
+        <v>1.056415804032938</v>
       </c>
       <c r="E24">
-        <v>1.07744134450304</v>
+        <v>1.031844350433806</v>
       </c>
       <c r="F24">
-        <v>1.09234256262292</v>
+        <v>1.05411750082311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.068568334753343</v>
+        <v>1.07132708779465</v>
       </c>
       <c r="J24">
-        <v>1.086487485894222</v>
+        <v>1.065453064396005</v>
       </c>
       <c r="K24">
-        <v>1.087481841927882</v>
+        <v>1.069519686808426</v>
       </c>
       <c r="L24">
-        <v>1.080672886918989</v>
+        <v>1.045334406278271</v>
       </c>
       <c r="M24">
-        <v>1.095527106803026</v>
+        <v>1.067256530583959</v>
       </c>
       <c r="N24">
-        <v>1.088030422746048</v>
+        <v>1.066966129956622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.082936133181687</v>
+        <v>1.052754220595615</v>
       </c>
       <c r="D25">
-        <v>1.086231328485736</v>
+        <v>1.067484860312945</v>
       </c>
       <c r="E25">
-        <v>1.079621826502635</v>
+        <v>1.044081510946054</v>
       </c>
       <c r="F25">
-        <v>1.094535821953365</v>
+        <v>1.066308822934056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069511663100859</v>
+        <v>1.077681938419411</v>
       </c>
       <c r="J25">
-        <v>1.08825929470065</v>
+        <v>1.075627886237292</v>
       </c>
       <c r="K25">
-        <v>1.089133367706296</v>
+        <v>1.079118688287069</v>
       </c>
       <c r="L25">
-        <v>1.082542718588488</v>
+        <v>1.056031996388161</v>
       </c>
       <c r="M25">
-        <v>1.097414523623965</v>
+        <v>1.07795814712938</v>
       </c>
       <c r="N25">
-        <v>1.089804747724211</v>
+        <v>1.077155401211992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062810092260534</v>
+        <v>1.006173080676584</v>
       </c>
       <c r="D2">
-        <v>1.075822242068258</v>
+        <v>1.027883935750666</v>
       </c>
       <c r="E2">
-        <v>1.053269925762007</v>
+        <v>1.025774620189137</v>
       </c>
       <c r="F2">
-        <v>1.075485314586256</v>
+        <v>1.034478871722939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.082420047729463</v>
+        <v>1.046089660325728</v>
       </c>
       <c r="J2">
-        <v>1.083261761212208</v>
+        <v>1.028170710694826</v>
       </c>
       <c r="K2">
-        <v>1.086317435864587</v>
+        <v>1.038968004506479</v>
       </c>
       <c r="L2">
-        <v>1.06403385002273</v>
+        <v>1.036886182620119</v>
       </c>
       <c r="M2">
-        <v>1.085984420623355</v>
+        <v>1.045477883485495</v>
       </c>
       <c r="N2">
-        <v>1.08480011716499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012872731248719</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04456507349079</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03862402880502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069804560120191</v>
+        <v>1.010567678479333</v>
       </c>
       <c r="D3">
-        <v>1.081624422004181</v>
+        <v>1.030787191469914</v>
       </c>
       <c r="E3">
-        <v>1.059648793214202</v>
+        <v>1.029129523308146</v>
       </c>
       <c r="F3">
-        <v>1.081868465583309</v>
+        <v>1.037615340224794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.085689581653198</v>
+        <v>1.046870353128914</v>
       </c>
       <c r="J3">
-        <v>1.088557657376621</v>
+        <v>1.030774345657515</v>
       </c>
       <c r="K3">
-        <v>1.091309493123862</v>
+        <v>1.041040734677958</v>
       </c>
       <c r="L3">
-        <v>1.069571369117165</v>
+        <v>1.039402774181261</v>
       </c>
       <c r="M3">
-        <v>1.091550965423452</v>
+        <v>1.047788526311645</v>
       </c>
       <c r="N3">
-        <v>1.090103534109404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013786319918545</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046393779845429</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040086966503979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074200567423419</v>
+        <v>1.013356514625518</v>
       </c>
       <c r="D4">
-        <v>1.085272068900196</v>
+        <v>1.032633367354803</v>
       </c>
       <c r="E4">
-        <v>1.063652098721584</v>
+        <v>1.031269480168373</v>
       </c>
       <c r="F4">
-        <v>1.085880146551742</v>
+        <v>1.039614414671455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.087732197175884</v>
+        <v>1.047355636016206</v>
       </c>
       <c r="J4">
-        <v>1.091879467174178</v>
+        <v>1.032424622180492</v>
       </c>
       <c r="K4">
-        <v>1.09443975387786</v>
+        <v>1.042353265506789</v>
       </c>
       <c r="L4">
-        <v>1.073038516405307</v>
+        <v>1.041004607857656</v>
       </c>
       <c r="M4">
-        <v>1.095041832425081</v>
+        <v>1.049257129212961</v>
       </c>
       <c r="N4">
-        <v>1.093430061257891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014364950797147</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047556070256235</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041015932879749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.076019200404882</v>
+        <v>1.014520940520766</v>
       </c>
       <c r="D5">
-        <v>1.086781285503977</v>
+        <v>1.033407005161283</v>
       </c>
       <c r="E5">
-        <v>1.065306859305941</v>
+        <v>1.032165287041391</v>
       </c>
       <c r="F5">
-        <v>1.087539718060749</v>
+        <v>1.040451324992964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.088574252619185</v>
+        <v>1.047557411780886</v>
       </c>
       <c r="J5">
-        <v>1.093252078159061</v>
+        <v>1.033114940706757</v>
       </c>
       <c r="K5">
-        <v>1.095732974273002</v>
+        <v>1.042903362288677</v>
       </c>
       <c r="L5">
-        <v>1.07446970270842</v>
+        <v>1.04167513762502</v>
       </c>
       <c r="M5">
-        <v>1.096484133829858</v>
+        <v>1.049871879818957</v>
       </c>
       <c r="N5">
-        <v>1.094804621507813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01460749485626</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048042599280886</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041412054090469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076322875442677</v>
+        <v>1.014721403921431</v>
       </c>
       <c r="D6">
-        <v>1.087033303322126</v>
+        <v>1.03354261506797</v>
       </c>
       <c r="E6">
-        <v>1.065583087405095</v>
+        <v>1.032319348861887</v>
       </c>
       <c r="F6">
-        <v>1.087816828154118</v>
+        <v>1.040595778842904</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.088714682961681</v>
+        <v>1.047593997170583</v>
       </c>
       <c r="J6">
-        <v>1.093481180084659</v>
+        <v>1.033235931881184</v>
       </c>
       <c r="K6">
-        <v>1.09594881079247</v>
+        <v>1.043001421677906</v>
       </c>
       <c r="L6">
-        <v>1.07470849471045</v>
+        <v>1.041791387045039</v>
       </c>
       <c r="M6">
-        <v>1.096724858081434</v>
+        <v>1.049979037038813</v>
       </c>
       <c r="N6">
-        <v>1.095034048784423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014650741673076</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048127406155474</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041490117438875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074224981719114</v>
+        <v>1.013387456237198</v>
       </c>
       <c r="D7">
-        <v>1.085292328781207</v>
+        <v>1.032660292195213</v>
       </c>
       <c r="E7">
-        <v>1.063674318717162</v>
+        <v>1.03129247996987</v>
       </c>
       <c r="F7">
-        <v>1.085902425827828</v>
+        <v>1.039637332720015</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.087743513195203</v>
+        <v>1.04736638653322</v>
       </c>
       <c r="J7">
-        <v>1.091897900303897</v>
+        <v>1.032448832411056</v>
       </c>
       <c r="K7">
-        <v>1.094457121813324</v>
+        <v>1.042377015522165</v>
       </c>
       <c r="L7">
-        <v>1.073057742000822</v>
+        <v>1.041024470663256</v>
       </c>
       <c r="M7">
-        <v>1.095061202097644</v>
+        <v>1.049276946976685</v>
       </c>
       <c r="N7">
-        <v>1.093448520564768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014375488088392</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047571754535729</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041052803332823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065201831233283</v>
+        <v>1.007689274616655</v>
       </c>
       <c r="D8">
-        <v>1.077806036881159</v>
+        <v>1.028892743585408</v>
       </c>
       <c r="E8">
-        <v>1.055452372081993</v>
+        <v>1.026929007659463</v>
       </c>
       <c r="F8">
-        <v>1.077668015722222</v>
+        <v>1.035560070647678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.083540626560179</v>
+        <v>1.046367813284463</v>
       </c>
       <c r="J8">
-        <v>1.085074061766371</v>
+        <v>1.029076754543812</v>
       </c>
       <c r="K8">
-        <v>1.088025959733878</v>
+        <v>1.039695065617217</v>
       </c>
       <c r="L8">
-        <v>1.065930157237444</v>
+        <v>1.037756156659567</v>
       </c>
       <c r="M8">
-        <v>1.087889490291182</v>
+        <v>1.046278974660635</v>
       </c>
       <c r="N8">
-        <v>1.086614991393814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013193427381514</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045199079620464</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039161017258327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,81 +804,105 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048225638885858</v>
+        <v>0.9971828045618875</v>
       </c>
       <c r="D9">
-        <v>1.063732205604882</v>
+        <v>1.021968408948247</v>
       </c>
       <c r="E9">
-        <v>1.03993759341363</v>
+        <v>1.018974583903147</v>
       </c>
       <c r="F9">
-        <v>1.062176771260213</v>
+        <v>1.028112931442922</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.075535256719328</v>
+        <v>1.044439250145473</v>
       </c>
       <c r="J9">
-        <v>1.072183264256245</v>
+        <v>1.022835438993758</v>
       </c>
       <c r="K9">
-        <v>1.075869476004641</v>
+        <v>1.03471484265731</v>
       </c>
       <c r="L9">
-        <v>1.052414316989306</v>
+        <v>1.03176713418378</v>
       </c>
       <c r="M9">
-        <v>1.074335645123933</v>
+        <v>1.040765787280482</v>
       </c>
       <c r="N9">
-        <v>1.073705887472628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010998897730769</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040835776609718</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035636481637783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036056942360256</v>
+        <v>0.9899348214694438</v>
       </c>
       <c r="D10">
-        <v>1.053655895722126</v>
+        <v>1.017243232798974</v>
       </c>
       <c r="E10">
-        <v>1.028786726408488</v>
+        <v>1.013607975919536</v>
       </c>
       <c r="F10">
-        <v>1.051076249285114</v>
+        <v>1.023097857171294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069732302656286</v>
+        <v>1.04308149661389</v>
       </c>
       <c r="J10">
-        <v>1.062909572460035</v>
+        <v>1.018553551184441</v>
       </c>
       <c r="K10">
-        <v>1.067119545868856</v>
+        <v>1.03130798162755</v>
       </c>
       <c r="L10">
-        <v>1.042654977553506</v>
+        <v>1.027735805319783</v>
       </c>
       <c r="M10">
-        <v>1.064580727967567</v>
+        <v>1.037062230824594</v>
       </c>
       <c r="N10">
-        <v>1.06441902597036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009500974383561</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037956126378308</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033244450439507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030552638062685</v>
+        <v>0.9873799468219308</v>
       </c>
       <c r="D11">
-        <v>1.049102030297667</v>
+        <v>1.015785115414878</v>
       </c>
       <c r="E11">
-        <v>1.023736186036832</v>
+        <v>1.012185138807873</v>
       </c>
       <c r="F11">
-        <v>1.046056795494524</v>
+        <v>1.021905073541235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067092624713188</v>
+        <v>1.042768976885492</v>
       </c>
       <c r="J11">
-        <v>1.05870740053458</v>
+        <v>1.017287325044608</v>
       </c>
       <c r="K11">
-        <v>1.063153783108029</v>
+        <v>1.030415363271532</v>
       </c>
       <c r="L11">
-        <v>1.038223938019849</v>
+        <v>1.026880862520015</v>
       </c>
       <c r="M11">
-        <v>1.060159451221994</v>
+        <v>1.036425386856476</v>
       </c>
       <c r="N11">
-        <v>1.060210886478775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009134288910895</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037888641387632</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032646269782808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028469502667939</v>
+        <v>0.9866707894190967</v>
       </c>
       <c r="D12">
-        <v>1.047379301498802</v>
+        <v>1.015474277130531</v>
       </c>
       <c r="E12">
-        <v>1.021823826322669</v>
+        <v>1.01201056083902</v>
       </c>
       <c r="F12">
-        <v>1.044157483139031</v>
+        <v>1.021839743156953</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066091450224383</v>
+        <v>1.042763006605745</v>
       </c>
       <c r="J12">
-        <v>1.057116011321057</v>
+        <v>1.017050177921874</v>
       </c>
       <c r="K12">
-        <v>1.061651799066933</v>
+        <v>1.030310900245578</v>
       </c>
       <c r="L12">
-        <v>1.036544528901955</v>
+        <v>1.026911219054224</v>
       </c>
       <c r="M12">
-        <v>1.058484924835714</v>
+        <v>1.036560157504723</v>
       </c>
       <c r="N12">
-        <v>1.058617237310034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009112486990148</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038321787426365</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032572410613822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028918145499347</v>
+        <v>0.9873574418812343</v>
       </c>
       <c r="D13">
-        <v>1.047750290109115</v>
+        <v>1.016047812764586</v>
       </c>
       <c r="E13">
-        <v>1.022235731658645</v>
+        <v>1.012802336882678</v>
       </c>
       <c r="F13">
-        <v>1.044566520036236</v>
+        <v>1.022661877437604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066307169392375</v>
+        <v>1.043007616218806</v>
       </c>
       <c r="J13">
-        <v>1.057458793854722</v>
+        <v>1.01761204760423</v>
       </c>
       <c r="K13">
-        <v>1.061975329255732</v>
+        <v>1.030830863426957</v>
       </c>
       <c r="L13">
-        <v>1.03690633191082</v>
+        <v>1.027645082245185</v>
       </c>
       <c r="M13">
-        <v>1.058845622280183</v>
+        <v>1.037324798620112</v>
       </c>
       <c r="N13">
-        <v>1.058960506634214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009365194286106</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039203093742233</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032937543760452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030381253018575</v>
+        <v>0.9884711661330288</v>
       </c>
       <c r="D14">
-        <v>1.048960281839153</v>
+        <v>1.016851134005498</v>
       </c>
       <c r="E14">
-        <v>1.023578870232975</v>
+        <v>1.013793100198958</v>
       </c>
       <c r="F14">
-        <v>1.045900526924301</v>
+        <v>1.023639155705263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067010299201604</v>
+        <v>1.043292608894503</v>
       </c>
       <c r="J14">
-        <v>1.058576493769363</v>
+        <v>1.018367901481567</v>
       </c>
       <c r="K14">
-        <v>1.063030233199201</v>
+        <v>1.031478670602262</v>
       </c>
       <c r="L14">
-        <v>1.038085818219455</v>
+        <v>1.028476137871689</v>
       </c>
       <c r="M14">
-        <v>1.060021708918104</v>
+        <v>1.038145032427549</v>
       </c>
       <c r="N14">
-        <v>1.060079793810936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009666858146488</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040024777777174</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033396995596082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031277503582514</v>
+        <v>0.9890522080089628</v>
       </c>
       <c r="D15">
-        <v>1.049701578614797</v>
+        <v>1.017247477343073</v>
       </c>
       <c r="E15">
-        <v>1.024401507825428</v>
+        <v>1.014255890619552</v>
       </c>
       <c r="F15">
-        <v>1.046717740381891</v>
+        <v>1.024084330222514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067440728842282</v>
+        <v>1.04342050489023</v>
       </c>
       <c r="J15">
-        <v>1.059261022483469</v>
+        <v>1.018733734733504</v>
       </c>
       <c r="K15">
-        <v>1.063676286971454</v>
+        <v>1.031781136993769</v>
       </c>
       <c r="L15">
-        <v>1.038808010001627</v>
+        <v>1.028843415046417</v>
       </c>
       <c r="M15">
-        <v>1.060741975012317</v>
+        <v>1.038496421193569</v>
       </c>
       <c r="N15">
-        <v>1.060765294634333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009803440677338</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040340043154204</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033616735101516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036417021002002</v>
+        <v>0.9919937910973745</v>
       </c>
       <c r="D16">
-        <v>1.05395389024688</v>
+        <v>1.019143211244612</v>
       </c>
       <c r="E16">
-        <v>1.029116987023852</v>
+        <v>1.016381784943803</v>
       </c>
       <c r="F16">
-        <v>1.051404651122339</v>
+        <v>1.026073902643565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069904681860649</v>
+        <v>1.043964373116383</v>
       </c>
       <c r="J16">
-        <v>1.06318432048695</v>
+        <v>1.020450885113025</v>
       </c>
       <c r="K16">
-        <v>1.067378818975501</v>
+        <v>1.033139533435563</v>
       </c>
       <c r="L16">
-        <v>1.042944505400702</v>
+        <v>1.030425601011152</v>
       </c>
       <c r="M16">
-        <v>1.06486977962425</v>
+        <v>1.039952475829582</v>
       </c>
       <c r="N16">
-        <v>1.064694164170988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010393261054578</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041452207343435</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034580343360367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039575764604718</v>
+        <v>0.9936676775266663</v>
       </c>
       <c r="D17">
-        <v>1.056568470447116</v>
+        <v>1.020177606239417</v>
       </c>
       <c r="E17">
-        <v>1.032013411548287</v>
+        <v>1.017494039554665</v>
       </c>
       <c r="F17">
-        <v>1.054285711877688</v>
+        <v>1.027084957013506</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.071415190452937</v>
+        <v>1.044229715599629</v>
       </c>
       <c r="J17">
-        <v>1.065593685930038</v>
+        <v>1.02137139143499</v>
       </c>
       <c r="K17">
-        <v>1.069652376783708</v>
+        <v>1.033840862580044</v>
       </c>
       <c r="L17">
-        <v>1.045482484644846</v>
+        <v>1.031202133458314</v>
       </c>
       <c r="M17">
-        <v>1.067404460166544</v>
+        <v>1.04063418939261</v>
       </c>
       <c r="N17">
-        <v>1.067106951189363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010687350126315</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041862100831382</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035078801046332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041395755558543</v>
+        <v>0.9943950071075938</v>
       </c>
       <c r="D18">
-        <v>1.058075294454906</v>
+        <v>1.020544890416182</v>
       </c>
       <c r="E18">
-        <v>1.033681634096908</v>
+        <v>1.017801428466448</v>
       </c>
       <c r="F18">
-        <v>1.055945861262482</v>
+        <v>1.027304794844887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.072284113177687</v>
+        <v>1.044270881975494</v>
       </c>
       <c r="J18">
-        <v>1.066981206626524</v>
+        <v>1.021671449553446</v>
       </c>
       <c r="K18">
-        <v>1.070961600171704</v>
+        <v>1.034018171465086</v>
       </c>
       <c r="L18">
-        <v>1.046943246971092</v>
+        <v>1.031319801381675</v>
       </c>
       <c r="M18">
-        <v>1.06886404992266</v>
+        <v>1.040668288185442</v>
       </c>
       <c r="N18">
-        <v>1.068496442324389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010744728216874</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041651548673247</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035192510238961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042012609850795</v>
+        <v>0.9942971629836906</v>
       </c>
       <c r="D19">
-        <v>1.05858606541394</v>
+        <v>1.020341297731922</v>
       </c>
       <c r="E19">
-        <v>1.034246941675854</v>
+        <v>1.017401113637726</v>
       </c>
       <c r="F19">
-        <v>1.056508563788085</v>
+        <v>1.026829418069578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072578381275877</v>
+        <v>1.04412814775641</v>
       </c>
       <c r="J19">
-        <v>1.067451362914746</v>
+        <v>1.021441463008588</v>
       </c>
       <c r="K19">
-        <v>1.071405210461962</v>
+        <v>1.033755202446912</v>
       </c>
       <c r="L19">
-        <v>1.04743808158645</v>
+        <v>1.030863122193692</v>
       </c>
       <c r="M19">
-        <v>1.069358609993905</v>
+        <v>1.040138421864721</v>
       </c>
       <c r="N19">
-        <v>1.068967266288467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010606927625636</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040907318703622</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035012988143488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039239205750929</v>
+        <v>0.9918589423049833</v>
       </c>
       <c r="D20">
-        <v>1.056289852447535</v>
+        <v>1.018513078450306</v>
       </c>
       <c r="E20">
-        <v>1.031704867184508</v>
+        <v>1.015030056864564</v>
       </c>
       <c r="F20">
-        <v>1.053978723306653</v>
+        <v>1.024431213340299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.071254392957459</v>
+        <v>1.043460137079389</v>
       </c>
       <c r="J20">
-        <v>1.065337044119063</v>
+        <v>1.019707335780295</v>
       </c>
       <c r="K20">
-        <v>1.069410209992841</v>
+        <v>1.032238025759048</v>
       </c>
       <c r="L20">
-        <v>1.045212229039677</v>
+        <v>1.028813670934386</v>
       </c>
       <c r="M20">
-        <v>1.067134480220284</v>
+        <v>1.038057654987195</v>
       </c>
       <c r="N20">
-        <v>1.066849944917579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00991133550744</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038733344617313</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033944218000985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029951497890363</v>
+        <v>0.9862764324603732</v>
       </c>
       <c r="D21">
-        <v>1.048604853451073</v>
+        <v>1.014843604407915</v>
       </c>
       <c r="E21">
-        <v>1.023184379128741</v>
+        <v>1.010834684111781</v>
       </c>
       <c r="F21">
-        <v>1.045508682541698</v>
+        <v>1.020479156402244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066803829795328</v>
+        <v>1.042362814917823</v>
       </c>
       <c r="J21">
-        <v>1.058248222869508</v>
+        <v>1.01635935107772</v>
       </c>
       <c r="K21">
-        <v>1.062720408912465</v>
+        <v>1.029549113319427</v>
       </c>
       <c r="L21">
-        <v>1.037739437686157</v>
+        <v>1.025613656896807</v>
       </c>
       <c r="M21">
-        <v>1.059676294150951</v>
+        <v>1.03508266144166</v>
       </c>
       <c r="N21">
-        <v>1.05975105672875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008725326122415</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036337951551697</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032046294669954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023886736747856</v>
+        <v>0.9827095720298541</v>
       </c>
       <c r="D22">
-        <v>1.043590843659809</v>
+        <v>1.012511293445643</v>
       </c>
       <c r="E22">
-        <v>1.017615049662421</v>
+        <v>1.008197693495296</v>
       </c>
       <c r="F22">
-        <v>1.039979814826586</v>
+        <v>1.018000998287782</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063884982757903</v>
+        <v>1.041656900531066</v>
       </c>
       <c r="J22">
-        <v>1.053613178737462</v>
+        <v>1.014227875366083</v>
       </c>
       <c r="K22">
-        <v>1.058345544781855</v>
+        <v>1.027838907945941</v>
       </c>
       <c r="L22">
-        <v>1.032845443526961</v>
+        <v>1.023608483137175</v>
       </c>
       <c r="M22">
-        <v>1.054798797692491</v>
+        <v>1.033224092092883</v>
       </c>
       <c r="N22">
-        <v>1.05510943030239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00797158408398</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034867008440618</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03082354367723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027124329250951</v>
+        <v>0.9845928793201405</v>
       </c>
       <c r="D23">
-        <v>1.046267072811176</v>
+        <v>1.013736173249689</v>
       </c>
       <c r="E23">
-        <v>1.020588667400948</v>
+        <v>1.009588489603276</v>
       </c>
       <c r="F23">
-        <v>1.042931115399957</v>
+        <v>1.019307359704068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065444341501212</v>
+        <v>1.042025619684594</v>
       </c>
       <c r="J23">
-        <v>1.056088090784504</v>
+        <v>1.015347856724932</v>
       </c>
       <c r="K23">
-        <v>1.060681594491886</v>
+        <v>1.028733711927271</v>
       </c>
       <c r="L23">
-        <v>1.035459371451884</v>
+        <v>1.024663891899637</v>
       </c>
       <c r="M23">
-        <v>1.057403258085999</v>
+        <v>1.03420161092472</v>
       </c>
       <c r="N23">
-        <v>1.057587857008416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00836532380566</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035640654740453</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031446536657479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03939135134798</v>
+        <v>0.9918647043039692</v>
       </c>
       <c r="D24">
-        <v>1.056415804032938</v>
+        <v>1.018489079564492</v>
       </c>
       <c r="E24">
-        <v>1.031844350433806</v>
+        <v>1.014990683261297</v>
       </c>
       <c r="F24">
-        <v>1.05411750082311</v>
+        <v>1.024378886197433</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.07132708779465</v>
+        <v>1.043437443921225</v>
       </c>
       <c r="J24">
-        <v>1.065453064396005</v>
+        <v>1.019679552661299</v>
       </c>
       <c r="K24">
-        <v>1.069519686808426</v>
+        <v>1.032199103862561</v>
       </c>
       <c r="L24">
-        <v>1.045334406278271</v>
+        <v>1.028759562410677</v>
       </c>
       <c r="M24">
-        <v>1.067256530583959</v>
+        <v>1.037990992558586</v>
       </c>
       <c r="N24">
-        <v>1.066966129956622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009891470329292</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038639710304091</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033889222069891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052754220595615</v>
+        <v>0.9999796052528815</v>
       </c>
       <c r="D25">
-        <v>1.067484860312945</v>
+        <v>1.023817512119415</v>
       </c>
       <c r="E25">
-        <v>1.044081510946054</v>
+        <v>1.021080387922495</v>
       </c>
       <c r="F25">
-        <v>1.066308822934056</v>
+        <v>1.030087768296665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.077681938419411</v>
+        <v>1.044970032128901</v>
       </c>
       <c r="J25">
-        <v>1.075627886237292</v>
+        <v>1.024507655782026</v>
       </c>
       <c r="K25">
-        <v>1.079118688287069</v>
+        <v>1.036057009894835</v>
       </c>
       <c r="L25">
-        <v>1.056031996388161</v>
+        <v>1.033360040071722</v>
       </c>
       <c r="M25">
-        <v>1.07795814712938</v>
+        <v>1.042236298657446</v>
       </c>
       <c r="N25">
-        <v>1.077155401211992</v>
+        <v>1.011590841439556</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041999586290765</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036614098113876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006173080676584</v>
+        <v>1.005842983131527</v>
       </c>
       <c r="D2">
-        <v>1.027883935750666</v>
+        <v>1.027134471841596</v>
       </c>
       <c r="E2">
-        <v>1.025774620189137</v>
+        <v>1.025499658984784</v>
       </c>
       <c r="F2">
-        <v>1.034478871722939</v>
+        <v>1.034045025911451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046089660325728</v>
+        <v>1.045818912301008</v>
       </c>
       <c r="J2">
-        <v>1.028170710694826</v>
+        <v>1.027850325097178</v>
       </c>
       <c r="K2">
-        <v>1.038968004506479</v>
+        <v>1.038228293218039</v>
       </c>
       <c r="L2">
-        <v>1.036886182620119</v>
+        <v>1.036614815811029</v>
       </c>
       <c r="M2">
-        <v>1.045477883485495</v>
+        <v>1.045049591448906</v>
       </c>
       <c r="N2">
-        <v>1.012872731248719</v>
+        <v>1.014298774285319</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04456507349079</v>
+        <v>1.044226110878993</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03862402880502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038109762649911</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022118781655365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010567678479333</v>
+        <v>1.009967748524601</v>
       </c>
       <c r="D3">
-        <v>1.030787191469914</v>
+        <v>1.029770286212363</v>
       </c>
       <c r="E3">
-        <v>1.029129523308146</v>
+        <v>1.028700417682293</v>
       </c>
       <c r="F3">
-        <v>1.037615340224794</v>
+        <v>1.03699511926542</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046870353128914</v>
+        <v>1.046483398363803</v>
       </c>
       <c r="J3">
-        <v>1.030774345657515</v>
+        <v>1.030190322336576</v>
       </c>
       <c r="K3">
-        <v>1.041040734677958</v>
+        <v>1.040035909867224</v>
       </c>
       <c r="L3">
-        <v>1.039402774181261</v>
+        <v>1.038978782931289</v>
       </c>
       <c r="M3">
-        <v>1.047788526311645</v>
+        <v>1.047175550370232</v>
       </c>
       <c r="N3">
-        <v>1.013786319918545</v>
+        <v>1.014948745249241</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046393779845429</v>
+        <v>1.045908654251301</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040086966503979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039384962543939</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022510933680516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013356514625518</v>
+        <v>1.012587674464874</v>
       </c>
       <c r="D4">
-        <v>1.032633367354803</v>
+        <v>1.031448203413646</v>
       </c>
       <c r="E4">
-        <v>1.031269480168373</v>
+        <v>1.030744073115991</v>
       </c>
       <c r="F4">
-        <v>1.039614414671455</v>
+        <v>1.038877263017238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047355636016206</v>
+        <v>1.046895527722668</v>
       </c>
       <c r="J4">
-        <v>1.032424622180492</v>
+        <v>1.031674776573366</v>
       </c>
       <c r="K4">
-        <v>1.042353265506789</v>
+        <v>1.041181332607887</v>
       </c>
       <c r="L4">
-        <v>1.041004607857656</v>
+        <v>1.040485080882202</v>
       </c>
       <c r="M4">
-        <v>1.049257129212961</v>
+        <v>1.048528067451102</v>
       </c>
       <c r="N4">
-        <v>1.014364950797147</v>
+        <v>1.01536089741988</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047556070256235</v>
+        <v>1.04697907210521</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041015932879749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040195849518437</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022756943527446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014520940520766</v>
+        <v>1.013682004605738</v>
       </c>
       <c r="D5">
-        <v>1.033407005161283</v>
+        <v>1.032151903460455</v>
       </c>
       <c r="E5">
-        <v>1.032165287041391</v>
+        <v>1.031599949276253</v>
       </c>
       <c r="F5">
-        <v>1.040451324992964</v>
+        <v>1.03966560829849</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047557411780886</v>
+        <v>1.047066856478732</v>
       </c>
       <c r="J5">
-        <v>1.033114940706757</v>
+        <v>1.03229610694082</v>
       </c>
       <c r="K5">
-        <v>1.042903362288677</v>
+        <v>1.041661899697303</v>
       </c>
       <c r="L5">
-        <v>1.04167513762502</v>
+        <v>1.041115956458686</v>
       </c>
       <c r="M5">
-        <v>1.049871879818957</v>
+        <v>1.049094555700085</v>
       </c>
       <c r="N5">
-        <v>1.01460749485626</v>
+        <v>1.015533817466826</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048042599280886</v>
+        <v>1.047427405453357</v>
       </c>
       <c r="Q5">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R5">
-        <v>1.041412054090469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040543517600252</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022860105068004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014721403921431</v>
+        <v>1.013870307656715</v>
       </c>
       <c r="D6">
-        <v>1.03354261506797</v>
+        <v>1.032275463576605</v>
       </c>
       <c r="E6">
-        <v>1.032319348861887</v>
+        <v>1.031747065850211</v>
       </c>
       <c r="F6">
-        <v>1.040595778842904</v>
+        <v>1.039801654228901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047593997170583</v>
+        <v>1.047098156617402</v>
       </c>
       <c r="J6">
-        <v>1.033235931881184</v>
+        <v>1.032405123353504</v>
       </c>
       <c r="K6">
-        <v>1.043001421677906</v>
+        <v>1.04174797716373</v>
       </c>
       <c r="L6">
-        <v>1.041791387045039</v>
+        <v>1.041225307400528</v>
       </c>
       <c r="M6">
-        <v>1.049979037038813</v>
+        <v>1.049193355834072</v>
       </c>
       <c r="N6">
-        <v>1.014650741673076</v>
+        <v>1.015564710190678</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048127406155474</v>
+        <v>1.047505598388804</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041490117438875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040613977321923</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02287921755201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013387456237198</v>
+        <v>1.012627897874475</v>
       </c>
       <c r="D7">
-        <v>1.032660292195213</v>
+        <v>1.03148110211769</v>
       </c>
       <c r="E7">
-        <v>1.03129247996987</v>
+        <v>1.030771576385611</v>
       </c>
       <c r="F7">
-        <v>1.039637332720015</v>
+        <v>1.03890503087539</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04736638653322</v>
+        <v>1.046909089503066</v>
       </c>
       <c r="J7">
-        <v>1.032448832411056</v>
+        <v>1.031708030670679</v>
       </c>
       <c r="K7">
-        <v>1.042377015522165</v>
+        <v>1.041210984469521</v>
       </c>
       <c r="L7">
-        <v>1.041024470663256</v>
+        <v>1.040509394460825</v>
       </c>
       <c r="M7">
-        <v>1.049276946976685</v>
+        <v>1.048552678645656</v>
       </c>
       <c r="N7">
-        <v>1.014375488088392</v>
+        <v>1.015398133750034</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047571754535729</v>
+        <v>1.046998550042272</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041052803332823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040238891203112</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022766003632092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007689274616655</v>
+        <v>1.007300585350536</v>
       </c>
       <c r="D8">
-        <v>1.028892743585408</v>
+        <v>1.028075231024795</v>
       </c>
       <c r="E8">
-        <v>1.026929007659463</v>
+        <v>1.026618549132832</v>
       </c>
       <c r="F8">
-        <v>1.035560070647678</v>
+        <v>1.035081091601356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046367813284463</v>
+        <v>1.04606842965532</v>
       </c>
       <c r="J8">
-        <v>1.029076754543812</v>
+        <v>1.028699112085557</v>
       </c>
       <c r="K8">
-        <v>1.039695065617217</v>
+        <v>1.038887874259851</v>
       </c>
       <c r="L8">
-        <v>1.037756156659567</v>
+        <v>1.037449634029114</v>
       </c>
       <c r="M8">
-        <v>1.046278974660635</v>
+        <v>1.045805943712564</v>
       </c>
       <c r="N8">
-        <v>1.013193427381514</v>
+        <v>1.014617257720993</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045199079620464</v>
+        <v>1.044824709665131</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039161017258327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03860129989731</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022267428279853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9971828045618875</v>
+        <v>0.9974599229951482</v>
       </c>
       <c r="D9">
-        <v>1.021968408948247</v>
+        <v>1.021803628385793</v>
       </c>
       <c r="E9">
-        <v>1.018974583903147</v>
+        <v>1.01904586818351</v>
       </c>
       <c r="F9">
-        <v>1.028112931442922</v>
+        <v>1.028091518479601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044439250145473</v>
+        <v>1.044423556049873</v>
       </c>
       <c r="J9">
-        <v>1.022835438993758</v>
+        <v>1.023102697889137</v>
       </c>
       <c r="K9">
-        <v>1.03471484265731</v>
+        <v>1.034552591389636</v>
       </c>
       <c r="L9">
-        <v>1.03176713418378</v>
+        <v>1.031837316386775</v>
       </c>
       <c r="M9">
-        <v>1.040765787280482</v>
+        <v>1.040744697951324</v>
       </c>
       <c r="N9">
-        <v>1.010998897730769</v>
+        <v>1.013070354365202</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040835776609718</v>
+        <v>1.040819085827266</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035636481637783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035532515773236</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021311510525263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9899348214694438</v>
+        <v>0.9907328927752197</v>
       </c>
       <c r="D10">
-        <v>1.017243232798974</v>
+        <v>1.017569571081235</v>
       </c>
       <c r="E10">
-        <v>1.013607975919536</v>
+        <v>1.013975325393352</v>
       </c>
       <c r="F10">
-        <v>1.023097857171294</v>
+        <v>1.02342591146248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04308149661389</v>
+        <v>1.043279810976229</v>
       </c>
       <c r="J10">
-        <v>1.018553551184441</v>
+        <v>1.019319074367024</v>
       </c>
       <c r="K10">
-        <v>1.03130798162755</v>
+        <v>1.031628685658526</v>
       </c>
       <c r="L10">
-        <v>1.027735805319783</v>
+        <v>1.028096753786058</v>
       </c>
       <c r="M10">
-        <v>1.037062230824594</v>
+        <v>1.037384704627931</v>
       </c>
       <c r="N10">
-        <v>1.009500974383561</v>
+        <v>1.012144778651903</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037956126378308</v>
+        <v>1.038211327706258</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033244450439507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033483651171354</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02066530779482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873799468219308</v>
+        <v>0.9883990493944316</v>
       </c>
       <c r="D11">
-        <v>1.015785115414878</v>
+        <v>1.016300850499888</v>
       </c>
       <c r="E11">
-        <v>1.012185138807873</v>
+        <v>1.012658526712395</v>
       </c>
       <c r="F11">
-        <v>1.021905073541235</v>
+        <v>1.022368055229989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042768976885492</v>
+        <v>1.04304535216713</v>
       </c>
       <c r="J11">
-        <v>1.017287325044608</v>
+        <v>1.018262533912851</v>
       </c>
       <c r="K11">
-        <v>1.030415363271532</v>
+        <v>1.030921767634267</v>
       </c>
       <c r="L11">
-        <v>1.026880862520015</v>
+        <v>1.027345605910909</v>
       </c>
       <c r="M11">
-        <v>1.036425386856476</v>
+        <v>1.036880121380932</v>
       </c>
       <c r="N11">
-        <v>1.009134288910895</v>
+        <v>1.012140290811366</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037888641387632</v>
+        <v>1.03824833095034</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032646269782808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033019973116641</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02056739931432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9866707894190967</v>
+        <v>0.9877419548357803</v>
       </c>
       <c r="D12">
-        <v>1.015474277130531</v>
+        <v>1.016030351276143</v>
       </c>
       <c r="E12">
-        <v>1.01201056083902</v>
+        <v>1.012496856858858</v>
       </c>
       <c r="F12">
-        <v>1.021839743156953</v>
+        <v>1.022329451601877</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042763006605745</v>
+        <v>1.043052113381279</v>
       </c>
       <c r="J12">
-        <v>1.017050177921874</v>
+        <v>1.018074312463403</v>
       </c>
       <c r="K12">
-        <v>1.030310900245578</v>
+        <v>1.03085674701268</v>
       </c>
       <c r="L12">
-        <v>1.026911219054224</v>
+        <v>1.027388490249186</v>
       </c>
       <c r="M12">
-        <v>1.036560157504723</v>
+        <v>1.037041003720528</v>
       </c>
       <c r="N12">
-        <v>1.009112486990148</v>
+        <v>1.012233809882162</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038321787426365</v>
+        <v>1.038702002202318</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032572410613822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032974002177021</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020595388481483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9873574418812343</v>
+        <v>0.9883337603548303</v>
       </c>
       <c r="D13">
-        <v>1.016047812764586</v>
+        <v>1.016517447973983</v>
       </c>
       <c r="E13">
-        <v>1.012802336882678</v>
+        <v>1.013221063134614</v>
       </c>
       <c r="F13">
-        <v>1.022661877437604</v>
+        <v>1.023085624244097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043007616218806</v>
+        <v>1.043253308860302</v>
       </c>
       <c r="J13">
-        <v>1.01761204760423</v>
+        <v>1.018545735880949</v>
       </c>
       <c r="K13">
-        <v>1.030830863426957</v>
+        <v>1.031291901645332</v>
       </c>
       <c r="L13">
-        <v>1.027645082245185</v>
+        <v>1.028056078775887</v>
       </c>
       <c r="M13">
-        <v>1.037324798620112</v>
+        <v>1.037740917829187</v>
       </c>
       <c r="N13">
-        <v>1.009365194286106</v>
+        <v>1.012377239778586</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039203093742233</v>
+        <v>1.039532044893522</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032937543760452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033278924539215</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020726639593265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9884711661330288</v>
+        <v>0.9893153813124944</v>
       </c>
       <c r="D14">
-        <v>1.016851134005498</v>
+        <v>1.017203764027862</v>
       </c>
       <c r="E14">
-        <v>1.013793100198958</v>
+        <v>1.014129864200632</v>
       </c>
       <c r="F14">
-        <v>1.023639155705263</v>
+        <v>1.023975756587707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043292608894503</v>
+        <v>1.043483196546596</v>
       </c>
       <c r="J14">
-        <v>1.018367901481567</v>
+        <v>1.019175808781567</v>
       </c>
       <c r="K14">
-        <v>1.031478670602262</v>
+        <v>1.031824928547166</v>
       </c>
       <c r="L14">
-        <v>1.028476137871689</v>
+        <v>1.028806768510773</v>
       </c>
       <c r="M14">
-        <v>1.038145032427549</v>
+        <v>1.03847565496879</v>
       </c>
       <c r="N14">
-        <v>1.009666858146488</v>
+        <v>1.012502222127542</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040024777777174</v>
+        <v>1.040286106744804</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033396995596082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033657352317649</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020866071512928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9890522080089628</v>
+        <v>0.9898329146756907</v>
       </c>
       <c r="D15">
-        <v>1.017247477343073</v>
+        <v>1.017544487868191</v>
       </c>
       <c r="E15">
-        <v>1.014255890619552</v>
+        <v>1.014556038222082</v>
       </c>
       <c r="F15">
-        <v>1.024084330222514</v>
+        <v>1.02438002405498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04342050489023</v>
+        <v>1.043585790553563</v>
       </c>
       <c r="J15">
-        <v>1.018733734733504</v>
+        <v>1.01948116924723</v>
       </c>
       <c r="K15">
-        <v>1.031781136993769</v>
+        <v>1.032072822170523</v>
       </c>
       <c r="L15">
-        <v>1.028843415046417</v>
+        <v>1.029138139725952</v>
       </c>
       <c r="M15">
-        <v>1.038496421193569</v>
+        <v>1.038786904641733</v>
       </c>
       <c r="N15">
-        <v>1.009803440677338</v>
+        <v>1.01254930194072</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040340043154204</v>
+        <v>1.040569639562722</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033616735101516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03383907195036</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020925576495765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9919937910973745</v>
+        <v>0.9924908971134303</v>
       </c>
       <c r="D16">
-        <v>1.019143211244612</v>
+        <v>1.019192011784047</v>
       </c>
       <c r="E16">
-        <v>1.016381784943803</v>
+        <v>1.016530364750802</v>
       </c>
       <c r="F16">
-        <v>1.026073902643565</v>
+        <v>1.026190116686756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043964373116383</v>
+        <v>1.044021383602132</v>
       </c>
       <c r="J16">
-        <v>1.020450885113025</v>
+        <v>1.020927892616587</v>
       </c>
       <c r="K16">
-        <v>1.033139533435563</v>
+        <v>1.033187497643416</v>
       </c>
       <c r="L16">
-        <v>1.030425601011152</v>
+        <v>1.030571616893464</v>
       </c>
       <c r="M16">
-        <v>1.039952475829582</v>
+        <v>1.040066732940283</v>
       </c>
       <c r="N16">
-        <v>1.010393261054578</v>
+        <v>1.012729465714875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041452207343435</v>
+        <v>1.041542518092712</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034580343360367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034630653180321</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021163605938963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9936676775266663</v>
+        <v>0.994030667097156</v>
       </c>
       <c r="D17">
-        <v>1.020177606239417</v>
+        <v>1.020107085311538</v>
       </c>
       <c r="E17">
-        <v>1.017494039554665</v>
+        <v>1.017575326910998</v>
       </c>
       <c r="F17">
-        <v>1.027084957013506</v>
+        <v>1.027116561972004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044229715599629</v>
+        <v>1.04423677552265</v>
       </c>
       <c r="J17">
-        <v>1.02137139143499</v>
+        <v>1.021720186563998</v>
       </c>
       <c r="K17">
-        <v>1.033840862580044</v>
+        <v>1.033771516042075</v>
       </c>
       <c r="L17">
-        <v>1.031202133458314</v>
+        <v>1.031282058172301</v>
       </c>
       <c r="M17">
-        <v>1.04063418939261</v>
+        <v>1.040665277159192</v>
       </c>
       <c r="N17">
-        <v>1.010687350126315</v>
+        <v>1.012833261838931</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041862100831382</v>
+        <v>1.04188667557551</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035078801046332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035046412097589</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021275000272577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9943950071075938</v>
+        <v>0.9947239021446924</v>
       </c>
       <c r="D18">
-        <v>1.020544890416182</v>
+        <v>1.020443807586165</v>
       </c>
       <c r="E18">
-        <v>1.017801428466448</v>
+        <v>1.017873397234522</v>
       </c>
       <c r="F18">
-        <v>1.027304794844887</v>
+        <v>1.027316761839446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044270881975494</v>
+        <v>1.044268436254335</v>
       </c>
       <c r="J18">
-        <v>1.021671449553446</v>
+        <v>1.02198772668427</v>
       </c>
       <c r="K18">
-        <v>1.034018171465086</v>
+        <v>1.033918744513401</v>
       </c>
       <c r="L18">
-        <v>1.031319801381675</v>
+        <v>1.031390583268179</v>
       </c>
       <c r="M18">
-        <v>1.040668288185442</v>
+        <v>1.040680062467763</v>
       </c>
       <c r="N18">
-        <v>1.010744728216874</v>
+        <v>1.012833096207479</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041651548673247</v>
+        <v>1.041660858129887</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035192510238961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035137721207153</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021276704123055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9942971629836906</v>
+        <v>0.9946683574724895</v>
       </c>
       <c r="D19">
-        <v>1.020341297731922</v>
+        <v>1.020279534501084</v>
       </c>
       <c r="E19">
-        <v>1.017401113637726</v>
+        <v>1.01750843688309</v>
       </c>
       <c r="F19">
-        <v>1.026829418069578</v>
+        <v>1.026872343631003</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04412814775641</v>
+        <v>1.044147618799701</v>
       </c>
       <c r="J19">
-        <v>1.021441463008588</v>
+        <v>1.02179849712213</v>
       </c>
       <c r="K19">
-        <v>1.033755202446912</v>
+        <v>1.033694446050446</v>
       </c>
       <c r="L19">
-        <v>1.030863122193692</v>
+        <v>1.030968683255612</v>
       </c>
       <c r="M19">
-        <v>1.040138421864721</v>
+        <v>1.040180659060262</v>
       </c>
       <c r="N19">
-        <v>1.010606927625636</v>
+        <v>1.012730259283252</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040907318703622</v>
+        <v>1.040940724871145</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035012988143488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034986165211981</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021188334566803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9918589423049833</v>
+        <v>0.9924835754958589</v>
       </c>
       <c r="D20">
-        <v>1.018513078450306</v>
+        <v>1.01868440386364</v>
       </c>
       <c r="E20">
-        <v>1.015030056864564</v>
+        <v>1.015298967153061</v>
       </c>
       <c r="F20">
-        <v>1.024431213340299</v>
+        <v>1.024646296039585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043460137079389</v>
+        <v>1.043589366412916</v>
       </c>
       <c r="J20">
-        <v>1.019707335780295</v>
+        <v>1.020307349451181</v>
       </c>
       <c r="K20">
-        <v>1.032238025759048</v>
+        <v>1.032406478773087</v>
       </c>
       <c r="L20">
-        <v>1.028813670934386</v>
+        <v>1.029078033293682</v>
       </c>
       <c r="M20">
-        <v>1.038057654987195</v>
+        <v>1.038269185271556</v>
       </c>
       <c r="N20">
-        <v>1.00991133550744</v>
+        <v>1.012321191933748</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038733344617313</v>
+        <v>1.038900748749799</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033944218000985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034079850920199</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020840541717858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862764324603732</v>
+        <v>0.9874766555893425</v>
       </c>
       <c r="D21">
-        <v>1.014843604407915</v>
+        <v>1.015519730286784</v>
       </c>
       <c r="E21">
-        <v>1.010834684111781</v>
+        <v>1.011433328447685</v>
       </c>
       <c r="F21">
-        <v>1.020479156402244</v>
+        <v>1.021065555789761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042362814917823</v>
+        <v>1.042719062640026</v>
       </c>
       <c r="J21">
-        <v>1.01635935107772</v>
+        <v>1.017507467164585</v>
       </c>
       <c r="K21">
-        <v>1.029549113319427</v>
+        <v>1.030212923503403</v>
       </c>
       <c r="L21">
-        <v>1.025613656896807</v>
+        <v>1.026201282824287</v>
       </c>
       <c r="M21">
-        <v>1.03508266144166</v>
+        <v>1.035658530984727</v>
       </c>
       <c r="N21">
-        <v>1.008725326122415</v>
+        <v>1.011970267220285</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036337951551697</v>
+        <v>1.036793716189652</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032046294669954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032532502453035</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020354347624969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9827095720298541</v>
+        <v>0.9842778157184575</v>
       </c>
       <c r="D22">
-        <v>1.012511293445643</v>
+        <v>1.013510975445728</v>
       </c>
       <c r="E22">
-        <v>1.008197693495296</v>
+        <v>1.009010339870692</v>
       </c>
       <c r="F22">
-        <v>1.018000998287782</v>
+        <v>1.01882603714657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041656900531066</v>
+        <v>1.042159085474487</v>
       </c>
       <c r="J22">
-        <v>1.014227875366083</v>
+        <v>1.015723924575585</v>
       </c>
       <c r="K22">
-        <v>1.027838907945941</v>
+        <v>1.028819446249313</v>
       </c>
       <c r="L22">
-        <v>1.023608483137175</v>
+        <v>1.02440538876137</v>
       </c>
       <c r="M22">
-        <v>1.033224092092883</v>
+        <v>1.034033549917107</v>
       </c>
       <c r="N22">
-        <v>1.00797158408398</v>
+        <v>1.011741254865408</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034867008440618</v>
+        <v>1.035507644803896</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03082354367723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031532407988051</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020044978784135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9845928793201405</v>
+        <v>0.9859474377761851</v>
       </c>
       <c r="D23">
-        <v>1.013736173249689</v>
+        <v>1.014550631996024</v>
       </c>
       <c r="E23">
-        <v>1.009588489603276</v>
+        <v>1.01027673739286</v>
       </c>
       <c r="F23">
-        <v>1.019307359704068</v>
+        <v>1.019994979776176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042025619684594</v>
+        <v>1.042443800983112</v>
       </c>
       <c r="J23">
-        <v>1.015347856724932</v>
+        <v>1.016641949832068</v>
       </c>
       <c r="K23">
-        <v>1.028733711927271</v>
+        <v>1.029532978577792</v>
       </c>
       <c r="L23">
-        <v>1.024663891899637</v>
+        <v>1.025339161554055</v>
       </c>
       <c r="M23">
-        <v>1.03420161092472</v>
+        <v>1.034876584710915</v>
       </c>
       <c r="N23">
-        <v>1.00836532380566</v>
+        <v>1.011811959078335</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035640654740453</v>
+        <v>1.036174854668674</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031446536657479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032026292252022</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020200076361847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9918647043039692</v>
+        <v>0.9924930806762771</v>
       </c>
       <c r="D24">
-        <v>1.018489079564492</v>
+        <v>1.018663757989758</v>
       </c>
       <c r="E24">
-        <v>1.014990683261297</v>
+        <v>1.015263425532885</v>
       </c>
       <c r="F24">
-        <v>1.024378886197433</v>
+        <v>1.024596951878828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043437443921225</v>
+        <v>1.043568933742792</v>
       </c>
       <c r="J24">
-        <v>1.019679552661299</v>
+        <v>1.020283197379086</v>
       </c>
       <c r="K24">
-        <v>1.032199103862561</v>
+        <v>1.032370857263298</v>
       </c>
       <c r="L24">
-        <v>1.028759562410677</v>
+        <v>1.029027697427704</v>
       </c>
       <c r="M24">
-        <v>1.037990992558586</v>
+        <v>1.038205460708279</v>
       </c>
       <c r="N24">
-        <v>1.009891470329292</v>
+        <v>1.012303386324125</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038639710304091</v>
+        <v>1.038809447884343</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033889222069891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034024526067626</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020825001356152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9999796052528815</v>
+        <v>1.00006202694391</v>
       </c>
       <c r="D25">
-        <v>1.023817512119415</v>
+        <v>1.023467162480429</v>
       </c>
       <c r="E25">
-        <v>1.021080387922495</v>
+        <v>1.021040306435155</v>
       </c>
       <c r="F25">
-        <v>1.030087768296665</v>
+        <v>1.029934680725419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044970032128901</v>
+        <v>1.044873053853493</v>
       </c>
       <c r="J25">
-        <v>1.024507655782026</v>
+        <v>1.02458730381519</v>
       </c>
       <c r="K25">
-        <v>1.036057009894835</v>
+        <v>1.035711784771134</v>
       </c>
       <c r="L25">
-        <v>1.033360040071722</v>
+        <v>1.033320548622029</v>
       </c>
       <c r="M25">
-        <v>1.042236298657446</v>
+        <v>1.042085415334405</v>
       </c>
       <c r="N25">
-        <v>1.011590841439556</v>
+        <v>1.013452198993679</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041999586290765</v>
+        <v>1.041880172494929</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036614098113876</v>
+        <v>1.036383550454032</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021571155522295</v>
       </c>
     </row>
   </sheetData>
